--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>7426900</v>
+        <v>7491800</v>
       </c>
       <c r="E8" s="3">
-        <v>5774400</v>
+        <v>5824900</v>
       </c>
       <c r="F8" s="3">
-        <v>4490800</v>
+        <v>4530100</v>
       </c>
       <c r="G8" s="3">
-        <v>3241300</v>
+        <v>3269600</v>
       </c>
       <c r="H8" s="3">
-        <v>2130100</v>
+        <v>2148700</v>
       </c>
       <c r="I8" s="3">
-        <v>1191300</v>
+        <v>1201700</v>
       </c>
       <c r="J8" s="3">
-        <v>819100</v>
+        <v>826300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -751,25 +751,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5536100</v>
+        <v>5584500</v>
       </c>
       <c r="E9" s="3">
-        <v>4288800</v>
+        <v>4326300</v>
       </c>
       <c r="F9" s="3">
-        <v>3558600</v>
+        <v>3589700</v>
       </c>
       <c r="G9" s="3">
-        <v>2801000</v>
+        <v>2825500</v>
       </c>
       <c r="H9" s="3">
-        <v>1882000</v>
+        <v>1898400</v>
       </c>
       <c r="I9" s="3">
-        <v>1000300</v>
+        <v>1009000</v>
       </c>
       <c r="J9" s="3">
-        <v>678600</v>
+        <v>684500</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -784,25 +784,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1890800</v>
+        <v>1907300</v>
       </c>
       <c r="E10" s="3">
-        <v>1485600</v>
+        <v>1498600</v>
       </c>
       <c r="F10" s="3">
-        <v>932200</v>
+        <v>940400</v>
       </c>
       <c r="G10" s="3">
-        <v>440300</v>
+        <v>444100</v>
       </c>
       <c r="H10" s="3">
-        <v>248100</v>
+        <v>250300</v>
       </c>
       <c r="I10" s="3">
-        <v>191100</v>
+        <v>192700</v>
       </c>
       <c r="J10" s="3">
-        <v>140500</v>
+        <v>141800</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -832,25 +832,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>675300</v>
+        <v>665700</v>
       </c>
       <c r="E12" s="3">
-        <v>541300</v>
+        <v>546000</v>
       </c>
       <c r="F12" s="3">
-        <v>434800</v>
+        <v>438600</v>
       </c>
       <c r="G12" s="3">
-        <v>227300</v>
+        <v>229300</v>
       </c>
       <c r="H12" s="3">
-        <v>149300</v>
+        <v>150600</v>
       </c>
       <c r="I12" s="3">
-        <v>125200</v>
+        <v>126300</v>
       </c>
       <c r="J12" s="3">
-        <v>80200</v>
+        <v>80900</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -931,25 +931,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>15500</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7507000</v>
+        <v>7572700</v>
       </c>
       <c r="E17" s="3">
-        <v>5822700</v>
+        <v>5873600</v>
       </c>
       <c r="F17" s="3">
-        <v>4904800</v>
+        <v>4947600</v>
       </c>
       <c r="G17" s="3">
-        <v>3626700</v>
+        <v>3658400</v>
       </c>
       <c r="H17" s="3">
-        <v>2388200</v>
+        <v>2409000</v>
       </c>
       <c r="I17" s="3">
-        <v>1401000</v>
+        <v>1413300</v>
       </c>
       <c r="J17" s="3">
-        <v>926700</v>
+        <v>934800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-80200</v>
+        <v>-80900</v>
       </c>
       <c r="E18" s="3">
-        <v>-48300</v>
+        <v>-48700</v>
       </c>
       <c r="F18" s="3">
-        <v>-413900</v>
+        <v>-417600</v>
       </c>
       <c r="G18" s="3">
-        <v>-385400</v>
+        <v>-388800</v>
       </c>
       <c r="H18" s="3">
-        <v>-258000</v>
+        <v>-260300</v>
       </c>
       <c r="I18" s="3">
-        <v>-209700</v>
+        <v>-211600</v>
       </c>
       <c r="J18" s="3">
-        <v>-107600</v>
+        <v>-108500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-22000</v>
+        <v>-22200</v>
       </c>
       <c r="E20" s="3">
-        <v>-135100</v>
+        <v>-142900</v>
       </c>
       <c r="F20" s="3">
-        <v>-935500</v>
+        <v>-943700</v>
       </c>
       <c r="G20" s="3">
-        <v>-196500</v>
+        <v>-203800</v>
       </c>
       <c r="H20" s="3">
-        <v>12100</v>
+        <v>11100</v>
       </c>
       <c r="I20" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="J20" s="3">
-        <v>40600</v>
+        <v>41000</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6400</v>
+        <v>-7300</v>
       </c>
       <c r="E21" s="3">
-        <v>-148200</v>
+        <v>-156400</v>
       </c>
       <c r="F21" s="3">
-        <v>-1290100</v>
+        <v>-1301800</v>
       </c>
       <c r="G21" s="3">
-        <v>-540200</v>
+        <v>-550800</v>
       </c>
       <c r="H21" s="3">
-        <v>-213000</v>
+        <v>-216200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>6600</v>
+        <v>42100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>4400</v>
       </c>
-      <c r="G22" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1100</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-143800</v>
+        <v>-145100</v>
       </c>
       <c r="E23" s="3">
-        <v>-190000</v>
+        <v>-191600</v>
       </c>
       <c r="F23" s="3">
-        <v>-1353800</v>
+        <v>-1365700</v>
       </c>
       <c r="G23" s="3">
-        <v>-587400</v>
+        <v>-592600</v>
       </c>
       <c r="H23" s="3">
-        <v>-247100</v>
+        <v>-249200</v>
       </c>
       <c r="I23" s="3">
-        <v>-199800</v>
+        <v>-201600</v>
       </c>
       <c r="J23" s="3">
-        <v>-67000</v>
+        <v>-67600</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1189,10 +1189,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>60400</v>
+        <v>60900</v>
       </c>
       <c r="E24" s="3">
-        <v>-104300</v>
+        <v>-105200</v>
       </c>
       <c r="F24" s="3">
         <v>2200</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-204200</v>
+        <v>-206000</v>
       </c>
       <c r="E26" s="3">
-        <v>-85600</v>
+        <v>-86400</v>
       </c>
       <c r="F26" s="3">
-        <v>-1356000</v>
+        <v>-1367900</v>
       </c>
       <c r="G26" s="3">
-        <v>-591800</v>
+        <v>-597000</v>
       </c>
       <c r="H26" s="3">
-        <v>-252500</v>
+        <v>-254700</v>
       </c>
       <c r="I26" s="3">
-        <v>-206400</v>
+        <v>-208200</v>
       </c>
       <c r="J26" s="3">
-        <v>-69200</v>
+        <v>-69800</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-204200</v>
+        <v>-206000</v>
       </c>
       <c r="E27" s="3">
-        <v>-85600</v>
+        <v>-86400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1356000</v>
+        <v>-1367900</v>
       </c>
       <c r="G27" s="3">
-        <v>-591800</v>
+        <v>-597000</v>
       </c>
       <c r="H27" s="3">
-        <v>-252500</v>
+        <v>-254700</v>
       </c>
       <c r="I27" s="3">
-        <v>-206400</v>
+        <v>-208200</v>
       </c>
       <c r="J27" s="3">
-        <v>-69200</v>
+        <v>-69800</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>22000</v>
+        <v>22200</v>
       </c>
       <c r="E32" s="3">
-        <v>135100</v>
+        <v>142900</v>
       </c>
       <c r="F32" s="3">
-        <v>935500</v>
+        <v>943700</v>
       </c>
       <c r="G32" s="3">
-        <v>196500</v>
+        <v>203800</v>
       </c>
       <c r="H32" s="3">
-        <v>-12100</v>
+        <v>-11100</v>
       </c>
       <c r="I32" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="J32" s="3">
-        <v>-40600</v>
+        <v>-41000</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-204200</v>
+        <v>-206000</v>
       </c>
       <c r="E33" s="3">
-        <v>-85600</v>
+        <v>-86400</v>
       </c>
       <c r="F33" s="3">
-        <v>-1356000</v>
+        <v>-1367900</v>
       </c>
       <c r="G33" s="3">
-        <v>-591800</v>
+        <v>-597000</v>
       </c>
       <c r="H33" s="3">
-        <v>-252500</v>
+        <v>-254700</v>
       </c>
       <c r="I33" s="3">
-        <v>-206400</v>
+        <v>-208200</v>
       </c>
       <c r="J33" s="3">
-        <v>-69200</v>
+        <v>-69800</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-204200</v>
+        <v>-206000</v>
       </c>
       <c r="E35" s="3">
-        <v>-85600</v>
+        <v>-86400</v>
       </c>
       <c r="F35" s="3">
-        <v>-1356000</v>
+        <v>-1367900</v>
       </c>
       <c r="G35" s="3">
-        <v>-591800</v>
+        <v>-597000</v>
       </c>
       <c r="H35" s="3">
-        <v>-252500</v>
+        <v>-254700</v>
       </c>
       <c r="I35" s="3">
-        <v>-206400</v>
+        <v>-208200</v>
       </c>
       <c r="J35" s="3">
-        <v>-69200</v>
+        <v>-69800</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1169400</v>
+        <v>1181900</v>
       </c>
       <c r="E41" s="3">
-        <v>978300</v>
+        <v>988800</v>
       </c>
       <c r="F41" s="3">
-        <v>523700</v>
+        <v>529400</v>
       </c>
       <c r="G41" s="3">
-        <v>829000</v>
+        <v>837900</v>
       </c>
       <c r="H41" s="3">
-        <v>655500</v>
+        <v>662600</v>
       </c>
       <c r="I41" s="3">
-        <v>226200</v>
+        <v>228600</v>
       </c>
       <c r="J41" s="3">
-        <v>239400</v>
+        <v>241900</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>759800</v>
+        <v>768000</v>
       </c>
       <c r="E42" s="3">
-        <v>1004700</v>
+        <v>1015500</v>
       </c>
       <c r="F42" s="3">
-        <v>1133100</v>
+        <v>1145300</v>
       </c>
       <c r="G42" s="3">
-        <v>911300</v>
+        <v>921100</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4400</v>
+        <v>450600</v>
       </c>
       <c r="E43" s="3">
-        <v>441400</v>
+        <v>446100</v>
       </c>
       <c r="F43" s="3">
-        <v>395300</v>
+        <v>399500</v>
       </c>
       <c r="G43" s="3">
-        <v>336000</v>
+        <v>339600</v>
       </c>
       <c r="H43" s="3">
-        <v>271200</v>
+        <v>274100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>74700</v>
+        <v>75500</v>
       </c>
       <c r="E45" s="3">
-        <v>41700</v>
+        <v>42200</v>
       </c>
       <c r="F45" s="3">
-        <v>31800</v>
+        <v>32200</v>
       </c>
       <c r="G45" s="3">
-        <v>19800</v>
+        <v>20000</v>
       </c>
       <c r="H45" s="3">
-        <v>29600</v>
+        <v>30000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2449600</v>
+        <v>2476000</v>
       </c>
       <c r="E46" s="3">
-        <v>2466100</v>
+        <v>2492600</v>
       </c>
       <c r="F46" s="3">
-        <v>2084000</v>
+        <v>2106400</v>
       </c>
       <c r="G46" s="3">
-        <v>2096100</v>
+        <v>2118600</v>
       </c>
       <c r="H46" s="3">
-        <v>956400</v>
+        <v>966600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,13 +1851,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1643700</v>
+        <v>1661400</v>
       </c>
       <c r="E47" s="3">
-        <v>1807300</v>
+        <v>1826700</v>
       </c>
       <c r="F47" s="3">
-        <v>1000300</v>
+        <v>1011000</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>856400</v>
+        <v>865600</v>
       </c>
       <c r="E48" s="3">
-        <v>216300</v>
+        <v>218600</v>
       </c>
       <c r="F48" s="3">
-        <v>80200</v>
+        <v>81000</v>
       </c>
       <c r="G48" s="3">
-        <v>93300</v>
+        <v>94300</v>
       </c>
       <c r="H48" s="3">
-        <v>88900</v>
+        <v>89900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>588500</v>
+        <v>594900</v>
       </c>
       <c r="E49" s="3">
-        <v>191100</v>
+        <v>193100</v>
       </c>
       <c r="F49" s="3">
-        <v>177900</v>
+        <v>179800</v>
       </c>
       <c r="G49" s="3">
-        <v>87800</v>
+        <v>88800</v>
       </c>
       <c r="H49" s="3">
-        <v>80200</v>
+        <v>81000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>85600</v>
+        <v>86600</v>
       </c>
       <c r="E52" s="3">
-        <v>80200</v>
+        <v>81000</v>
       </c>
       <c r="F52" s="3">
-        <v>69200</v>
+        <v>69900</v>
       </c>
       <c r="G52" s="3">
-        <v>28500</v>
+        <v>28900</v>
       </c>
       <c r="H52" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5624000</v>
+        <v>5684400</v>
       </c>
       <c r="E54" s="3">
-        <v>4760900</v>
+        <v>4812100</v>
       </c>
       <c r="F54" s="3">
-        <v>3411500</v>
+        <v>3448100</v>
       </c>
       <c r="G54" s="3">
-        <v>2305800</v>
+        <v>2330600</v>
       </c>
       <c r="H54" s="3">
-        <v>1154000</v>
+        <v>1166400</v>
       </c>
       <c r="I54" s="3">
-        <v>520500</v>
+        <v>526000</v>
       </c>
       <c r="J54" s="3">
-        <v>409600</v>
+        <v>414000</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>602800</v>
+        <v>418400</v>
       </c>
       <c r="E57" s="3">
-        <v>323900</v>
+        <v>327400</v>
       </c>
       <c r="F57" s="3">
-        <v>265700</v>
+        <v>268600</v>
       </c>
       <c r="G57" s="3">
-        <v>152600</v>
+        <v>154300</v>
       </c>
       <c r="H57" s="3">
-        <v>83400</v>
+        <v>84300</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2177,8 +2177,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>7800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2190,7 +2190,7 @@
         <v>5500</v>
       </c>
       <c r="H58" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2075200</v>
+        <v>2280600</v>
       </c>
       <c r="E59" s="3">
-        <v>2033500</v>
+        <v>2055300</v>
       </c>
       <c r="F59" s="3">
-        <v>1775500</v>
+        <v>1794500</v>
       </c>
       <c r="G59" s="3">
-        <v>1181400</v>
+        <v>1194100</v>
       </c>
       <c r="H59" s="3">
-        <v>786200</v>
+        <v>794600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2678000</v>
+        <v>2706800</v>
       </c>
       <c r="E60" s="3">
-        <v>2357400</v>
+        <v>2382700</v>
       </c>
       <c r="F60" s="3">
-        <v>2042300</v>
+        <v>2064200</v>
       </c>
       <c r="G60" s="3">
-        <v>1339600</v>
+        <v>1354000</v>
       </c>
       <c r="H60" s="3">
-        <v>876200</v>
+        <v>885600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>683000</v>
+        <v>690300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>1036500</v>
+        <v>1047700</v>
       </c>
       <c r="G61" s="3">
-        <v>1215500</v>
+        <v>1228500</v>
       </c>
       <c r="H61" s="3">
         <v>5500</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="E62" s="3">
-        <v>104300</v>
+        <v>105400</v>
       </c>
       <c r="F62" s="3">
-        <v>71400</v>
+        <v>72100</v>
       </c>
       <c r="G62" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="H62" s="3">
-        <v>20900</v>
+        <v>21100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3387300</v>
+        <v>3423700</v>
       </c>
       <c r="E66" s="3">
-        <v>2461700</v>
+        <v>2488200</v>
       </c>
       <c r="F66" s="3">
-        <v>3150200</v>
+        <v>3184000</v>
       </c>
       <c r="G66" s="3">
-        <v>2569300</v>
+        <v>2596900</v>
       </c>
       <c r="H66" s="3">
-        <v>902600</v>
+        <v>912300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1959900</v>
+        <v>-3006400</v>
       </c>
       <c r="E72" s="3">
-        <v>-2750500</v>
+        <v>-2780000</v>
       </c>
       <c r="F72" s="3">
-        <v>-2664800</v>
+        <v>-2693500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1308800</v>
+        <v>-1322900</v>
       </c>
       <c r="H72" s="3">
-        <v>-717000</v>
+        <v>-724700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2236600</v>
+        <v>2260700</v>
       </c>
       <c r="E76" s="3">
-        <v>2299200</v>
+        <v>2323900</v>
       </c>
       <c r="F76" s="3">
-        <v>261300</v>
+        <v>264100</v>
       </c>
       <c r="G76" s="3">
-        <v>-263500</v>
+        <v>-266400</v>
       </c>
       <c r="H76" s="3">
-        <v>251400</v>
+        <v>254100</v>
       </c>
       <c r="I76" s="3">
-        <v>39500</v>
+        <v>40000</v>
       </c>
       <c r="J76" s="3">
-        <v>103200</v>
+        <v>104300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-204200</v>
+        <v>-206000</v>
       </c>
       <c r="E81" s="3">
-        <v>-85600</v>
+        <v>-86400</v>
       </c>
       <c r="F81" s="3">
-        <v>-1356000</v>
+        <v>-1367900</v>
       </c>
       <c r="G81" s="3">
-        <v>-591800</v>
+        <v>-597000</v>
       </c>
       <c r="H81" s="3">
-        <v>-252500</v>
+        <v>-254700</v>
       </c>
       <c r="I81" s="3">
-        <v>-206400</v>
+        <v>-208200</v>
       </c>
       <c r="J81" s="3">
-        <v>-69200</v>
+        <v>-69800</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>95500</v>
+        <v>96400</v>
       </c>
       <c r="E83" s="3">
-        <v>35100</v>
+        <v>35400</v>
       </c>
       <c r="F83" s="3">
-        <v>59300</v>
+        <v>59800</v>
       </c>
       <c r="G83" s="3">
-        <v>41700</v>
+        <v>42100</v>
       </c>
       <c r="H83" s="3">
-        <v>32900</v>
+        <v>33200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>629200</v>
+        <v>634700</v>
       </c>
       <c r="E89" s="3">
-        <v>377700</v>
+        <v>381000</v>
       </c>
       <c r="F89" s="3">
-        <v>196500</v>
+        <v>198300</v>
       </c>
       <c r="G89" s="3">
-        <v>110900</v>
+        <v>111900</v>
       </c>
       <c r="H89" s="3">
-        <v>-41700</v>
+        <v>-42100</v>
       </c>
       <c r="I89" s="3">
-        <v>-81300</v>
+        <v>-82000</v>
       </c>
       <c r="J89" s="3">
-        <v>-27500</v>
+        <v>-27700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-148200</v>
+        <v>-149500</v>
       </c>
       <c r="E91" s="3">
-        <v>-137300</v>
+        <v>-138500</v>
       </c>
       <c r="F91" s="3">
-        <v>-39500</v>
+        <v>-39900</v>
       </c>
       <c r="G91" s="3">
-        <v>-29600</v>
+        <v>-29900</v>
       </c>
       <c r="H91" s="3">
-        <v>-48300</v>
+        <v>-48700</v>
       </c>
       <c r="I91" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="J91" s="3">
-        <v>-37300</v>
+        <v>-37700</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-239400</v>
+        <v>-241500</v>
       </c>
       <c r="E94" s="3">
-        <v>-24200</v>
+        <v>-24400</v>
       </c>
       <c r="F94" s="3">
-        <v>-477600</v>
+        <v>-481800</v>
       </c>
       <c r="G94" s="3">
-        <v>-908000</v>
+        <v>-916000</v>
       </c>
       <c r="H94" s="3">
-        <v>-73600</v>
+        <v>-74200</v>
       </c>
       <c r="I94" s="3">
-        <v>-23100</v>
+        <v>-23300</v>
       </c>
       <c r="J94" s="3">
-        <v>-45000</v>
+        <v>-45400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-222900</v>
+        <v>-224800</v>
       </c>
       <c r="E100" s="3">
-        <v>101000</v>
+        <v>101900</v>
       </c>
       <c r="F100" s="3">
-        <v>37300</v>
+        <v>37700</v>
       </c>
       <c r="G100" s="3">
-        <v>1005800</v>
+        <v>1014600</v>
       </c>
       <c r="H100" s="3">
-        <v>522600</v>
+        <v>527200</v>
       </c>
       <c r="I100" s="3">
-        <v>71400</v>
+        <v>72000</v>
       </c>
       <c r="J100" s="3">
-        <v>135100</v>
+        <v>136200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24200</v>
+        <v>24400</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-61500</v>
+        <v>-62000</v>
       </c>
       <c r="G101" s="3">
-        <v>-35100</v>
+        <v>-35400</v>
       </c>
       <c r="H101" s="3">
-        <v>22000</v>
+        <v>22200</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>191100</v>
+        <v>192700</v>
       </c>
       <c r="E102" s="3">
-        <v>454600</v>
+        <v>458500</v>
       </c>
       <c r="F102" s="3">
-        <v>-305200</v>
+        <v>-307900</v>
       </c>
       <c r="G102" s="3">
-        <v>173500</v>
+        <v>175000</v>
       </c>
       <c r="H102" s="3">
-        <v>429300</v>
+        <v>433100</v>
       </c>
       <c r="I102" s="3">
-        <v>-32900</v>
+        <v>-33200</v>
       </c>
       <c r="J102" s="3">
-        <v>62600</v>
+        <v>63100</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>7491800</v>
+        <v>8001100</v>
       </c>
       <c r="E8" s="3">
-        <v>5824900</v>
+        <v>6220900</v>
       </c>
       <c r="F8" s="3">
-        <v>4530100</v>
+        <v>4838100</v>
       </c>
       <c r="G8" s="3">
-        <v>3269600</v>
+        <v>3491900</v>
       </c>
       <c r="H8" s="3">
-        <v>2148700</v>
+        <v>2294800</v>
       </c>
       <c r="I8" s="3">
-        <v>1201700</v>
+        <v>1283400</v>
       </c>
       <c r="J8" s="3">
-        <v>826300</v>
+        <v>882400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -751,25 +751,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5584500</v>
+        <v>5964200</v>
       </c>
       <c r="E9" s="3">
-        <v>4326300</v>
+        <v>4620400</v>
       </c>
       <c r="F9" s="3">
-        <v>3589700</v>
+        <v>3833800</v>
       </c>
       <c r="G9" s="3">
-        <v>2825500</v>
+        <v>3017600</v>
       </c>
       <c r="H9" s="3">
-        <v>1898400</v>
+        <v>2027500</v>
       </c>
       <c r="I9" s="3">
-        <v>1009000</v>
+        <v>1077600</v>
       </c>
       <c r="J9" s="3">
-        <v>684500</v>
+        <v>731000</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -784,25 +784,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1907300</v>
+        <v>2037000</v>
       </c>
       <c r="E10" s="3">
-        <v>1498600</v>
+        <v>1600500</v>
       </c>
       <c r="F10" s="3">
-        <v>940400</v>
+        <v>1004300</v>
       </c>
       <c r="G10" s="3">
-        <v>444100</v>
+        <v>474300</v>
       </c>
       <c r="H10" s="3">
-        <v>250300</v>
+        <v>267300</v>
       </c>
       <c r="I10" s="3">
-        <v>192700</v>
+        <v>205800</v>
       </c>
       <c r="J10" s="3">
-        <v>141800</v>
+        <v>151400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -832,25 +832,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>665700</v>
+        <v>710900</v>
       </c>
       <c r="E12" s="3">
-        <v>546000</v>
+        <v>583200</v>
       </c>
       <c r="F12" s="3">
-        <v>438600</v>
+        <v>468400</v>
       </c>
       <c r="G12" s="3">
-        <v>229300</v>
+        <v>244900</v>
       </c>
       <c r="H12" s="3">
-        <v>150600</v>
+        <v>160900</v>
       </c>
       <c r="I12" s="3">
-        <v>126300</v>
+        <v>134900</v>
       </c>
       <c r="J12" s="3">
-        <v>80900</v>
+        <v>86400</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -901,13 +901,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="G14" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>15500</v>
+        <v>16600</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7572700</v>
+        <v>8087500</v>
       </c>
       <c r="E17" s="3">
-        <v>5873600</v>
+        <v>6272900</v>
       </c>
       <c r="F17" s="3">
-        <v>4947600</v>
+        <v>5284000</v>
       </c>
       <c r="G17" s="3">
-        <v>3658400</v>
+        <v>3907100</v>
       </c>
       <c r="H17" s="3">
-        <v>2409000</v>
+        <v>2572800</v>
       </c>
       <c r="I17" s="3">
-        <v>1413300</v>
+        <v>1509400</v>
       </c>
       <c r="J17" s="3">
-        <v>934800</v>
+        <v>998400</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-80900</v>
+        <v>-86400</v>
       </c>
       <c r="E18" s="3">
-        <v>-48700</v>
+        <v>-52000</v>
       </c>
       <c r="F18" s="3">
-        <v>-417600</v>
+        <v>-446000</v>
       </c>
       <c r="G18" s="3">
-        <v>-388800</v>
+        <v>-415200</v>
       </c>
       <c r="H18" s="3">
-        <v>-260300</v>
+        <v>-278000</v>
       </c>
       <c r="I18" s="3">
-        <v>-211600</v>
+        <v>-225900</v>
       </c>
       <c r="J18" s="3">
-        <v>-108500</v>
+        <v>-115900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-22200</v>
+        <v>-23700</v>
       </c>
       <c r="E20" s="3">
-        <v>-142900</v>
+        <v>-152600</v>
       </c>
       <c r="F20" s="3">
-        <v>-943700</v>
+        <v>-1007800</v>
       </c>
       <c r="G20" s="3">
-        <v>-203800</v>
+        <v>-217700</v>
       </c>
       <c r="H20" s="3">
-        <v>11100</v>
+        <v>11800</v>
       </c>
       <c r="I20" s="3">
-        <v>10000</v>
+        <v>10600</v>
       </c>
       <c r="J20" s="3">
-        <v>41000</v>
+        <v>43800</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-7300</v>
+        <v>-7100</v>
       </c>
       <c r="E21" s="3">
-        <v>-156400</v>
+        <v>-166800</v>
       </c>
       <c r="F21" s="3">
-        <v>-1301800</v>
+        <v>-1389900</v>
       </c>
       <c r="G21" s="3">
-        <v>-550800</v>
+        <v>-587900</v>
       </c>
       <c r="H21" s="3">
-        <v>-216200</v>
+        <v>-230700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1123,13 +1123,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>42100</v>
+        <v>45000</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-145100</v>
+        <v>-155000</v>
       </c>
       <c r="E23" s="3">
-        <v>-191600</v>
+        <v>-204600</v>
       </c>
       <c r="F23" s="3">
-        <v>-1365700</v>
+        <v>-1458500</v>
       </c>
       <c r="G23" s="3">
-        <v>-592600</v>
+        <v>-632900</v>
       </c>
       <c r="H23" s="3">
-        <v>-249200</v>
+        <v>-266200</v>
       </c>
       <c r="I23" s="3">
-        <v>-201600</v>
+        <v>-215300</v>
       </c>
       <c r="J23" s="3">
-        <v>-67600</v>
+        <v>-72200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>60900</v>
+        <v>65100</v>
       </c>
       <c r="E24" s="3">
-        <v>-105200</v>
+        <v>-112400</v>
       </c>
       <c r="F24" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="G24" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="H24" s="3">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="I24" s="3">
-        <v>6600</v>
+        <v>7100</v>
       </c>
       <c r="J24" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-206000</v>
+        <v>-220000</v>
       </c>
       <c r="E26" s="3">
-        <v>-86400</v>
+        <v>-92300</v>
       </c>
       <c r="F26" s="3">
-        <v>-1367900</v>
+        <v>-1460900</v>
       </c>
       <c r="G26" s="3">
-        <v>-597000</v>
+        <v>-637600</v>
       </c>
       <c r="H26" s="3">
-        <v>-254700</v>
+        <v>-272100</v>
       </c>
       <c r="I26" s="3">
-        <v>-208200</v>
+        <v>-222400</v>
       </c>
       <c r="J26" s="3">
-        <v>-69800</v>
+        <v>-74500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-206000</v>
+        <v>-220000</v>
       </c>
       <c r="E27" s="3">
-        <v>-86400</v>
+        <v>-92300</v>
       </c>
       <c r="F27" s="3">
-        <v>-1367900</v>
+        <v>-1460900</v>
       </c>
       <c r="G27" s="3">
-        <v>-597000</v>
+        <v>-637600</v>
       </c>
       <c r="H27" s="3">
-        <v>-254700</v>
+        <v>-272100</v>
       </c>
       <c r="I27" s="3">
-        <v>-208200</v>
+        <v>-222400</v>
       </c>
       <c r="J27" s="3">
-        <v>-69800</v>
+        <v>-74500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>22200</v>
+        <v>23700</v>
       </c>
       <c r="E32" s="3">
-        <v>142900</v>
+        <v>152600</v>
       </c>
       <c r="F32" s="3">
-        <v>943700</v>
+        <v>1007800</v>
       </c>
       <c r="G32" s="3">
-        <v>203800</v>
+        <v>217700</v>
       </c>
       <c r="H32" s="3">
-        <v>-11100</v>
+        <v>-11800</v>
       </c>
       <c r="I32" s="3">
-        <v>-10000</v>
+        <v>-10600</v>
       </c>
       <c r="J32" s="3">
-        <v>-41000</v>
+        <v>-43800</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-206000</v>
+        <v>-220000</v>
       </c>
       <c r="E33" s="3">
-        <v>-86400</v>
+        <v>-92300</v>
       </c>
       <c r="F33" s="3">
-        <v>-1367900</v>
+        <v>-1460900</v>
       </c>
       <c r="G33" s="3">
-        <v>-597000</v>
+        <v>-637600</v>
       </c>
       <c r="H33" s="3">
-        <v>-254700</v>
+        <v>-272100</v>
       </c>
       <c r="I33" s="3">
-        <v>-208200</v>
+        <v>-222400</v>
       </c>
       <c r="J33" s="3">
-        <v>-69800</v>
+        <v>-74500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-206000</v>
+        <v>-220000</v>
       </c>
       <c r="E35" s="3">
-        <v>-86400</v>
+        <v>-92300</v>
       </c>
       <c r="F35" s="3">
-        <v>-1367900</v>
+        <v>-1460900</v>
       </c>
       <c r="G35" s="3">
-        <v>-597000</v>
+        <v>-637600</v>
       </c>
       <c r="H35" s="3">
-        <v>-254700</v>
+        <v>-272100</v>
       </c>
       <c r="I35" s="3">
-        <v>-208200</v>
+        <v>-222400</v>
       </c>
       <c r="J35" s="3">
-        <v>-69800</v>
+        <v>-74500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1181900</v>
+        <v>1259800</v>
       </c>
       <c r="E41" s="3">
-        <v>988800</v>
+        <v>1054000</v>
       </c>
       <c r="F41" s="3">
-        <v>529400</v>
+        <v>564200</v>
       </c>
       <c r="G41" s="3">
-        <v>837900</v>
+        <v>893100</v>
       </c>
       <c r="H41" s="3">
-        <v>662600</v>
+        <v>706200</v>
       </c>
       <c r="I41" s="3">
-        <v>228600</v>
+        <v>243700</v>
       </c>
       <c r="J41" s="3">
-        <v>241900</v>
+        <v>257900</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>768000</v>
+        <v>818600</v>
       </c>
       <c r="E42" s="3">
-        <v>1015500</v>
+        <v>1082400</v>
       </c>
       <c r="F42" s="3">
-        <v>1145300</v>
+        <v>1220800</v>
       </c>
       <c r="G42" s="3">
-        <v>921100</v>
+        <v>981800</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>450600</v>
+        <v>480300</v>
       </c>
       <c r="E43" s="3">
-        <v>446100</v>
+        <v>475500</v>
       </c>
       <c r="F43" s="3">
-        <v>399500</v>
+        <v>425800</v>
       </c>
       <c r="G43" s="3">
-        <v>339600</v>
+        <v>362000</v>
       </c>
       <c r="H43" s="3">
-        <v>274100</v>
+        <v>292200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>75500</v>
+        <v>80400</v>
       </c>
       <c r="E45" s="3">
-        <v>42200</v>
+        <v>45000</v>
       </c>
       <c r="F45" s="3">
-        <v>32200</v>
+        <v>34300</v>
       </c>
       <c r="G45" s="3">
-        <v>20000</v>
+        <v>21300</v>
       </c>
       <c r="H45" s="3">
-        <v>30000</v>
+        <v>31900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2476000</v>
+        <v>2639000</v>
       </c>
       <c r="E46" s="3">
-        <v>2492600</v>
+        <v>2656800</v>
       </c>
       <c r="F46" s="3">
-        <v>2106400</v>
+        <v>2245100</v>
       </c>
       <c r="G46" s="3">
-        <v>2118600</v>
+        <v>2258200</v>
       </c>
       <c r="H46" s="3">
-        <v>966600</v>
+        <v>1030300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1661400</v>
+        <v>1770800</v>
       </c>
       <c r="E47" s="3">
-        <v>1826700</v>
+        <v>1947100</v>
       </c>
       <c r="F47" s="3">
-        <v>1011000</v>
+        <v>1077600</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>865600</v>
+        <v>922700</v>
       </c>
       <c r="E48" s="3">
-        <v>218600</v>
+        <v>233000</v>
       </c>
       <c r="F48" s="3">
-        <v>81000</v>
+        <v>86400</v>
       </c>
       <c r="G48" s="3">
-        <v>94300</v>
+        <v>100500</v>
       </c>
       <c r="H48" s="3">
-        <v>89900</v>
+        <v>95800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>594900</v>
+        <v>634000</v>
       </c>
       <c r="E49" s="3">
-        <v>193100</v>
+        <v>205800</v>
       </c>
       <c r="F49" s="3">
-        <v>179800</v>
+        <v>191600</v>
       </c>
       <c r="G49" s="3">
-        <v>88800</v>
+        <v>94600</v>
       </c>
       <c r="H49" s="3">
-        <v>81000</v>
+        <v>86400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>86600</v>
+        <v>92300</v>
       </c>
       <c r="E52" s="3">
-        <v>81000</v>
+        <v>86400</v>
       </c>
       <c r="F52" s="3">
-        <v>69900</v>
+        <v>74500</v>
       </c>
       <c r="G52" s="3">
-        <v>28900</v>
+        <v>30800</v>
       </c>
       <c r="H52" s="3">
-        <v>27700</v>
+        <v>29600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5684400</v>
+        <v>6058800</v>
       </c>
       <c r="E54" s="3">
-        <v>4812100</v>
+        <v>5129100</v>
       </c>
       <c r="F54" s="3">
-        <v>3448100</v>
+        <v>3675300</v>
       </c>
       <c r="G54" s="3">
-        <v>2330600</v>
+        <v>2484100</v>
       </c>
       <c r="H54" s="3">
-        <v>1166400</v>
+        <v>1243200</v>
       </c>
       <c r="I54" s="3">
-        <v>526000</v>
+        <v>560700</v>
       </c>
       <c r="J54" s="3">
-        <v>414000</v>
+        <v>441200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>418400</v>
+        <v>446000</v>
       </c>
       <c r="E57" s="3">
-        <v>327400</v>
+        <v>349000</v>
       </c>
       <c r="F57" s="3">
-        <v>268600</v>
+        <v>286300</v>
       </c>
       <c r="G57" s="3">
-        <v>154300</v>
+        <v>164400</v>
       </c>
       <c r="H57" s="3">
-        <v>84300</v>
+        <v>89900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7800</v>
+        <v>8300</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G58" s="3">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="H58" s="3">
-        <v>6700</v>
+        <v>7100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2280600</v>
+        <v>2430900</v>
       </c>
       <c r="E59" s="3">
-        <v>2055300</v>
+        <v>2190700</v>
       </c>
       <c r="F59" s="3">
-        <v>1794500</v>
+        <v>1912700</v>
       </c>
       <c r="G59" s="3">
-        <v>1194100</v>
+        <v>1272800</v>
       </c>
       <c r="H59" s="3">
-        <v>794600</v>
+        <v>847000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2706800</v>
+        <v>2885100</v>
       </c>
       <c r="E60" s="3">
-        <v>2382700</v>
+        <v>2539700</v>
       </c>
       <c r="F60" s="3">
-        <v>2064200</v>
+        <v>2200200</v>
       </c>
       <c r="G60" s="3">
-        <v>1354000</v>
+        <v>1443100</v>
       </c>
       <c r="H60" s="3">
-        <v>885600</v>
+        <v>944000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>690300</v>
+        <v>735800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>1047700</v>
+        <v>1116700</v>
       </c>
       <c r="G61" s="3">
-        <v>1228500</v>
+        <v>1309500</v>
       </c>
       <c r="H61" s="3">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26600</v>
+        <v>28400</v>
       </c>
       <c r="E62" s="3">
-        <v>105400</v>
+        <v>112400</v>
       </c>
       <c r="F62" s="3">
-        <v>72100</v>
+        <v>76900</v>
       </c>
       <c r="G62" s="3">
-        <v>14400</v>
+        <v>15400</v>
       </c>
       <c r="H62" s="3">
-        <v>21100</v>
+        <v>22500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3423700</v>
+        <v>3649200</v>
       </c>
       <c r="E66" s="3">
-        <v>2488200</v>
+        <v>2652100</v>
       </c>
       <c r="F66" s="3">
-        <v>3184000</v>
+        <v>3393700</v>
       </c>
       <c r="G66" s="3">
-        <v>2596900</v>
+        <v>2768000</v>
       </c>
       <c r="H66" s="3">
-        <v>912300</v>
+        <v>972300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3006400</v>
+        <v>-3204500</v>
       </c>
       <c r="E72" s="3">
-        <v>-2780000</v>
+        <v>-2963200</v>
       </c>
       <c r="F72" s="3">
-        <v>-2693500</v>
+        <v>-2870900</v>
       </c>
       <c r="G72" s="3">
-        <v>-1322900</v>
+        <v>-1410000</v>
       </c>
       <c r="H72" s="3">
-        <v>-724700</v>
+        <v>-772400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2260700</v>
+        <v>2409600</v>
       </c>
       <c r="E76" s="3">
-        <v>2323900</v>
+        <v>2477000</v>
       </c>
       <c r="F76" s="3">
-        <v>264100</v>
+        <v>281500</v>
       </c>
       <c r="G76" s="3">
-        <v>-266400</v>
+        <v>-283900</v>
       </c>
       <c r="H76" s="3">
-        <v>254100</v>
+        <v>270900</v>
       </c>
       <c r="I76" s="3">
-        <v>40000</v>
+        <v>42600</v>
       </c>
       <c r="J76" s="3">
-        <v>104300</v>
+        <v>111200</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-206000</v>
+        <v>-220000</v>
       </c>
       <c r="E81" s="3">
-        <v>-86400</v>
+        <v>-92300</v>
       </c>
       <c r="F81" s="3">
-        <v>-1367900</v>
+        <v>-1460900</v>
       </c>
       <c r="G81" s="3">
-        <v>-597000</v>
+        <v>-637600</v>
       </c>
       <c r="H81" s="3">
-        <v>-254700</v>
+        <v>-272100</v>
       </c>
       <c r="I81" s="3">
-        <v>-208200</v>
+        <v>-222400</v>
       </c>
       <c r="J81" s="3">
-        <v>-69800</v>
+        <v>-74500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>96400</v>
+        <v>102900</v>
       </c>
       <c r="E83" s="3">
-        <v>35400</v>
+        <v>37900</v>
       </c>
       <c r="F83" s="3">
-        <v>59800</v>
+        <v>63900</v>
       </c>
       <c r="G83" s="3">
-        <v>42100</v>
+        <v>45000</v>
       </c>
       <c r="H83" s="3">
-        <v>33200</v>
+        <v>35500</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>634700</v>
+        <v>677800</v>
       </c>
       <c r="E89" s="3">
-        <v>381000</v>
+        <v>406900</v>
       </c>
       <c r="F89" s="3">
-        <v>198300</v>
+        <v>211700</v>
       </c>
       <c r="G89" s="3">
-        <v>111900</v>
+        <v>119500</v>
       </c>
       <c r="H89" s="3">
-        <v>-42100</v>
+        <v>-45000</v>
       </c>
       <c r="I89" s="3">
-        <v>-82000</v>
+        <v>-87500</v>
       </c>
       <c r="J89" s="3">
-        <v>-27700</v>
+        <v>-29600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-149500</v>
+        <v>-159700</v>
       </c>
       <c r="E91" s="3">
-        <v>-138500</v>
+        <v>-147900</v>
       </c>
       <c r="F91" s="3">
-        <v>-39900</v>
+        <v>-42600</v>
       </c>
       <c r="G91" s="3">
-        <v>-29900</v>
+        <v>-31900</v>
       </c>
       <c r="H91" s="3">
-        <v>-48700</v>
+        <v>-52000</v>
       </c>
       <c r="I91" s="3">
-        <v>-17700</v>
+        <v>-18900</v>
       </c>
       <c r="J91" s="3">
-        <v>-37700</v>
+        <v>-40200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-241500</v>
+        <v>-257900</v>
       </c>
       <c r="E94" s="3">
-        <v>-24400</v>
+        <v>-26000</v>
       </c>
       <c r="F94" s="3">
-        <v>-481800</v>
+        <v>-514600</v>
       </c>
       <c r="G94" s="3">
-        <v>-916000</v>
+        <v>-978300</v>
       </c>
       <c r="H94" s="3">
-        <v>-74200</v>
+        <v>-79300</v>
       </c>
       <c r="I94" s="3">
-        <v>-23300</v>
+        <v>-24800</v>
       </c>
       <c r="J94" s="3">
-        <v>-45400</v>
+        <v>-48500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-224800</v>
+        <v>-240100</v>
       </c>
       <c r="E100" s="3">
-        <v>101900</v>
+        <v>108800</v>
       </c>
       <c r="F100" s="3">
-        <v>37700</v>
+        <v>40200</v>
       </c>
       <c r="G100" s="3">
-        <v>1014600</v>
+        <v>1083500</v>
       </c>
       <c r="H100" s="3">
-        <v>527200</v>
+        <v>563100</v>
       </c>
       <c r="I100" s="3">
-        <v>72000</v>
+        <v>76900</v>
       </c>
       <c r="J100" s="3">
-        <v>136200</v>
+        <v>145500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24400</v>
+        <v>26000</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-62000</v>
+        <v>-66200</v>
       </c>
       <c r="G101" s="3">
-        <v>-35400</v>
+        <v>-37900</v>
       </c>
       <c r="H101" s="3">
-        <v>22200</v>
+        <v>23700</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>192700</v>
+        <v>205800</v>
       </c>
       <c r="E102" s="3">
-        <v>458500</v>
+        <v>489700</v>
       </c>
       <c r="F102" s="3">
-        <v>-307900</v>
+        <v>-328800</v>
       </c>
       <c r="G102" s="3">
-        <v>175000</v>
+        <v>186900</v>
       </c>
       <c r="H102" s="3">
-        <v>433100</v>
+        <v>462500</v>
       </c>
       <c r="I102" s="3">
-        <v>-33200</v>
+        <v>-35500</v>
       </c>
       <c r="J102" s="3">
-        <v>63100</v>
+        <v>67400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>8001100</v>
+        <v>8091100</v>
       </c>
       <c r="E8" s="3">
-        <v>6220900</v>
+        <v>6290800</v>
       </c>
       <c r="F8" s="3">
-        <v>4838100</v>
+        <v>4892500</v>
       </c>
       <c r="G8" s="3">
-        <v>3491900</v>
+        <v>3531200</v>
       </c>
       <c r="H8" s="3">
-        <v>2294800</v>
+        <v>2320600</v>
       </c>
       <c r="I8" s="3">
-        <v>1283400</v>
+        <v>1297900</v>
       </c>
       <c r="J8" s="3">
-        <v>882400</v>
+        <v>892400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -751,25 +751,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5964200</v>
+        <v>6031200</v>
       </c>
       <c r="E9" s="3">
-        <v>4620400</v>
+        <v>4672400</v>
       </c>
       <c r="F9" s="3">
-        <v>3833800</v>
+        <v>3876900</v>
       </c>
       <c r="G9" s="3">
-        <v>3017600</v>
+        <v>3051500</v>
       </c>
       <c r="H9" s="3">
-        <v>2027500</v>
+        <v>2050300</v>
       </c>
       <c r="I9" s="3">
-        <v>1077600</v>
+        <v>1089700</v>
       </c>
       <c r="J9" s="3">
-        <v>731000</v>
+        <v>739300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -784,25 +784,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2037000</v>
+        <v>2059900</v>
       </c>
       <c r="E10" s="3">
-        <v>1600500</v>
+        <v>1618500</v>
       </c>
       <c r="F10" s="3">
-        <v>1004300</v>
+        <v>1015600</v>
       </c>
       <c r="G10" s="3">
-        <v>474300</v>
+        <v>479700</v>
       </c>
       <c r="H10" s="3">
-        <v>267300</v>
+        <v>270300</v>
       </c>
       <c r="I10" s="3">
-        <v>205800</v>
+        <v>208100</v>
       </c>
       <c r="J10" s="3">
-        <v>151400</v>
+        <v>153100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -832,25 +832,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>710900</v>
+        <v>718900</v>
       </c>
       <c r="E12" s="3">
-        <v>583200</v>
+        <v>589700</v>
       </c>
       <c r="F12" s="3">
-        <v>468400</v>
+        <v>473700</v>
       </c>
       <c r="G12" s="3">
-        <v>244900</v>
+        <v>247600</v>
       </c>
       <c r="H12" s="3">
-        <v>160900</v>
+        <v>162700</v>
       </c>
       <c r="I12" s="3">
-        <v>134900</v>
+        <v>136400</v>
       </c>
       <c r="J12" s="3">
-        <v>86400</v>
+        <v>87300</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -931,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8087500</v>
+        <v>8178400</v>
       </c>
       <c r="E17" s="3">
-        <v>6272900</v>
+        <v>6343400</v>
       </c>
       <c r="F17" s="3">
-        <v>5284000</v>
+        <v>5343400</v>
       </c>
       <c r="G17" s="3">
-        <v>3907100</v>
+        <v>3951000</v>
       </c>
       <c r="H17" s="3">
-        <v>2572800</v>
+        <v>2601700</v>
       </c>
       <c r="I17" s="3">
-        <v>1509400</v>
+        <v>1526400</v>
       </c>
       <c r="J17" s="3">
-        <v>998400</v>
+        <v>1009600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-86400</v>
+        <v>-87300</v>
       </c>
       <c r="E18" s="3">
-        <v>-52000</v>
+        <v>-52600</v>
       </c>
       <c r="F18" s="3">
-        <v>-446000</v>
+        <v>-451000</v>
       </c>
       <c r="G18" s="3">
-        <v>-415200</v>
+        <v>-419900</v>
       </c>
       <c r="H18" s="3">
-        <v>-278000</v>
+        <v>-281100</v>
       </c>
       <c r="I18" s="3">
-        <v>-225900</v>
+        <v>-228500</v>
       </c>
       <c r="J18" s="3">
-        <v>-115900</v>
+        <v>-117200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-23700</v>
+        <v>-23900</v>
       </c>
       <c r="E20" s="3">
-        <v>-152600</v>
+        <v>-154300</v>
       </c>
       <c r="F20" s="3">
-        <v>-1007800</v>
+        <v>-1019200</v>
       </c>
       <c r="G20" s="3">
-        <v>-217700</v>
+        <v>-220100</v>
       </c>
       <c r="H20" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="I20" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="J20" s="3">
-        <v>43800</v>
+        <v>44300</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-7100</v>
+        <v>-7600</v>
       </c>
       <c r="E21" s="3">
-        <v>-166800</v>
+        <v>-168800</v>
       </c>
       <c r="F21" s="3">
-        <v>-1389900</v>
+        <v>-1405800</v>
       </c>
       <c r="G21" s="3">
-        <v>-587900</v>
+        <v>-594700</v>
       </c>
       <c r="H21" s="3">
-        <v>-230700</v>
+        <v>-233400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1123,13 +1123,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>45000</v>
+        <v>45500</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-155000</v>
+        <v>-156700</v>
       </c>
       <c r="E23" s="3">
-        <v>-204600</v>
+        <v>-206900</v>
       </c>
       <c r="F23" s="3">
-        <v>-1458500</v>
+        <v>-1474900</v>
       </c>
       <c r="G23" s="3">
-        <v>-632900</v>
+        <v>-640000</v>
       </c>
       <c r="H23" s="3">
-        <v>-266200</v>
+        <v>-269100</v>
       </c>
       <c r="I23" s="3">
-        <v>-215300</v>
+        <v>-217700</v>
       </c>
       <c r="J23" s="3">
-        <v>-72200</v>
+        <v>-73000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1189,22 +1189,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65100</v>
+        <v>65800</v>
       </c>
       <c r="E24" s="3">
-        <v>-112400</v>
+        <v>-113600</v>
       </c>
       <c r="F24" s="3">
         <v>2400</v>
       </c>
       <c r="G24" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H24" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="I24" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="J24" s="3">
         <v>2400</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-220000</v>
+        <v>-222500</v>
       </c>
       <c r="E26" s="3">
-        <v>-92300</v>
+        <v>-93300</v>
       </c>
       <c r="F26" s="3">
-        <v>-1460900</v>
+        <v>-1477300</v>
       </c>
       <c r="G26" s="3">
-        <v>-637600</v>
+        <v>-644800</v>
       </c>
       <c r="H26" s="3">
-        <v>-272100</v>
+        <v>-275100</v>
       </c>
       <c r="I26" s="3">
-        <v>-222400</v>
+        <v>-224900</v>
       </c>
       <c r="J26" s="3">
-        <v>-74500</v>
+        <v>-75400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-220000</v>
+        <v>-222500</v>
       </c>
       <c r="E27" s="3">
-        <v>-92300</v>
+        <v>-93300</v>
       </c>
       <c r="F27" s="3">
-        <v>-1460900</v>
+        <v>-1477300</v>
       </c>
       <c r="G27" s="3">
-        <v>-637600</v>
+        <v>-644800</v>
       </c>
       <c r="H27" s="3">
-        <v>-272100</v>
+        <v>-275100</v>
       </c>
       <c r="I27" s="3">
-        <v>-222400</v>
+        <v>-224900</v>
       </c>
       <c r="J27" s="3">
-        <v>-74500</v>
+        <v>-75400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="E32" s="3">
-        <v>152600</v>
+        <v>154300</v>
       </c>
       <c r="F32" s="3">
-        <v>1007800</v>
+        <v>1019200</v>
       </c>
       <c r="G32" s="3">
-        <v>217700</v>
+        <v>220100</v>
       </c>
       <c r="H32" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="I32" s="3">
-        <v>-10600</v>
+        <v>-10800</v>
       </c>
       <c r="J32" s="3">
-        <v>-43800</v>
+        <v>-44300</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-220000</v>
+        <v>-222500</v>
       </c>
       <c r="E33" s="3">
-        <v>-92300</v>
+        <v>-93300</v>
       </c>
       <c r="F33" s="3">
-        <v>-1460900</v>
+        <v>-1477300</v>
       </c>
       <c r="G33" s="3">
-        <v>-637600</v>
+        <v>-644800</v>
       </c>
       <c r="H33" s="3">
-        <v>-272100</v>
+        <v>-275100</v>
       </c>
       <c r="I33" s="3">
-        <v>-222400</v>
+        <v>-224900</v>
       </c>
       <c r="J33" s="3">
-        <v>-74500</v>
+        <v>-75400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-220000</v>
+        <v>-222500</v>
       </c>
       <c r="E35" s="3">
-        <v>-92300</v>
+        <v>-93300</v>
       </c>
       <c r="F35" s="3">
-        <v>-1460900</v>
+        <v>-1477300</v>
       </c>
       <c r="G35" s="3">
-        <v>-637600</v>
+        <v>-644800</v>
       </c>
       <c r="H35" s="3">
-        <v>-272100</v>
+        <v>-275100</v>
       </c>
       <c r="I35" s="3">
-        <v>-222400</v>
+        <v>-224900</v>
       </c>
       <c r="J35" s="3">
-        <v>-74500</v>
+        <v>-75400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1259800</v>
+        <v>1274000</v>
       </c>
       <c r="E41" s="3">
-        <v>1054000</v>
+        <v>1065800</v>
       </c>
       <c r="F41" s="3">
-        <v>564200</v>
+        <v>570600</v>
       </c>
       <c r="G41" s="3">
-        <v>893100</v>
+        <v>903100</v>
       </c>
       <c r="H41" s="3">
-        <v>706200</v>
+        <v>714100</v>
       </c>
       <c r="I41" s="3">
-        <v>243700</v>
+        <v>246400</v>
       </c>
       <c r="J41" s="3">
-        <v>257900</v>
+        <v>260800</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>818600</v>
+        <v>827800</v>
       </c>
       <c r="E42" s="3">
-        <v>1082400</v>
+        <v>1094500</v>
       </c>
       <c r="F42" s="3">
-        <v>1220800</v>
+        <v>1234500</v>
       </c>
       <c r="G42" s="3">
-        <v>981800</v>
+        <v>992800</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>480300</v>
+        <v>485700</v>
       </c>
       <c r="E43" s="3">
-        <v>475500</v>
+        <v>480900</v>
       </c>
       <c r="F43" s="3">
-        <v>425800</v>
+        <v>430600</v>
       </c>
       <c r="G43" s="3">
-        <v>362000</v>
+        <v>366000</v>
       </c>
       <c r="H43" s="3">
-        <v>292200</v>
+        <v>295500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>80400</v>
+        <v>81300</v>
       </c>
       <c r="E45" s="3">
-        <v>45000</v>
+        <v>45500</v>
       </c>
       <c r="F45" s="3">
-        <v>34300</v>
+        <v>34700</v>
       </c>
       <c r="G45" s="3">
-        <v>21300</v>
+        <v>21500</v>
       </c>
       <c r="H45" s="3">
-        <v>31900</v>
+        <v>32300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2639000</v>
+        <v>2668700</v>
       </c>
       <c r="E46" s="3">
-        <v>2656800</v>
+        <v>2686700</v>
       </c>
       <c r="F46" s="3">
-        <v>2245100</v>
+        <v>2270400</v>
       </c>
       <c r="G46" s="3">
-        <v>2258200</v>
+        <v>2283500</v>
       </c>
       <c r="H46" s="3">
-        <v>1030300</v>
+        <v>1041900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,13 +1851,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1770800</v>
+        <v>1790700</v>
       </c>
       <c r="E47" s="3">
-        <v>1947100</v>
+        <v>1968900</v>
       </c>
       <c r="F47" s="3">
-        <v>1077600</v>
+        <v>1089700</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>922700</v>
+        <v>933000</v>
       </c>
       <c r="E48" s="3">
-        <v>233000</v>
+        <v>235700</v>
       </c>
       <c r="F48" s="3">
-        <v>86400</v>
+        <v>87300</v>
       </c>
       <c r="G48" s="3">
-        <v>100500</v>
+        <v>101700</v>
       </c>
       <c r="H48" s="3">
-        <v>95800</v>
+        <v>96900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>634000</v>
+        <v>641200</v>
       </c>
       <c r="E49" s="3">
-        <v>205800</v>
+        <v>208100</v>
       </c>
       <c r="F49" s="3">
-        <v>191600</v>
+        <v>193800</v>
       </c>
       <c r="G49" s="3">
-        <v>94600</v>
+        <v>95700</v>
       </c>
       <c r="H49" s="3">
-        <v>86400</v>
+        <v>87300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>92300</v>
+        <v>93300</v>
       </c>
       <c r="E52" s="3">
-        <v>86400</v>
+        <v>87300</v>
       </c>
       <c r="F52" s="3">
-        <v>74500</v>
+        <v>75400</v>
       </c>
       <c r="G52" s="3">
-        <v>30800</v>
+        <v>31100</v>
       </c>
       <c r="H52" s="3">
-        <v>29600</v>
+        <v>29900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6058800</v>
+        <v>6126900</v>
       </c>
       <c r="E54" s="3">
-        <v>5129100</v>
+        <v>5186700</v>
       </c>
       <c r="F54" s="3">
-        <v>3675300</v>
+        <v>3716600</v>
       </c>
       <c r="G54" s="3">
-        <v>2484100</v>
+        <v>2512000</v>
       </c>
       <c r="H54" s="3">
-        <v>1243200</v>
+        <v>1257200</v>
       </c>
       <c r="I54" s="3">
-        <v>560700</v>
+        <v>567000</v>
       </c>
       <c r="J54" s="3">
-        <v>441200</v>
+        <v>446200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>446000</v>
+        <v>451000</v>
       </c>
       <c r="E57" s="3">
-        <v>349000</v>
+        <v>352900</v>
       </c>
       <c r="F57" s="3">
-        <v>286300</v>
+        <v>289500</v>
       </c>
       <c r="G57" s="3">
-        <v>164400</v>
+        <v>166300</v>
       </c>
       <c r="H57" s="3">
-        <v>89900</v>
+        <v>90900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,7 +2178,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2187,10 +2187,10 @@
         <v>1200</v>
       </c>
       <c r="G58" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H58" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2430900</v>
+        <v>2458200</v>
       </c>
       <c r="E59" s="3">
-        <v>2190700</v>
+        <v>2215400</v>
       </c>
       <c r="F59" s="3">
-        <v>1912700</v>
+        <v>1934300</v>
       </c>
       <c r="G59" s="3">
-        <v>1272800</v>
+        <v>1287100</v>
       </c>
       <c r="H59" s="3">
-        <v>847000</v>
+        <v>856500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2885100</v>
+        <v>2917500</v>
       </c>
       <c r="E60" s="3">
-        <v>2539700</v>
+        <v>2568200</v>
       </c>
       <c r="F60" s="3">
-        <v>2200200</v>
+        <v>2224900</v>
       </c>
       <c r="G60" s="3">
-        <v>1443100</v>
+        <v>1459400</v>
       </c>
       <c r="H60" s="3">
-        <v>944000</v>
+        <v>954600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>735800</v>
+        <v>744000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>1116700</v>
+        <v>1129200</v>
       </c>
       <c r="G61" s="3">
-        <v>1309500</v>
+        <v>1324200</v>
       </c>
       <c r="H61" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28400</v>
+        <v>28700</v>
       </c>
       <c r="E62" s="3">
-        <v>112400</v>
+        <v>113600</v>
       </c>
       <c r="F62" s="3">
-        <v>76900</v>
+        <v>77800</v>
       </c>
       <c r="G62" s="3">
-        <v>15400</v>
+        <v>15600</v>
       </c>
       <c r="H62" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3649200</v>
+        <v>3690300</v>
       </c>
       <c r="E66" s="3">
-        <v>2652100</v>
+        <v>2681900</v>
       </c>
       <c r="F66" s="3">
-        <v>3393700</v>
+        <v>3431900</v>
       </c>
       <c r="G66" s="3">
-        <v>2768000</v>
+        <v>2799100</v>
       </c>
       <c r="H66" s="3">
-        <v>972300</v>
+        <v>983300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3204500</v>
+        <v>-3240500</v>
       </c>
       <c r="E72" s="3">
-        <v>-2963200</v>
+        <v>-2996500</v>
       </c>
       <c r="F72" s="3">
-        <v>-2870900</v>
+        <v>-2903200</v>
       </c>
       <c r="G72" s="3">
-        <v>-1410000</v>
+        <v>-1425900</v>
       </c>
       <c r="H72" s="3">
-        <v>-772400</v>
+        <v>-781100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2409600</v>
+        <v>2436700</v>
       </c>
       <c r="E76" s="3">
-        <v>2477000</v>
+        <v>2504800</v>
       </c>
       <c r="F76" s="3">
-        <v>281500</v>
+        <v>284700</v>
       </c>
       <c r="G76" s="3">
-        <v>-283900</v>
+        <v>-287100</v>
       </c>
       <c r="H76" s="3">
-        <v>270900</v>
+        <v>273900</v>
       </c>
       <c r="I76" s="3">
-        <v>42600</v>
+        <v>43100</v>
       </c>
       <c r="J76" s="3">
-        <v>111200</v>
+        <v>112400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-220000</v>
+        <v>-222500</v>
       </c>
       <c r="E81" s="3">
-        <v>-92300</v>
+        <v>-93300</v>
       </c>
       <c r="F81" s="3">
-        <v>-1460900</v>
+        <v>-1477300</v>
       </c>
       <c r="G81" s="3">
-        <v>-637600</v>
+        <v>-644800</v>
       </c>
       <c r="H81" s="3">
-        <v>-272100</v>
+        <v>-275100</v>
       </c>
       <c r="I81" s="3">
-        <v>-222400</v>
+        <v>-224900</v>
       </c>
       <c r="J81" s="3">
-        <v>-74500</v>
+        <v>-75400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>102900</v>
+        <v>104100</v>
       </c>
       <c r="E83" s="3">
-        <v>37900</v>
+        <v>38300</v>
       </c>
       <c r="F83" s="3">
-        <v>63900</v>
+        <v>64600</v>
       </c>
       <c r="G83" s="3">
-        <v>45000</v>
+        <v>45500</v>
       </c>
       <c r="H83" s="3">
-        <v>35500</v>
+        <v>35900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>677800</v>
+        <v>685400</v>
       </c>
       <c r="E89" s="3">
-        <v>406900</v>
+        <v>411500</v>
       </c>
       <c r="F89" s="3">
-        <v>211700</v>
+        <v>214100</v>
       </c>
       <c r="G89" s="3">
-        <v>119500</v>
+        <v>120800</v>
       </c>
       <c r="H89" s="3">
-        <v>-45000</v>
+        <v>-45500</v>
       </c>
       <c r="I89" s="3">
-        <v>-87500</v>
+        <v>-88500</v>
       </c>
       <c r="J89" s="3">
-        <v>-29600</v>
+        <v>-29900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-159700</v>
+        <v>-161500</v>
       </c>
       <c r="E91" s="3">
-        <v>-147900</v>
+        <v>-149500</v>
       </c>
       <c r="F91" s="3">
-        <v>-42600</v>
+        <v>-43100</v>
       </c>
       <c r="G91" s="3">
-        <v>-31900</v>
+        <v>-32300</v>
       </c>
       <c r="H91" s="3">
-        <v>-52000</v>
+        <v>-52600</v>
       </c>
       <c r="I91" s="3">
-        <v>-18900</v>
+        <v>-19100</v>
       </c>
       <c r="J91" s="3">
-        <v>-40200</v>
+        <v>-40700</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-257900</v>
+        <v>-260800</v>
       </c>
       <c r="E94" s="3">
-        <v>-26000</v>
+        <v>-26300</v>
       </c>
       <c r="F94" s="3">
-        <v>-514600</v>
+        <v>-520300</v>
       </c>
       <c r="G94" s="3">
-        <v>-978300</v>
+        <v>-989300</v>
       </c>
       <c r="H94" s="3">
-        <v>-79300</v>
+        <v>-80100</v>
       </c>
       <c r="I94" s="3">
-        <v>-24800</v>
+        <v>-25100</v>
       </c>
       <c r="J94" s="3">
-        <v>-48500</v>
+        <v>-49000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-240100</v>
+        <v>-242800</v>
       </c>
       <c r="E100" s="3">
-        <v>108800</v>
+        <v>110100</v>
       </c>
       <c r="F100" s="3">
-        <v>40200</v>
+        <v>40700</v>
       </c>
       <c r="G100" s="3">
-        <v>1083500</v>
+        <v>1095700</v>
       </c>
       <c r="H100" s="3">
-        <v>563100</v>
+        <v>569400</v>
       </c>
       <c r="I100" s="3">
-        <v>76900</v>
+        <v>77800</v>
       </c>
       <c r="J100" s="3">
-        <v>145500</v>
+        <v>147100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26000</v>
+        <v>26300</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-66200</v>
+        <v>-67000</v>
       </c>
       <c r="G101" s="3">
-        <v>-37900</v>
+        <v>-38300</v>
       </c>
       <c r="H101" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>205800</v>
+        <v>208100</v>
       </c>
       <c r="E102" s="3">
-        <v>489700</v>
+        <v>495200</v>
       </c>
       <c r="F102" s="3">
-        <v>-328800</v>
+        <v>-332500</v>
       </c>
       <c r="G102" s="3">
-        <v>186900</v>
+        <v>189000</v>
       </c>
       <c r="H102" s="3">
-        <v>462500</v>
+        <v>467700</v>
       </c>
       <c r="I102" s="3">
-        <v>-35500</v>
+        <v>-35900</v>
       </c>
       <c r="J102" s="3">
-        <v>67400</v>
+        <v>68200</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>8091100</v>
+        <v>9270000</v>
       </c>
       <c r="E8" s="3">
-        <v>6290800</v>
+        <v>7957200</v>
       </c>
       <c r="F8" s="3">
-        <v>4892500</v>
+        <v>6186700</v>
       </c>
       <c r="G8" s="3">
-        <v>3531200</v>
+        <v>4811500</v>
       </c>
       <c r="H8" s="3">
-        <v>2320600</v>
+        <v>3472700</v>
       </c>
       <c r="I8" s="3">
-        <v>1297900</v>
+        <v>2282200</v>
       </c>
       <c r="J8" s="3">
+        <v>1276400</v>
+      </c>
+      <c r="K8" s="3">
         <v>892400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6031200</v>
+        <v>6899600</v>
       </c>
       <c r="E9" s="3">
-        <v>4672400</v>
+        <v>5931400</v>
       </c>
       <c r="F9" s="3">
-        <v>3876900</v>
+        <v>4595000</v>
       </c>
       <c r="G9" s="3">
-        <v>3051500</v>
+        <v>3812700</v>
       </c>
       <c r="H9" s="3">
-        <v>2050300</v>
+        <v>3001000</v>
       </c>
       <c r="I9" s="3">
-        <v>1089700</v>
+        <v>2016300</v>
       </c>
       <c r="J9" s="3">
+        <v>1071700</v>
+      </c>
+      <c r="K9" s="3">
         <v>739300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2059900</v>
+        <v>2370400</v>
       </c>
       <c r="E10" s="3">
-        <v>1618500</v>
+        <v>2025800</v>
       </c>
       <c r="F10" s="3">
-        <v>1015600</v>
+        <v>1591700</v>
       </c>
       <c r="G10" s="3">
-        <v>479700</v>
+        <v>998800</v>
       </c>
       <c r="H10" s="3">
-        <v>270300</v>
+        <v>471700</v>
       </c>
       <c r="I10" s="3">
-        <v>208100</v>
+        <v>265900</v>
       </c>
       <c r="J10" s="3">
+        <v>204700</v>
+      </c>
+      <c r="K10" s="3">
         <v>153100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,41 +838,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>718900</v>
+        <v>963500</v>
       </c>
       <c r="E12" s="3">
-        <v>589700</v>
+        <v>707000</v>
       </c>
       <c r="F12" s="3">
-        <v>473700</v>
+        <v>580000</v>
       </c>
       <c r="G12" s="3">
-        <v>247600</v>
+        <v>465900</v>
       </c>
       <c r="H12" s="3">
-        <v>162700</v>
+        <v>243500</v>
       </c>
       <c r="I12" s="3">
-        <v>136400</v>
+        <v>160000</v>
       </c>
       <c r="J12" s="3">
+        <v>134100</v>
+      </c>
+      <c r="K12" s="3">
         <v>87300</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,32 +907,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -924,17 +943,20 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16700</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
+        <v>21200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>16500</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -951,15 +973,18 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8178400</v>
+        <v>9614700</v>
       </c>
       <c r="E17" s="3">
-        <v>6343400</v>
+        <v>8043000</v>
       </c>
       <c r="F17" s="3">
-        <v>5343400</v>
+        <v>6238400</v>
       </c>
       <c r="G17" s="3">
-        <v>3951000</v>
+        <v>5255000</v>
       </c>
       <c r="H17" s="3">
-        <v>2601700</v>
+        <v>3885600</v>
       </c>
       <c r="I17" s="3">
-        <v>1526400</v>
+        <v>2558700</v>
       </c>
       <c r="J17" s="3">
+        <v>1501100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1009600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-87300</v>
+        <v>-344700</v>
       </c>
       <c r="E18" s="3">
-        <v>-52600</v>
+        <v>-85900</v>
       </c>
       <c r="F18" s="3">
-        <v>-451000</v>
+        <v>-51800</v>
       </c>
       <c r="G18" s="3">
-        <v>-419900</v>
+        <v>-443500</v>
       </c>
       <c r="H18" s="3">
-        <v>-281100</v>
+        <v>-412900</v>
       </c>
       <c r="I18" s="3">
-        <v>-228500</v>
+        <v>-276500</v>
       </c>
       <c r="J18" s="3">
+        <v>-224700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-117200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,61 +1083,65 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-23900</v>
+        <v>-441200</v>
       </c>
       <c r="E20" s="3">
-        <v>-154300</v>
+        <v>-23500</v>
       </c>
       <c r="F20" s="3">
-        <v>-1019200</v>
+        <v>-151800</v>
       </c>
       <c r="G20" s="3">
-        <v>-220100</v>
+        <v>-1002300</v>
       </c>
       <c r="H20" s="3">
-        <v>12000</v>
+        <v>-216500</v>
       </c>
       <c r="I20" s="3">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="J20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K20" s="3">
         <v>44300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-7600</v>
+        <v>-654700</v>
       </c>
       <c r="E21" s="3">
-        <v>-168800</v>
+        <v>-6600</v>
       </c>
       <c r="F21" s="3">
-        <v>-1405800</v>
+        <v>-165700</v>
       </c>
       <c r="G21" s="3">
-        <v>-594700</v>
+        <v>-1382000</v>
       </c>
       <c r="H21" s="3">
-        <v>-233400</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-584500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-229300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1116,23 +1152,26 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>45500</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>48200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44700</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4700</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1149,75 +1188,84 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-156700</v>
+        <v>-834100</v>
       </c>
       <c r="E23" s="3">
-        <v>-206900</v>
+        <v>-154100</v>
       </c>
       <c r="F23" s="3">
-        <v>-1474900</v>
+        <v>-203500</v>
       </c>
       <c r="G23" s="3">
-        <v>-640000</v>
+        <v>-1450500</v>
       </c>
       <c r="H23" s="3">
-        <v>-269100</v>
+        <v>-629400</v>
       </c>
       <c r="I23" s="3">
-        <v>-217700</v>
+        <v>-264700</v>
       </c>
       <c r="J23" s="3">
+        <v>-214100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-73000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65800</v>
+        <v>-150600</v>
       </c>
       <c r="E24" s="3">
-        <v>-113600</v>
+        <v>64700</v>
       </c>
       <c r="F24" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
-        <v>4800</v>
-      </c>
       <c r="H24" s="3">
-        <v>6000</v>
+        <v>4700</v>
       </c>
       <c r="I24" s="3">
-        <v>7200</v>
+        <v>5900</v>
       </c>
       <c r="J24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-222500</v>
+        <v>-683500</v>
       </c>
       <c r="E26" s="3">
-        <v>-93300</v>
+        <v>-218800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1477300</v>
+        <v>-91800</v>
       </c>
       <c r="G26" s="3">
-        <v>-644800</v>
+        <v>-1452900</v>
       </c>
       <c r="H26" s="3">
-        <v>-275100</v>
+        <v>-634100</v>
       </c>
       <c r="I26" s="3">
-        <v>-224900</v>
+        <v>-270600</v>
       </c>
       <c r="J26" s="3">
+        <v>-221200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-75400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-222500</v>
+        <v>-683500</v>
       </c>
       <c r="E27" s="3">
-        <v>-93300</v>
+        <v>-218800</v>
       </c>
       <c r="F27" s="3">
-        <v>-1477300</v>
+        <v>-91800</v>
       </c>
       <c r="G27" s="3">
-        <v>-644800</v>
+        <v>-1452900</v>
       </c>
       <c r="H27" s="3">
-        <v>-275100</v>
+        <v>-634100</v>
       </c>
       <c r="I27" s="3">
-        <v>-224900</v>
+        <v>-270600</v>
       </c>
       <c r="J27" s="3">
+        <v>-221200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-75400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>23900</v>
+        <v>441200</v>
       </c>
       <c r="E32" s="3">
-        <v>154300</v>
+        <v>23500</v>
       </c>
       <c r="F32" s="3">
-        <v>1019200</v>
+        <v>151800</v>
       </c>
       <c r="G32" s="3">
-        <v>220100</v>
+        <v>1002300</v>
       </c>
       <c r="H32" s="3">
-        <v>-12000</v>
+        <v>216500</v>
       </c>
       <c r="I32" s="3">
-        <v>-10800</v>
+        <v>-11800</v>
       </c>
       <c r="J32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-44300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-222500</v>
+        <v>-683500</v>
       </c>
       <c r="E33" s="3">
-        <v>-93300</v>
+        <v>-218800</v>
       </c>
       <c r="F33" s="3">
-        <v>-1477300</v>
+        <v>-91800</v>
       </c>
       <c r="G33" s="3">
-        <v>-644800</v>
+        <v>-1452900</v>
       </c>
       <c r="H33" s="3">
-        <v>-275100</v>
+        <v>-634100</v>
       </c>
       <c r="I33" s="3">
-        <v>-224900</v>
+        <v>-270600</v>
       </c>
       <c r="J33" s="3">
+        <v>-221200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-75400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-222500</v>
+        <v>-683500</v>
       </c>
       <c r="E35" s="3">
-        <v>-93300</v>
+        <v>-218800</v>
       </c>
       <c r="F35" s="3">
-        <v>-1477300</v>
+        <v>-91800</v>
       </c>
       <c r="G35" s="3">
-        <v>-644800</v>
+        <v>-1452900</v>
       </c>
       <c r="H35" s="3">
-        <v>-275100</v>
+        <v>-634100</v>
       </c>
       <c r="I35" s="3">
-        <v>-224900</v>
+        <v>-270600</v>
       </c>
       <c r="J35" s="3">
+        <v>-221200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-75400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,58 +1732,62 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1274000</v>
+        <v>1354000</v>
       </c>
       <c r="E41" s="3">
-        <v>1065800</v>
+        <v>1252900</v>
       </c>
       <c r="F41" s="3">
-        <v>570600</v>
+        <v>1048200</v>
       </c>
       <c r="G41" s="3">
-        <v>903100</v>
+        <v>561100</v>
       </c>
       <c r="H41" s="3">
-        <v>714100</v>
+        <v>888200</v>
       </c>
       <c r="I41" s="3">
-        <v>246400</v>
+        <v>702300</v>
       </c>
       <c r="J41" s="3">
+        <v>242300</v>
+      </c>
+      <c r="K41" s="3">
         <v>260800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>827800</v>
+        <v>701100</v>
       </c>
       <c r="E42" s="3">
-        <v>1094500</v>
+        <v>814100</v>
       </c>
       <c r="F42" s="3">
-        <v>1234500</v>
+        <v>1076400</v>
       </c>
       <c r="G42" s="3">
-        <v>992800</v>
+        <v>1214000</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>976400</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1706,35 +1795,38 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>485700</v>
+        <v>550600</v>
       </c>
       <c r="E43" s="3">
-        <v>480900</v>
+        <v>477600</v>
       </c>
       <c r="F43" s="3">
-        <v>430600</v>
+        <v>472900</v>
       </c>
       <c r="G43" s="3">
-        <v>366000</v>
+        <v>423500</v>
       </c>
       <c r="H43" s="3">
-        <v>295500</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>360000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>290600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,29 +1873,32 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>81300</v>
+        <v>177600</v>
       </c>
       <c r="E45" s="3">
-        <v>45500</v>
+        <v>80000</v>
       </c>
       <c r="F45" s="3">
-        <v>34700</v>
+        <v>44700</v>
       </c>
       <c r="G45" s="3">
-        <v>21500</v>
+        <v>34100</v>
       </c>
       <c r="H45" s="3">
-        <v>32300</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>21200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>31800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1811,29 +1909,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2668700</v>
+        <v>2783400</v>
       </c>
       <c r="E46" s="3">
-        <v>2686700</v>
+        <v>2624500</v>
       </c>
       <c r="F46" s="3">
-        <v>2270400</v>
+        <v>2642200</v>
       </c>
       <c r="G46" s="3">
-        <v>2283500</v>
+        <v>2232800</v>
       </c>
       <c r="H46" s="3">
-        <v>1041900</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>2245700</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1024600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1844,30 +1945,33 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1790700</v>
+        <v>2678700</v>
       </c>
       <c r="E47" s="3">
-        <v>1968900</v>
+        <v>1761100</v>
       </c>
       <c r="F47" s="3">
-        <v>1089700</v>
+        <v>1936400</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>1071700</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>1200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,29 +1981,32 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>933000</v>
+        <v>890500</v>
       </c>
       <c r="E48" s="3">
-        <v>235700</v>
+        <v>917600</v>
       </c>
       <c r="F48" s="3">
-        <v>87300</v>
+        <v>231800</v>
       </c>
       <c r="G48" s="3">
-        <v>101700</v>
+        <v>85900</v>
       </c>
       <c r="H48" s="3">
-        <v>96900</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>100000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>95300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1910,29 +2017,32 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>641200</v>
+        <v>979900</v>
       </c>
       <c r="E49" s="3">
-        <v>208100</v>
+        <v>630600</v>
       </c>
       <c r="F49" s="3">
-        <v>193800</v>
+        <v>204700</v>
       </c>
       <c r="G49" s="3">
-        <v>95700</v>
+        <v>190600</v>
       </c>
       <c r="H49" s="3">
-        <v>87300</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>94100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>85900</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93300</v>
+        <v>109400</v>
       </c>
       <c r="E52" s="3">
-        <v>87300</v>
+        <v>91800</v>
       </c>
       <c r="F52" s="3">
-        <v>75400</v>
+        <v>85900</v>
       </c>
       <c r="G52" s="3">
-        <v>31100</v>
+        <v>74100</v>
       </c>
       <c r="H52" s="3">
-        <v>29900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>30600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>29400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6126900</v>
+        <v>7441900</v>
       </c>
       <c r="E54" s="3">
-        <v>5186700</v>
+        <v>6025500</v>
       </c>
       <c r="F54" s="3">
-        <v>3716600</v>
+        <v>5100900</v>
       </c>
       <c r="G54" s="3">
-        <v>2512000</v>
+        <v>3655100</v>
       </c>
       <c r="H54" s="3">
-        <v>1257200</v>
+        <v>2470400</v>
       </c>
       <c r="I54" s="3">
-        <v>567000</v>
+        <v>1236400</v>
       </c>
       <c r="J54" s="3">
+        <v>557600</v>
+      </c>
+      <c r="K54" s="3">
         <v>446200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,28 +2268,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>451000</v>
+        <v>510600</v>
       </c>
       <c r="E57" s="3">
-        <v>352900</v>
+        <v>443500</v>
       </c>
       <c r="F57" s="3">
-        <v>289500</v>
+        <v>347000</v>
       </c>
       <c r="G57" s="3">
-        <v>166300</v>
+        <v>284700</v>
       </c>
       <c r="H57" s="3">
-        <v>90900</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>163500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>89400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2171,29 +2301,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>8400</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
-        <v>6000</v>
-      </c>
       <c r="H58" s="3">
-        <v>7200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>5900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>7100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2204,29 +2337,32 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2458200</v>
+        <v>2901000</v>
       </c>
       <c r="E59" s="3">
-        <v>2215400</v>
+        <v>2417500</v>
       </c>
       <c r="F59" s="3">
-        <v>1934300</v>
+        <v>2178700</v>
       </c>
       <c r="G59" s="3">
-        <v>1287100</v>
+        <v>1902200</v>
       </c>
       <c r="H59" s="3">
-        <v>856500</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>1265800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>842300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2237,29 +2373,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2917500</v>
+        <v>3411600</v>
       </c>
       <c r="E60" s="3">
-        <v>2568200</v>
+        <v>2869200</v>
       </c>
       <c r="F60" s="3">
-        <v>2224900</v>
+        <v>2525700</v>
       </c>
       <c r="G60" s="3">
-        <v>1459400</v>
+        <v>2188100</v>
       </c>
       <c r="H60" s="3">
-        <v>954600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>1435200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>938800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2270,29 +2409,32 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>744000</v>
+        <v>678800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>731700</v>
       </c>
       <c r="F61" s="3">
-        <v>1129200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>1324200</v>
+        <v>1110500</v>
       </c>
       <c r="H61" s="3">
-        <v>6000</v>
+        <v>1302300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2303,29 +2445,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28700</v>
+        <v>51800</v>
       </c>
       <c r="E62" s="3">
-        <v>113600</v>
+        <v>28200</v>
       </c>
       <c r="F62" s="3">
-        <v>77800</v>
+        <v>111800</v>
       </c>
       <c r="G62" s="3">
-        <v>15600</v>
+        <v>76500</v>
       </c>
       <c r="H62" s="3">
-        <v>22700</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>15300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>22400</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3690300</v>
+        <v>4142100</v>
       </c>
       <c r="E66" s="3">
-        <v>2681900</v>
+        <v>3629200</v>
       </c>
       <c r="F66" s="3">
-        <v>3431900</v>
+        <v>2637500</v>
       </c>
       <c r="G66" s="3">
-        <v>2799100</v>
+        <v>3375100</v>
       </c>
       <c r="H66" s="3">
-        <v>983300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>2752800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>967000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,29 +2785,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3240500</v>
+        <v>-3870400</v>
       </c>
       <c r="E72" s="3">
-        <v>-2996500</v>
+        <v>-3186900</v>
       </c>
       <c r="F72" s="3">
-        <v>-2903200</v>
+        <v>-2946900</v>
       </c>
       <c r="G72" s="3">
-        <v>-1425900</v>
+        <v>-2855100</v>
       </c>
       <c r="H72" s="3">
-        <v>-781100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-1402300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-768200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2436700</v>
+        <v>3299800</v>
       </c>
       <c r="E76" s="3">
-        <v>2504800</v>
+        <v>2396300</v>
       </c>
       <c r="F76" s="3">
-        <v>284700</v>
+        <v>2463400</v>
       </c>
       <c r="G76" s="3">
-        <v>-287100</v>
+        <v>280000</v>
       </c>
       <c r="H76" s="3">
-        <v>273900</v>
+        <v>-282300</v>
       </c>
       <c r="I76" s="3">
-        <v>43100</v>
+        <v>269400</v>
       </c>
       <c r="J76" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K76" s="3">
         <v>112400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-222500</v>
+        <v>-683500</v>
       </c>
       <c r="E81" s="3">
-        <v>-93300</v>
+        <v>-218800</v>
       </c>
       <c r="F81" s="3">
-        <v>-1477300</v>
+        <v>-91800</v>
       </c>
       <c r="G81" s="3">
-        <v>-644800</v>
+        <v>-1452900</v>
       </c>
       <c r="H81" s="3">
-        <v>-275100</v>
+        <v>-634100</v>
       </c>
       <c r="I81" s="3">
-        <v>-224900</v>
+        <v>-270600</v>
       </c>
       <c r="J81" s="3">
+        <v>-221200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-75400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,28 +3097,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>104100</v>
+        <v>130600</v>
       </c>
       <c r="E83" s="3">
-        <v>38300</v>
+        <v>102300</v>
       </c>
       <c r="F83" s="3">
-        <v>64600</v>
+        <v>37600</v>
       </c>
       <c r="G83" s="3">
-        <v>45500</v>
+        <v>63500</v>
       </c>
       <c r="H83" s="3">
-        <v>35900</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>44700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>35300</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>685400</v>
+        <v>304700</v>
       </c>
       <c r="E89" s="3">
-        <v>411500</v>
+        <v>674100</v>
       </c>
       <c r="F89" s="3">
-        <v>214100</v>
+        <v>404700</v>
       </c>
       <c r="G89" s="3">
-        <v>120800</v>
+        <v>210600</v>
       </c>
       <c r="H89" s="3">
-        <v>-45500</v>
+        <v>118800</v>
       </c>
       <c r="I89" s="3">
-        <v>-88500</v>
+        <v>-44700</v>
       </c>
       <c r="J89" s="3">
+        <v>-87100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-29900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-161500</v>
+        <v>-91800</v>
       </c>
       <c r="E91" s="3">
-        <v>-149500</v>
+        <v>-158800</v>
       </c>
       <c r="F91" s="3">
-        <v>-43100</v>
+        <v>-147100</v>
       </c>
       <c r="G91" s="3">
-        <v>-32300</v>
+        <v>-42400</v>
       </c>
       <c r="H91" s="3">
-        <v>-52600</v>
+        <v>-31800</v>
       </c>
       <c r="I91" s="3">
-        <v>-19100</v>
+        <v>-51800</v>
       </c>
       <c r="J91" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-40700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-260800</v>
+        <v>-437600</v>
       </c>
       <c r="E94" s="3">
-        <v>-26300</v>
+        <v>-256500</v>
       </c>
       <c r="F94" s="3">
-        <v>-520300</v>
+        <v>-25900</v>
       </c>
       <c r="G94" s="3">
-        <v>-989300</v>
+        <v>-511700</v>
       </c>
       <c r="H94" s="3">
-        <v>-80100</v>
+        <v>-972900</v>
       </c>
       <c r="I94" s="3">
-        <v>-25100</v>
+        <v>-78800</v>
       </c>
       <c r="J94" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-49000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,62 +3666,68 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-242800</v>
+        <v>335300</v>
       </c>
       <c r="E100" s="3">
-        <v>110100</v>
+        <v>-238800</v>
       </c>
       <c r="F100" s="3">
-        <v>40700</v>
+        <v>108200</v>
       </c>
       <c r="G100" s="3">
-        <v>1095700</v>
+        <v>40000</v>
       </c>
       <c r="H100" s="3">
-        <v>569400</v>
+        <v>1077600</v>
       </c>
       <c r="I100" s="3">
-        <v>77800</v>
+        <v>560000</v>
       </c>
       <c r="J100" s="3">
+        <v>76500</v>
+      </c>
+      <c r="K100" s="3">
         <v>147100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26300</v>
+        <v>-101200</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>25900</v>
       </c>
       <c r="F101" s="3">
-        <v>-67000</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-38300</v>
+        <v>-65900</v>
       </c>
       <c r="H101" s="3">
-        <v>23900</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+        <v>-37600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>23500</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3490,40 +3738,46 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>208100</v>
+        <v>101200</v>
       </c>
       <c r="E102" s="3">
-        <v>495200</v>
+        <v>204700</v>
       </c>
       <c r="F102" s="3">
-        <v>-332500</v>
+        <v>487000</v>
       </c>
       <c r="G102" s="3">
-        <v>189000</v>
+        <v>-327000</v>
       </c>
       <c r="H102" s="3">
-        <v>467700</v>
+        <v>185900</v>
       </c>
       <c r="I102" s="3">
-        <v>-35900</v>
+        <v>460000</v>
       </c>
       <c r="J102" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="K102" s="3">
         <v>68200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>9270000</v>
+        <v>9652900</v>
       </c>
       <c r="E8" s="3">
-        <v>7957200</v>
+        <v>8285800</v>
       </c>
       <c r="F8" s="3">
-        <v>6186700</v>
+        <v>6442200</v>
       </c>
       <c r="G8" s="3">
-        <v>4811500</v>
+        <v>5010200</v>
       </c>
       <c r="H8" s="3">
-        <v>3472700</v>
+        <v>3616200</v>
       </c>
       <c r="I8" s="3">
-        <v>2282200</v>
+        <v>2376500</v>
       </c>
       <c r="J8" s="3">
-        <v>1276400</v>
+        <v>1329100</v>
       </c>
       <c r="K8" s="3">
         <v>892400</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6899600</v>
+        <v>7184600</v>
       </c>
       <c r="E9" s="3">
-        <v>5931400</v>
+        <v>6176400</v>
       </c>
       <c r="F9" s="3">
-        <v>4595000</v>
+        <v>4784800</v>
       </c>
       <c r="G9" s="3">
-        <v>3812700</v>
+        <v>3970200</v>
       </c>
       <c r="H9" s="3">
-        <v>3001000</v>
+        <v>3124900</v>
       </c>
       <c r="I9" s="3">
-        <v>2016300</v>
+        <v>2099600</v>
       </c>
       <c r="J9" s="3">
-        <v>1071700</v>
+        <v>1116000</v>
       </c>
       <c r="K9" s="3">
         <v>739300</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2370400</v>
+        <v>2468400</v>
       </c>
       <c r="E10" s="3">
-        <v>2025800</v>
+        <v>2109400</v>
       </c>
       <c r="F10" s="3">
-        <v>1591700</v>
+        <v>1657400</v>
       </c>
       <c r="G10" s="3">
-        <v>998800</v>
+        <v>1040000</v>
       </c>
       <c r="H10" s="3">
-        <v>471700</v>
+        <v>491200</v>
       </c>
       <c r="I10" s="3">
-        <v>265900</v>
+        <v>276800</v>
       </c>
       <c r="J10" s="3">
-        <v>204700</v>
+        <v>213100</v>
       </c>
       <c r="K10" s="3">
         <v>153100</v>
@@ -845,25 +845,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>963500</v>
+        <v>1003300</v>
       </c>
       <c r="E12" s="3">
-        <v>707000</v>
+        <v>736200</v>
       </c>
       <c r="F12" s="3">
-        <v>580000</v>
+        <v>603900</v>
       </c>
       <c r="G12" s="3">
-        <v>465900</v>
+        <v>485100</v>
       </c>
       <c r="H12" s="3">
-        <v>243500</v>
+        <v>253600</v>
       </c>
       <c r="I12" s="3">
-        <v>160000</v>
+        <v>166600</v>
       </c>
       <c r="J12" s="3">
-        <v>134100</v>
+        <v>139600</v>
       </c>
       <c r="K12" s="3">
         <v>87300</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -953,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21200</v>
+        <v>22000</v>
       </c>
       <c r="E15" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9614700</v>
+        <v>10011800</v>
       </c>
       <c r="E17" s="3">
-        <v>8043000</v>
+        <v>8375300</v>
       </c>
       <c r="F17" s="3">
-        <v>6238400</v>
+        <v>6496100</v>
       </c>
       <c r="G17" s="3">
-        <v>5255000</v>
+        <v>5472000</v>
       </c>
       <c r="H17" s="3">
-        <v>3885600</v>
+        <v>4046100</v>
       </c>
       <c r="I17" s="3">
-        <v>2558700</v>
+        <v>2664400</v>
       </c>
       <c r="J17" s="3">
-        <v>1501100</v>
+        <v>1563100</v>
       </c>
       <c r="K17" s="3">
         <v>1009600</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-344700</v>
+        <v>-358900</v>
       </c>
       <c r="E18" s="3">
-        <v>-85900</v>
+        <v>-89400</v>
       </c>
       <c r="F18" s="3">
-        <v>-51800</v>
+        <v>-53900</v>
       </c>
       <c r="G18" s="3">
-        <v>-443500</v>
+        <v>-461800</v>
       </c>
       <c r="H18" s="3">
-        <v>-412900</v>
+        <v>-430000</v>
       </c>
       <c r="I18" s="3">
-        <v>-276500</v>
+        <v>-287900</v>
       </c>
       <c r="J18" s="3">
-        <v>-224700</v>
+        <v>-234000</v>
       </c>
       <c r="K18" s="3">
         <v>-117200</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-441200</v>
+        <v>-459400</v>
       </c>
       <c r="E20" s="3">
-        <v>-23500</v>
+        <v>-24500</v>
       </c>
       <c r="F20" s="3">
-        <v>-151800</v>
+        <v>-158000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1002300</v>
+        <v>-1043700</v>
       </c>
       <c r="H20" s="3">
-        <v>-216500</v>
+        <v>-225400</v>
       </c>
       <c r="I20" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="J20" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="K20" s="3">
         <v>44300</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-654700</v>
+        <v>-682700</v>
       </c>
       <c r="E21" s="3">
-        <v>-6600</v>
+        <v>-7700</v>
       </c>
       <c r="F21" s="3">
-        <v>-165700</v>
+        <v>-172800</v>
       </c>
       <c r="G21" s="3">
-        <v>-1382000</v>
+        <v>-1439600</v>
       </c>
       <c r="H21" s="3">
-        <v>-584500</v>
+        <v>-609000</v>
       </c>
       <c r="I21" s="3">
-        <v>-229300</v>
+        <v>-239000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,16 +1162,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>48200</v>
+        <v>50200</v>
       </c>
       <c r="E22" s="3">
-        <v>44700</v>
+        <v>46500</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-834100</v>
+        <v>-868500</v>
       </c>
       <c r="E23" s="3">
-        <v>-154100</v>
+        <v>-160500</v>
       </c>
       <c r="F23" s="3">
-        <v>-203500</v>
+        <v>-211900</v>
       </c>
       <c r="G23" s="3">
-        <v>-1450500</v>
+        <v>-1510400</v>
       </c>
       <c r="H23" s="3">
-        <v>-629400</v>
+        <v>-655400</v>
       </c>
       <c r="I23" s="3">
-        <v>-264700</v>
+        <v>-275600</v>
       </c>
       <c r="J23" s="3">
-        <v>-214100</v>
+        <v>-222900</v>
       </c>
       <c r="K23" s="3">
         <v>-73000</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-150600</v>
+        <v>-156800</v>
       </c>
       <c r="E24" s="3">
-        <v>64700</v>
+        <v>67400</v>
       </c>
       <c r="F24" s="3">
-        <v>-111800</v>
+        <v>-116400</v>
       </c>
       <c r="G24" s="3">
         <v>2400</v>
       </c>
       <c r="H24" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="I24" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="J24" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="K24" s="3">
         <v>2400</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-683500</v>
+        <v>-711700</v>
       </c>
       <c r="E26" s="3">
-        <v>-218800</v>
+        <v>-227800</v>
       </c>
       <c r="F26" s="3">
-        <v>-91800</v>
+        <v>-95500</v>
       </c>
       <c r="G26" s="3">
-        <v>-1452900</v>
+        <v>-1512900</v>
       </c>
       <c r="H26" s="3">
-        <v>-634100</v>
+        <v>-660300</v>
       </c>
       <c r="I26" s="3">
-        <v>-270600</v>
+        <v>-281700</v>
       </c>
       <c r="J26" s="3">
-        <v>-221200</v>
+        <v>-230300</v>
       </c>
       <c r="K26" s="3">
         <v>-75400</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-683500</v>
+        <v>-711700</v>
       </c>
       <c r="E27" s="3">
-        <v>-218800</v>
+        <v>-227800</v>
       </c>
       <c r="F27" s="3">
-        <v>-91800</v>
+        <v>-95500</v>
       </c>
       <c r="G27" s="3">
-        <v>-1452900</v>
+        <v>-1512900</v>
       </c>
       <c r="H27" s="3">
-        <v>-634100</v>
+        <v>-660300</v>
       </c>
       <c r="I27" s="3">
-        <v>-270600</v>
+        <v>-281700</v>
       </c>
       <c r="J27" s="3">
-        <v>-221200</v>
+        <v>-230300</v>
       </c>
       <c r="K27" s="3">
         <v>-75400</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>441200</v>
+        <v>459400</v>
       </c>
       <c r="E32" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="F32" s="3">
-        <v>151800</v>
+        <v>158000</v>
       </c>
       <c r="G32" s="3">
-        <v>1002300</v>
+        <v>1043700</v>
       </c>
       <c r="H32" s="3">
-        <v>216500</v>
+        <v>225400</v>
       </c>
       <c r="I32" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="J32" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="K32" s="3">
         <v>-44300</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-683500</v>
+        <v>-711700</v>
       </c>
       <c r="E33" s="3">
-        <v>-218800</v>
+        <v>-227800</v>
       </c>
       <c r="F33" s="3">
-        <v>-91800</v>
+        <v>-95500</v>
       </c>
       <c r="G33" s="3">
-        <v>-1452900</v>
+        <v>-1512900</v>
       </c>
       <c r="H33" s="3">
-        <v>-634100</v>
+        <v>-660300</v>
       </c>
       <c r="I33" s="3">
-        <v>-270600</v>
+        <v>-281700</v>
       </c>
       <c r="J33" s="3">
-        <v>-221200</v>
+        <v>-230300</v>
       </c>
       <c r="K33" s="3">
         <v>-75400</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-683500</v>
+        <v>-711700</v>
       </c>
       <c r="E35" s="3">
-        <v>-218800</v>
+        <v>-227800</v>
       </c>
       <c r="F35" s="3">
-        <v>-91800</v>
+        <v>-95500</v>
       </c>
       <c r="G35" s="3">
-        <v>-1452900</v>
+        <v>-1512900</v>
       </c>
       <c r="H35" s="3">
-        <v>-634100</v>
+        <v>-660300</v>
       </c>
       <c r="I35" s="3">
-        <v>-270600</v>
+        <v>-281700</v>
       </c>
       <c r="J35" s="3">
-        <v>-221200</v>
+        <v>-230300</v>
       </c>
       <c r="K35" s="3">
         <v>-75400</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1354000</v>
+        <v>1410000</v>
       </c>
       <c r="E41" s="3">
-        <v>1252900</v>
+        <v>1304600</v>
       </c>
       <c r="F41" s="3">
-        <v>1048200</v>
+        <v>1091500</v>
       </c>
       <c r="G41" s="3">
-        <v>561100</v>
+        <v>584300</v>
       </c>
       <c r="H41" s="3">
-        <v>888200</v>
+        <v>924900</v>
       </c>
       <c r="I41" s="3">
-        <v>702300</v>
+        <v>731300</v>
       </c>
       <c r="J41" s="3">
-        <v>242300</v>
+        <v>252300</v>
       </c>
       <c r="K41" s="3">
         <v>260800</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>701100</v>
+        <v>730100</v>
       </c>
       <c r="E42" s="3">
-        <v>814100</v>
+        <v>847700</v>
       </c>
       <c r="F42" s="3">
-        <v>1076400</v>
+        <v>1120900</v>
       </c>
       <c r="G42" s="3">
-        <v>1214000</v>
+        <v>1264200</v>
       </c>
       <c r="H42" s="3">
-        <v>976400</v>
+        <v>1016700</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>550600</v>
+        <v>573300</v>
       </c>
       <c r="E43" s="3">
-        <v>477600</v>
+        <v>497300</v>
       </c>
       <c r="F43" s="3">
-        <v>472900</v>
+        <v>492400</v>
       </c>
       <c r="G43" s="3">
-        <v>423500</v>
+        <v>441000</v>
       </c>
       <c r="H43" s="3">
-        <v>360000</v>
+        <v>374800</v>
       </c>
       <c r="I43" s="3">
-        <v>290600</v>
+        <v>302600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>177600</v>
+        <v>185000</v>
       </c>
       <c r="E45" s="3">
-        <v>80000</v>
+        <v>83300</v>
       </c>
       <c r="F45" s="3">
-        <v>44700</v>
+        <v>46500</v>
       </c>
       <c r="G45" s="3">
-        <v>34100</v>
+        <v>35500</v>
       </c>
       <c r="H45" s="3">
-        <v>21200</v>
+        <v>22000</v>
       </c>
       <c r="I45" s="3">
-        <v>31800</v>
+        <v>33100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2783400</v>
+        <v>2898300</v>
       </c>
       <c r="E46" s="3">
-        <v>2624500</v>
+        <v>2733000</v>
       </c>
       <c r="F46" s="3">
-        <v>2642200</v>
+        <v>2751300</v>
       </c>
       <c r="G46" s="3">
-        <v>2232800</v>
+        <v>2325000</v>
       </c>
       <c r="H46" s="3">
-        <v>2245700</v>
+        <v>2338500</v>
       </c>
       <c r="I46" s="3">
-        <v>1024600</v>
+        <v>1067000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,16 +1955,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2678700</v>
+        <v>2789300</v>
       </c>
       <c r="E47" s="3">
-        <v>1761100</v>
+        <v>1833800</v>
       </c>
       <c r="F47" s="3">
-        <v>1936400</v>
+        <v>2016300</v>
       </c>
       <c r="G47" s="3">
-        <v>1071700</v>
+        <v>1116000</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>890500</v>
+        <v>927300</v>
       </c>
       <c r="E48" s="3">
-        <v>917600</v>
+        <v>955500</v>
       </c>
       <c r="F48" s="3">
-        <v>231800</v>
+        <v>241300</v>
       </c>
       <c r="G48" s="3">
-        <v>85900</v>
+        <v>89400</v>
       </c>
       <c r="H48" s="3">
-        <v>100000</v>
+        <v>104100</v>
       </c>
       <c r="I48" s="3">
-        <v>95300</v>
+        <v>99200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>979900</v>
+        <v>1020400</v>
       </c>
       <c r="E49" s="3">
-        <v>630600</v>
+        <v>656600</v>
       </c>
       <c r="F49" s="3">
-        <v>204700</v>
+        <v>213100</v>
       </c>
       <c r="G49" s="3">
-        <v>190600</v>
+        <v>198400</v>
       </c>
       <c r="H49" s="3">
-        <v>94100</v>
+        <v>98000</v>
       </c>
       <c r="I49" s="3">
-        <v>85900</v>
+        <v>89400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>109400</v>
+        <v>113900</v>
       </c>
       <c r="E52" s="3">
-        <v>91800</v>
+        <v>95500</v>
       </c>
       <c r="F52" s="3">
-        <v>85900</v>
+        <v>89400</v>
       </c>
       <c r="G52" s="3">
-        <v>74100</v>
+        <v>77200</v>
       </c>
       <c r="H52" s="3">
+        <v>31800</v>
+      </c>
+      <c r="I52" s="3">
         <v>30600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>29400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7441900</v>
+        <v>7749300</v>
       </c>
       <c r="E54" s="3">
-        <v>6025500</v>
+        <v>6274400</v>
       </c>
       <c r="F54" s="3">
-        <v>5100900</v>
+        <v>5311600</v>
       </c>
       <c r="G54" s="3">
-        <v>3655100</v>
+        <v>3806000</v>
       </c>
       <c r="H54" s="3">
-        <v>2470400</v>
+        <v>2572500</v>
       </c>
       <c r="I54" s="3">
-        <v>1236400</v>
+        <v>1287500</v>
       </c>
       <c r="J54" s="3">
-        <v>557600</v>
+        <v>580600</v>
       </c>
       <c r="K54" s="3">
         <v>446200</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>510600</v>
+        <v>531600</v>
       </c>
       <c r="E57" s="3">
-        <v>443500</v>
+        <v>461800</v>
       </c>
       <c r="F57" s="3">
-        <v>347000</v>
+        <v>361400</v>
       </c>
       <c r="G57" s="3">
-        <v>284700</v>
+        <v>296400</v>
       </c>
       <c r="H57" s="3">
-        <v>163500</v>
+        <v>170300</v>
       </c>
       <c r="I57" s="3">
-        <v>89400</v>
+        <v>93100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2314,7 +2314,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2323,10 +2323,10 @@
         <v>1200</v>
       </c>
       <c r="H58" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="I58" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2901000</v>
+        <v>3020800</v>
       </c>
       <c r="E59" s="3">
-        <v>2417500</v>
+        <v>2517400</v>
       </c>
       <c r="F59" s="3">
-        <v>2178700</v>
+        <v>2268700</v>
       </c>
       <c r="G59" s="3">
-        <v>1902200</v>
+        <v>1980800</v>
       </c>
       <c r="H59" s="3">
-        <v>1265800</v>
+        <v>1318100</v>
       </c>
       <c r="I59" s="3">
-        <v>842300</v>
+        <v>877100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3411600</v>
+        <v>3552500</v>
       </c>
       <c r="E60" s="3">
-        <v>2869200</v>
+        <v>2987800</v>
       </c>
       <c r="F60" s="3">
-        <v>2525700</v>
+        <v>2630100</v>
       </c>
       <c r="G60" s="3">
-        <v>2188100</v>
+        <v>2278500</v>
       </c>
       <c r="H60" s="3">
-        <v>1435200</v>
+        <v>1494500</v>
       </c>
       <c r="I60" s="3">
-        <v>938800</v>
+        <v>977500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,22 +2419,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>678800</v>
+        <v>706800</v>
       </c>
       <c r="E61" s="3">
-        <v>731700</v>
+        <v>761900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>1110500</v>
+        <v>1156400</v>
       </c>
       <c r="H61" s="3">
-        <v>1302300</v>
+        <v>1356100</v>
       </c>
       <c r="I61" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51800</v>
+        <v>53900</v>
       </c>
       <c r="E62" s="3">
-        <v>28200</v>
+        <v>29400</v>
       </c>
       <c r="F62" s="3">
-        <v>111800</v>
+        <v>116400</v>
       </c>
       <c r="G62" s="3">
-        <v>76500</v>
+        <v>79600</v>
       </c>
       <c r="H62" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="I62" s="3">
-        <v>22400</v>
+        <v>23300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4142100</v>
+        <v>4313200</v>
       </c>
       <c r="E66" s="3">
-        <v>3629200</v>
+        <v>3779100</v>
       </c>
       <c r="F66" s="3">
-        <v>2637500</v>
+        <v>2746400</v>
       </c>
       <c r="G66" s="3">
-        <v>3375100</v>
+        <v>3514500</v>
       </c>
       <c r="H66" s="3">
-        <v>2752800</v>
+        <v>2866500</v>
       </c>
       <c r="I66" s="3">
-        <v>967000</v>
+        <v>1006900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3870400</v>
+        <v>-4030200</v>
       </c>
       <c r="E72" s="3">
-        <v>-3186900</v>
+        <v>-3318500</v>
       </c>
       <c r="F72" s="3">
-        <v>-2946900</v>
+        <v>-3068600</v>
       </c>
       <c r="G72" s="3">
-        <v>-2855100</v>
+        <v>-2973100</v>
       </c>
       <c r="H72" s="3">
-        <v>-1402300</v>
+        <v>-1460200</v>
       </c>
       <c r="I72" s="3">
-        <v>-768200</v>
+        <v>-799900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3299800</v>
+        <v>3436100</v>
       </c>
       <c r="E76" s="3">
-        <v>2396300</v>
+        <v>2495300</v>
       </c>
       <c r="F76" s="3">
-        <v>2463400</v>
+        <v>2565100</v>
       </c>
       <c r="G76" s="3">
-        <v>280000</v>
+        <v>291500</v>
       </c>
       <c r="H76" s="3">
-        <v>-282300</v>
+        <v>-294000</v>
       </c>
       <c r="I76" s="3">
-        <v>269400</v>
+        <v>280500</v>
       </c>
       <c r="J76" s="3">
-        <v>42400</v>
+        <v>44100</v>
       </c>
       <c r="K76" s="3">
         <v>112400</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-683500</v>
+        <v>-711700</v>
       </c>
       <c r="E81" s="3">
-        <v>-218800</v>
+        <v>-227800</v>
       </c>
       <c r="F81" s="3">
-        <v>-91800</v>
+        <v>-95500</v>
       </c>
       <c r="G81" s="3">
-        <v>-1452900</v>
+        <v>-1512900</v>
       </c>
       <c r="H81" s="3">
-        <v>-634100</v>
+        <v>-660300</v>
       </c>
       <c r="I81" s="3">
-        <v>-270600</v>
+        <v>-281700</v>
       </c>
       <c r="J81" s="3">
-        <v>-221200</v>
+        <v>-230300</v>
       </c>
       <c r="K81" s="3">
         <v>-75400</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>130600</v>
+        <v>136000</v>
       </c>
       <c r="E83" s="3">
-        <v>102300</v>
+        <v>106600</v>
       </c>
       <c r="F83" s="3">
-        <v>37600</v>
+        <v>39200</v>
       </c>
       <c r="G83" s="3">
-        <v>63500</v>
+        <v>66100</v>
       </c>
       <c r="H83" s="3">
-        <v>44700</v>
+        <v>46500</v>
       </c>
       <c r="I83" s="3">
-        <v>35300</v>
+        <v>36700</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>304700</v>
+        <v>317300</v>
       </c>
       <c r="E89" s="3">
-        <v>674100</v>
+        <v>701900</v>
       </c>
       <c r="F89" s="3">
-        <v>404700</v>
+        <v>421400</v>
       </c>
       <c r="G89" s="3">
-        <v>210600</v>
+        <v>219300</v>
       </c>
       <c r="H89" s="3">
-        <v>118800</v>
+        <v>123700</v>
       </c>
       <c r="I89" s="3">
-        <v>-44700</v>
+        <v>-46500</v>
       </c>
       <c r="J89" s="3">
-        <v>-87100</v>
+        <v>-90600</v>
       </c>
       <c r="K89" s="3">
         <v>-29900</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-91800</v>
+        <v>-95500</v>
       </c>
       <c r="E91" s="3">
-        <v>-158800</v>
+        <v>-165400</v>
       </c>
       <c r="F91" s="3">
-        <v>-147100</v>
+        <v>-153100</v>
       </c>
       <c r="G91" s="3">
-        <v>-42400</v>
+        <v>-44100</v>
       </c>
       <c r="H91" s="3">
-        <v>-31800</v>
+        <v>-33100</v>
       </c>
       <c r="I91" s="3">
-        <v>-51800</v>
+        <v>-53900</v>
       </c>
       <c r="J91" s="3">
-        <v>-18800</v>
+        <v>-19600</v>
       </c>
       <c r="K91" s="3">
         <v>-40700</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-437600</v>
+        <v>-455700</v>
       </c>
       <c r="E94" s="3">
-        <v>-256500</v>
+        <v>-267000</v>
       </c>
       <c r="F94" s="3">
-        <v>-25900</v>
+        <v>-26900</v>
       </c>
       <c r="G94" s="3">
-        <v>-511700</v>
+        <v>-532900</v>
       </c>
       <c r="H94" s="3">
-        <v>-972900</v>
+        <v>-1013100</v>
       </c>
       <c r="I94" s="3">
-        <v>-78800</v>
+        <v>-82100</v>
       </c>
       <c r="J94" s="3">
-        <v>-24700</v>
+        <v>-25700</v>
       </c>
       <c r="K94" s="3">
         <v>-49000</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>335300</v>
+        <v>349100</v>
       </c>
       <c r="E100" s="3">
-        <v>-238800</v>
+        <v>-248700</v>
       </c>
       <c r="F100" s="3">
-        <v>108200</v>
+        <v>112700</v>
       </c>
       <c r="G100" s="3">
-        <v>40000</v>
+        <v>41600</v>
       </c>
       <c r="H100" s="3">
-        <v>1077600</v>
+        <v>1122100</v>
       </c>
       <c r="I100" s="3">
-        <v>560000</v>
+        <v>583100</v>
       </c>
       <c r="J100" s="3">
-        <v>76500</v>
+        <v>79600</v>
       </c>
       <c r="K100" s="3">
         <v>147100</v>
@@ -3712,22 +3712,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-101200</v>
+        <v>-105300</v>
       </c>
       <c r="E101" s="3">
-        <v>25900</v>
+        <v>26900</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-65900</v>
+        <v>-68600</v>
       </c>
       <c r="H101" s="3">
-        <v>-37600</v>
+        <v>-39200</v>
       </c>
       <c r="I101" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>101200</v>
+        <v>105300</v>
       </c>
       <c r="E102" s="3">
-        <v>204700</v>
+        <v>213100</v>
       </c>
       <c r="F102" s="3">
-        <v>487000</v>
+        <v>507100</v>
       </c>
       <c r="G102" s="3">
-        <v>-327000</v>
+        <v>-340500</v>
       </c>
       <c r="H102" s="3">
-        <v>185900</v>
+        <v>193500</v>
       </c>
       <c r="I102" s="3">
-        <v>460000</v>
+        <v>479000</v>
       </c>
       <c r="J102" s="3">
-        <v>-35300</v>
+        <v>-36700</v>
       </c>
       <c r="K102" s="3">
         <v>68200</v>

--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>9652900</v>
+        <v>9199200</v>
       </c>
       <c r="E8" s="3">
-        <v>8285800</v>
+        <v>7896400</v>
       </c>
       <c r="F8" s="3">
-        <v>6442200</v>
+        <v>6139400</v>
       </c>
       <c r="G8" s="3">
-        <v>5010200</v>
+        <v>4774700</v>
       </c>
       <c r="H8" s="3">
-        <v>3616200</v>
+        <v>3446200</v>
       </c>
       <c r="I8" s="3">
-        <v>2376500</v>
+        <v>2264800</v>
       </c>
       <c r="J8" s="3">
-        <v>1329100</v>
+        <v>1266600</v>
       </c>
       <c r="K8" s="3">
         <v>892400</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7184600</v>
+        <v>6846900</v>
       </c>
       <c r="E9" s="3">
-        <v>6176400</v>
+        <v>5886100</v>
       </c>
       <c r="F9" s="3">
-        <v>4784800</v>
+        <v>4559900</v>
       </c>
       <c r="G9" s="3">
-        <v>3970200</v>
+        <v>3783600</v>
       </c>
       <c r="H9" s="3">
-        <v>3124900</v>
+        <v>2978100</v>
       </c>
       <c r="I9" s="3">
-        <v>2099600</v>
+        <v>2000900</v>
       </c>
       <c r="J9" s="3">
-        <v>1116000</v>
+        <v>1063500</v>
       </c>
       <c r="K9" s="3">
         <v>739300</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2468400</v>
+        <v>2352300</v>
       </c>
       <c r="E10" s="3">
-        <v>2109400</v>
+        <v>2010300</v>
       </c>
       <c r="F10" s="3">
-        <v>1657400</v>
+        <v>1579500</v>
       </c>
       <c r="G10" s="3">
-        <v>1040000</v>
+        <v>991100</v>
       </c>
       <c r="H10" s="3">
-        <v>491200</v>
+        <v>468100</v>
       </c>
       <c r="I10" s="3">
-        <v>276800</v>
+        <v>263800</v>
       </c>
       <c r="J10" s="3">
-        <v>213100</v>
+        <v>203100</v>
       </c>
       <c r="K10" s="3">
         <v>153100</v>
@@ -845,25 +845,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1003300</v>
+        <v>956100</v>
       </c>
       <c r="E12" s="3">
-        <v>736200</v>
+        <v>701600</v>
       </c>
       <c r="F12" s="3">
-        <v>603900</v>
+        <v>575500</v>
       </c>
       <c r="G12" s="3">
-        <v>485100</v>
+        <v>462300</v>
       </c>
       <c r="H12" s="3">
-        <v>253600</v>
+        <v>241700</v>
       </c>
       <c r="I12" s="3">
-        <v>166600</v>
+        <v>158800</v>
       </c>
       <c r="J12" s="3">
-        <v>139600</v>
+        <v>133100</v>
       </c>
       <c r="K12" s="3">
         <v>87300</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -929,7 +929,7 @@
         <v>-1200</v>
       </c>
       <c r="H14" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="E15" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10011800</v>
+        <v>9541200</v>
       </c>
       <c r="E17" s="3">
-        <v>8375300</v>
+        <v>7981600</v>
       </c>
       <c r="F17" s="3">
-        <v>6496100</v>
+        <v>6190800</v>
       </c>
       <c r="G17" s="3">
-        <v>5472000</v>
+        <v>5214800</v>
       </c>
       <c r="H17" s="3">
-        <v>4046100</v>
+        <v>3856000</v>
       </c>
       <c r="I17" s="3">
-        <v>2664400</v>
+        <v>2539100</v>
       </c>
       <c r="J17" s="3">
-        <v>1563100</v>
+        <v>1489600</v>
       </c>
       <c r="K17" s="3">
         <v>1009600</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-358900</v>
+        <v>-342100</v>
       </c>
       <c r="E18" s="3">
-        <v>-89400</v>
+        <v>-85200</v>
       </c>
       <c r="F18" s="3">
-        <v>-53900</v>
+        <v>-51400</v>
       </c>
       <c r="G18" s="3">
-        <v>-461800</v>
+        <v>-440100</v>
       </c>
       <c r="H18" s="3">
-        <v>-430000</v>
+        <v>-409800</v>
       </c>
       <c r="I18" s="3">
-        <v>-287900</v>
+        <v>-274300</v>
       </c>
       <c r="J18" s="3">
-        <v>-234000</v>
+        <v>-223000</v>
       </c>
       <c r="K18" s="3">
         <v>-117200</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-459400</v>
+        <v>-437800</v>
       </c>
       <c r="E20" s="3">
-        <v>-24500</v>
+        <v>-23300</v>
       </c>
       <c r="F20" s="3">
-        <v>-158000</v>
+        <v>-150600</v>
       </c>
       <c r="G20" s="3">
-        <v>-1043700</v>
+        <v>-994600</v>
       </c>
       <c r="H20" s="3">
-        <v>-225400</v>
+        <v>-214800</v>
       </c>
       <c r="I20" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="J20" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="K20" s="3">
         <v>44300</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-682700</v>
+        <v>-649800</v>
       </c>
       <c r="E21" s="3">
-        <v>-7700</v>
+        <v>-6700</v>
       </c>
       <c r="F21" s="3">
-        <v>-172800</v>
+        <v>-164500</v>
       </c>
       <c r="G21" s="3">
-        <v>-1439600</v>
+        <v>-1371500</v>
       </c>
       <c r="H21" s="3">
-        <v>-609000</v>
+        <v>-580100</v>
       </c>
       <c r="I21" s="3">
-        <v>-239000</v>
+        <v>-227500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,16 +1162,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>50200</v>
+        <v>47900</v>
       </c>
       <c r="E22" s="3">
-        <v>46500</v>
+        <v>44400</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-868500</v>
+        <v>-827700</v>
       </c>
       <c r="E23" s="3">
-        <v>-160500</v>
+        <v>-152900</v>
       </c>
       <c r="F23" s="3">
-        <v>-211900</v>
+        <v>-202000</v>
       </c>
       <c r="G23" s="3">
-        <v>-1510400</v>
+        <v>-1439400</v>
       </c>
       <c r="H23" s="3">
-        <v>-655400</v>
+        <v>-624600</v>
       </c>
       <c r="I23" s="3">
-        <v>-275600</v>
+        <v>-262700</v>
       </c>
       <c r="J23" s="3">
-        <v>-222900</v>
+        <v>-212500</v>
       </c>
       <c r="K23" s="3">
         <v>-73000</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-156800</v>
+        <v>-149400</v>
       </c>
       <c r="E24" s="3">
-        <v>67400</v>
+        <v>64200</v>
       </c>
       <c r="F24" s="3">
-        <v>-116400</v>
+        <v>-110900</v>
       </c>
       <c r="G24" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H24" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I24" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="J24" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K24" s="3">
         <v>2400</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-711700</v>
+        <v>-678300</v>
       </c>
       <c r="E26" s="3">
-        <v>-227800</v>
+        <v>-217100</v>
       </c>
       <c r="F26" s="3">
-        <v>-95500</v>
+        <v>-91100</v>
       </c>
       <c r="G26" s="3">
-        <v>-1512900</v>
+        <v>-1441800</v>
       </c>
       <c r="H26" s="3">
-        <v>-660300</v>
+        <v>-629200</v>
       </c>
       <c r="I26" s="3">
-        <v>-281700</v>
+        <v>-268500</v>
       </c>
       <c r="J26" s="3">
-        <v>-230300</v>
+        <v>-219500</v>
       </c>
       <c r="K26" s="3">
         <v>-75400</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-711700</v>
+        <v>-678300</v>
       </c>
       <c r="E27" s="3">
-        <v>-227800</v>
+        <v>-217100</v>
       </c>
       <c r="F27" s="3">
-        <v>-95500</v>
+        <v>-91100</v>
       </c>
       <c r="G27" s="3">
-        <v>-1512900</v>
+        <v>-1441800</v>
       </c>
       <c r="H27" s="3">
-        <v>-660300</v>
+        <v>-629200</v>
       </c>
       <c r="I27" s="3">
-        <v>-281700</v>
+        <v>-268500</v>
       </c>
       <c r="J27" s="3">
-        <v>-230300</v>
+        <v>-219500</v>
       </c>
       <c r="K27" s="3">
         <v>-75400</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>459400</v>
+        <v>437800</v>
       </c>
       <c r="E32" s="3">
-        <v>24500</v>
+        <v>23300</v>
       </c>
       <c r="F32" s="3">
-        <v>158000</v>
+        <v>150600</v>
       </c>
       <c r="G32" s="3">
-        <v>1043700</v>
+        <v>994600</v>
       </c>
       <c r="H32" s="3">
-        <v>225400</v>
+        <v>214800</v>
       </c>
       <c r="I32" s="3">
-        <v>-12200</v>
+        <v>-11700</v>
       </c>
       <c r="J32" s="3">
-        <v>-11000</v>
+        <v>-10500</v>
       </c>
       <c r="K32" s="3">
         <v>-44300</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-711700</v>
+        <v>-678300</v>
       </c>
       <c r="E33" s="3">
-        <v>-227800</v>
+        <v>-217100</v>
       </c>
       <c r="F33" s="3">
-        <v>-95500</v>
+        <v>-91100</v>
       </c>
       <c r="G33" s="3">
-        <v>-1512900</v>
+        <v>-1441800</v>
       </c>
       <c r="H33" s="3">
-        <v>-660300</v>
+        <v>-629200</v>
       </c>
       <c r="I33" s="3">
-        <v>-281700</v>
+        <v>-268500</v>
       </c>
       <c r="J33" s="3">
-        <v>-230300</v>
+        <v>-219500</v>
       </c>
       <c r="K33" s="3">
         <v>-75400</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-711700</v>
+        <v>-678300</v>
       </c>
       <c r="E35" s="3">
-        <v>-227800</v>
+        <v>-217100</v>
       </c>
       <c r="F35" s="3">
-        <v>-95500</v>
+        <v>-91100</v>
       </c>
       <c r="G35" s="3">
-        <v>-1512900</v>
+        <v>-1441800</v>
       </c>
       <c r="H35" s="3">
-        <v>-660300</v>
+        <v>-629200</v>
       </c>
       <c r="I35" s="3">
-        <v>-281700</v>
+        <v>-268500</v>
       </c>
       <c r="J35" s="3">
-        <v>-230300</v>
+        <v>-219500</v>
       </c>
       <c r="K35" s="3">
         <v>-75400</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1410000</v>
+        <v>1343700</v>
       </c>
       <c r="E41" s="3">
-        <v>1304600</v>
+        <v>1243300</v>
       </c>
       <c r="F41" s="3">
-        <v>1091500</v>
+        <v>1040200</v>
       </c>
       <c r="G41" s="3">
-        <v>584300</v>
+        <v>556900</v>
       </c>
       <c r="H41" s="3">
-        <v>924900</v>
+        <v>881400</v>
       </c>
       <c r="I41" s="3">
-        <v>731300</v>
+        <v>696900</v>
       </c>
       <c r="J41" s="3">
-        <v>252300</v>
+        <v>240500</v>
       </c>
       <c r="K41" s="3">
         <v>260800</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>730100</v>
+        <v>695800</v>
       </c>
       <c r="E42" s="3">
-        <v>847700</v>
+        <v>807800</v>
       </c>
       <c r="F42" s="3">
-        <v>1120900</v>
+        <v>1068200</v>
       </c>
       <c r="G42" s="3">
-        <v>1264200</v>
+        <v>1204800</v>
       </c>
       <c r="H42" s="3">
-        <v>1016700</v>
+        <v>969000</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>573300</v>
+        <v>546300</v>
       </c>
       <c r="E43" s="3">
-        <v>497300</v>
+        <v>474000</v>
       </c>
       <c r="F43" s="3">
-        <v>492400</v>
+        <v>469300</v>
       </c>
       <c r="G43" s="3">
-        <v>441000</v>
+        <v>420300</v>
       </c>
       <c r="H43" s="3">
-        <v>374800</v>
+        <v>357200</v>
       </c>
       <c r="I43" s="3">
-        <v>302600</v>
+        <v>288400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>185000</v>
+        <v>176300</v>
       </c>
       <c r="E45" s="3">
-        <v>83300</v>
+        <v>79400</v>
       </c>
       <c r="F45" s="3">
-        <v>46500</v>
+        <v>44400</v>
       </c>
       <c r="G45" s="3">
-        <v>35500</v>
+        <v>33900</v>
       </c>
       <c r="H45" s="3">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="I45" s="3">
-        <v>33100</v>
+        <v>31500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2898300</v>
+        <v>2762100</v>
       </c>
       <c r="E46" s="3">
-        <v>2733000</v>
+        <v>2604500</v>
       </c>
       <c r="F46" s="3">
-        <v>2751300</v>
+        <v>2622000</v>
       </c>
       <c r="G46" s="3">
-        <v>2325000</v>
+        <v>2215700</v>
       </c>
       <c r="H46" s="3">
-        <v>2338500</v>
+        <v>2228600</v>
       </c>
       <c r="I46" s="3">
-        <v>1067000</v>
+        <v>1016800</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,16 +1955,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2789300</v>
+        <v>2658200</v>
       </c>
       <c r="E47" s="3">
-        <v>1833800</v>
+        <v>1747600</v>
       </c>
       <c r="F47" s="3">
-        <v>2016300</v>
+        <v>1921600</v>
       </c>
       <c r="G47" s="3">
-        <v>1116000</v>
+        <v>1063500</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>927300</v>
+        <v>883700</v>
       </c>
       <c r="E48" s="3">
-        <v>955500</v>
+        <v>910600</v>
       </c>
       <c r="F48" s="3">
-        <v>241300</v>
+        <v>230000</v>
       </c>
       <c r="G48" s="3">
-        <v>89400</v>
+        <v>85200</v>
       </c>
       <c r="H48" s="3">
-        <v>104100</v>
+        <v>99200</v>
       </c>
       <c r="I48" s="3">
-        <v>99200</v>
+        <v>94600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1020400</v>
+        <v>972500</v>
       </c>
       <c r="E49" s="3">
-        <v>656600</v>
+        <v>625700</v>
       </c>
       <c r="F49" s="3">
-        <v>213100</v>
+        <v>203100</v>
       </c>
       <c r="G49" s="3">
-        <v>198400</v>
+        <v>189100</v>
       </c>
       <c r="H49" s="3">
-        <v>98000</v>
+        <v>93400</v>
       </c>
       <c r="I49" s="3">
-        <v>89400</v>
+        <v>85200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>113900</v>
+        <v>108600</v>
       </c>
       <c r="E52" s="3">
-        <v>95500</v>
+        <v>91100</v>
       </c>
       <c r="F52" s="3">
-        <v>89400</v>
+        <v>85200</v>
       </c>
       <c r="G52" s="3">
-        <v>77200</v>
+        <v>73500</v>
       </c>
       <c r="H52" s="3">
-        <v>31800</v>
+        <v>30400</v>
       </c>
       <c r="I52" s="3">
-        <v>30600</v>
+        <v>29200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7749300</v>
+        <v>7385000</v>
       </c>
       <c r="E54" s="3">
-        <v>6274400</v>
+        <v>5979500</v>
       </c>
       <c r="F54" s="3">
-        <v>5311600</v>
+        <v>5061900</v>
       </c>
       <c r="G54" s="3">
-        <v>3806000</v>
+        <v>3627100</v>
       </c>
       <c r="H54" s="3">
-        <v>2572500</v>
+        <v>2451600</v>
       </c>
       <c r="I54" s="3">
-        <v>1287500</v>
+        <v>1226900</v>
       </c>
       <c r="J54" s="3">
-        <v>580600</v>
+        <v>553400</v>
       </c>
       <c r="K54" s="3">
         <v>446200</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>531600</v>
+        <v>506700</v>
       </c>
       <c r="E57" s="3">
-        <v>461800</v>
+        <v>440100</v>
       </c>
       <c r="F57" s="3">
-        <v>361400</v>
+        <v>344400</v>
       </c>
       <c r="G57" s="3">
-        <v>296400</v>
+        <v>282500</v>
       </c>
       <c r="H57" s="3">
-        <v>170300</v>
+        <v>162300</v>
       </c>
       <c r="I57" s="3">
-        <v>93100</v>
+        <v>88700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2314,7 +2314,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2323,10 +2323,10 @@
         <v>1200</v>
       </c>
       <c r="H58" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="I58" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3020800</v>
+        <v>2878800</v>
       </c>
       <c r="E59" s="3">
-        <v>2517400</v>
+        <v>2399000</v>
       </c>
       <c r="F59" s="3">
-        <v>2268700</v>
+        <v>2162000</v>
       </c>
       <c r="G59" s="3">
-        <v>1980800</v>
+        <v>1887700</v>
       </c>
       <c r="H59" s="3">
-        <v>1318100</v>
+        <v>1256100</v>
       </c>
       <c r="I59" s="3">
-        <v>877100</v>
+        <v>835900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3552500</v>
+        <v>3385500</v>
       </c>
       <c r="E60" s="3">
-        <v>2987800</v>
+        <v>2847300</v>
       </c>
       <c r="F60" s="3">
-        <v>2630100</v>
+        <v>2506400</v>
       </c>
       <c r="G60" s="3">
-        <v>2278500</v>
+        <v>2171400</v>
       </c>
       <c r="H60" s="3">
-        <v>1494500</v>
+        <v>1424200</v>
       </c>
       <c r="I60" s="3">
-        <v>977500</v>
+        <v>931600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,22 +2419,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>706800</v>
+        <v>673600</v>
       </c>
       <c r="E61" s="3">
-        <v>761900</v>
+        <v>726100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>1156400</v>
+        <v>1102000</v>
       </c>
       <c r="H61" s="3">
-        <v>1356100</v>
+        <v>1292300</v>
       </c>
       <c r="I61" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53900</v>
+        <v>51400</v>
       </c>
       <c r="E62" s="3">
-        <v>29400</v>
+        <v>28000</v>
       </c>
       <c r="F62" s="3">
-        <v>116400</v>
+        <v>110900</v>
       </c>
       <c r="G62" s="3">
-        <v>79600</v>
+        <v>75900</v>
       </c>
       <c r="H62" s="3">
-        <v>15900</v>
+        <v>15200</v>
       </c>
       <c r="I62" s="3">
-        <v>23300</v>
+        <v>22200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4313200</v>
+        <v>4110500</v>
       </c>
       <c r="E66" s="3">
-        <v>3779100</v>
+        <v>3601500</v>
       </c>
       <c r="F66" s="3">
-        <v>2746400</v>
+        <v>2617300</v>
       </c>
       <c r="G66" s="3">
-        <v>3514500</v>
+        <v>3349300</v>
       </c>
       <c r="H66" s="3">
-        <v>2866500</v>
+        <v>2731700</v>
       </c>
       <c r="I66" s="3">
-        <v>1006900</v>
+        <v>959600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4030200</v>
+        <v>-3840800</v>
       </c>
       <c r="E72" s="3">
-        <v>-3318500</v>
+        <v>-3162500</v>
       </c>
       <c r="F72" s="3">
-        <v>-3068600</v>
+        <v>-2924400</v>
       </c>
       <c r="G72" s="3">
-        <v>-2973100</v>
+        <v>-2833300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1460200</v>
+        <v>-1391600</v>
       </c>
       <c r="I72" s="3">
-        <v>-799900</v>
+        <v>-762300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3436100</v>
+        <v>3274600</v>
       </c>
       <c r="E76" s="3">
-        <v>2495300</v>
+        <v>2378000</v>
       </c>
       <c r="F76" s="3">
-        <v>2565100</v>
+        <v>2444600</v>
       </c>
       <c r="G76" s="3">
-        <v>291500</v>
+        <v>277800</v>
       </c>
       <c r="H76" s="3">
-        <v>-294000</v>
+        <v>-280200</v>
       </c>
       <c r="I76" s="3">
-        <v>280500</v>
+        <v>267300</v>
       </c>
       <c r="J76" s="3">
-        <v>44100</v>
+        <v>42000</v>
       </c>
       <c r="K76" s="3">
         <v>112400</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-711700</v>
+        <v>-678300</v>
       </c>
       <c r="E81" s="3">
-        <v>-227800</v>
+        <v>-217100</v>
       </c>
       <c r="F81" s="3">
-        <v>-95500</v>
+        <v>-91100</v>
       </c>
       <c r="G81" s="3">
-        <v>-1512900</v>
+        <v>-1441800</v>
       </c>
       <c r="H81" s="3">
-        <v>-660300</v>
+        <v>-629200</v>
       </c>
       <c r="I81" s="3">
-        <v>-281700</v>
+        <v>-268500</v>
       </c>
       <c r="J81" s="3">
-        <v>-230300</v>
+        <v>-219500</v>
       </c>
       <c r="K81" s="3">
         <v>-75400</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>136000</v>
+        <v>129600</v>
       </c>
       <c r="E83" s="3">
-        <v>106600</v>
+        <v>101600</v>
       </c>
       <c r="F83" s="3">
-        <v>39200</v>
+        <v>37400</v>
       </c>
       <c r="G83" s="3">
-        <v>66100</v>
+        <v>63000</v>
       </c>
       <c r="H83" s="3">
-        <v>46500</v>
+        <v>44400</v>
       </c>
       <c r="I83" s="3">
-        <v>36700</v>
+        <v>35000</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>317300</v>
+        <v>302400</v>
       </c>
       <c r="E89" s="3">
-        <v>701900</v>
+        <v>668900</v>
       </c>
       <c r="F89" s="3">
-        <v>421400</v>
+        <v>401600</v>
       </c>
       <c r="G89" s="3">
-        <v>219300</v>
+        <v>209000</v>
       </c>
       <c r="H89" s="3">
-        <v>123700</v>
+        <v>117900</v>
       </c>
       <c r="I89" s="3">
-        <v>-46500</v>
+        <v>-44400</v>
       </c>
       <c r="J89" s="3">
-        <v>-90600</v>
+        <v>-86400</v>
       </c>
       <c r="K89" s="3">
         <v>-29900</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-95500</v>
+        <v>-91100</v>
       </c>
       <c r="E91" s="3">
-        <v>-165400</v>
+        <v>-157600</v>
       </c>
       <c r="F91" s="3">
-        <v>-153100</v>
+        <v>-145900</v>
       </c>
       <c r="G91" s="3">
-        <v>-44100</v>
+        <v>-42000</v>
       </c>
       <c r="H91" s="3">
-        <v>-33100</v>
+        <v>-31500</v>
       </c>
       <c r="I91" s="3">
-        <v>-53900</v>
+        <v>-51400</v>
       </c>
       <c r="J91" s="3">
-        <v>-19600</v>
+        <v>-18700</v>
       </c>
       <c r="K91" s="3">
         <v>-40700</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-455700</v>
+        <v>-434300</v>
       </c>
       <c r="E94" s="3">
-        <v>-267000</v>
+        <v>-254500</v>
       </c>
       <c r="F94" s="3">
-        <v>-26900</v>
+        <v>-25700</v>
       </c>
       <c r="G94" s="3">
-        <v>-532900</v>
+        <v>-507800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1013100</v>
+        <v>-965400</v>
       </c>
       <c r="I94" s="3">
-        <v>-82100</v>
+        <v>-78200</v>
       </c>
       <c r="J94" s="3">
-        <v>-25700</v>
+        <v>-24500</v>
       </c>
       <c r="K94" s="3">
         <v>-49000</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>349100</v>
+        <v>332700</v>
       </c>
       <c r="E100" s="3">
-        <v>-248700</v>
+        <v>-237000</v>
       </c>
       <c r="F100" s="3">
-        <v>112700</v>
+        <v>107400</v>
       </c>
       <c r="G100" s="3">
-        <v>41600</v>
+        <v>39700</v>
       </c>
       <c r="H100" s="3">
-        <v>1122100</v>
+        <v>1069300</v>
       </c>
       <c r="I100" s="3">
-        <v>583100</v>
+        <v>555700</v>
       </c>
       <c r="J100" s="3">
-        <v>79600</v>
+        <v>75900</v>
       </c>
       <c r="K100" s="3">
         <v>147100</v>
@@ -3712,22 +3712,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-105300</v>
+        <v>-100400</v>
       </c>
       <c r="E101" s="3">
-        <v>26900</v>
+        <v>25700</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-68600</v>
+        <v>-65400</v>
       </c>
       <c r="H101" s="3">
-        <v>-39200</v>
+        <v>-37400</v>
       </c>
       <c r="I101" s="3">
-        <v>24500</v>
+        <v>23300</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>105300</v>
+        <v>100400</v>
       </c>
       <c r="E102" s="3">
-        <v>213100</v>
+        <v>203100</v>
       </c>
       <c r="F102" s="3">
-        <v>507100</v>
+        <v>483300</v>
       </c>
       <c r="G102" s="3">
-        <v>-340500</v>
+        <v>-324500</v>
       </c>
       <c r="H102" s="3">
-        <v>193500</v>
+        <v>184500</v>
       </c>
       <c r="I102" s="3">
-        <v>479000</v>
+        <v>456500</v>
       </c>
       <c r="J102" s="3">
-        <v>-36700</v>
+        <v>-35000</v>
       </c>
       <c r="K102" s="3">
         <v>68200</v>

--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>9199200</v>
+        <v>8897300</v>
       </c>
       <c r="E8" s="3">
-        <v>7896400</v>
+        <v>7637200</v>
       </c>
       <c r="F8" s="3">
-        <v>6139400</v>
+        <v>5937900</v>
       </c>
       <c r="G8" s="3">
-        <v>4774700</v>
+        <v>4618000</v>
       </c>
       <c r="H8" s="3">
-        <v>3446200</v>
+        <v>3333100</v>
       </c>
       <c r="I8" s="3">
-        <v>2264800</v>
+        <v>2190500</v>
       </c>
       <c r="J8" s="3">
-        <v>1266600</v>
+        <v>1225100</v>
       </c>
       <c r="K8" s="3">
         <v>892400</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6846900</v>
+        <v>6622200</v>
       </c>
       <c r="E9" s="3">
-        <v>5886100</v>
+        <v>5692900</v>
       </c>
       <c r="F9" s="3">
-        <v>4559900</v>
+        <v>4410300</v>
       </c>
       <c r="G9" s="3">
-        <v>3783600</v>
+        <v>3659400</v>
       </c>
       <c r="H9" s="3">
-        <v>2978100</v>
+        <v>2880300</v>
       </c>
       <c r="I9" s="3">
-        <v>2000900</v>
+        <v>1935300</v>
       </c>
       <c r="J9" s="3">
-        <v>1063500</v>
+        <v>1028600</v>
       </c>
       <c r="K9" s="3">
         <v>739300</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2352300</v>
+        <v>2275100</v>
       </c>
       <c r="E10" s="3">
-        <v>2010300</v>
+        <v>1944300</v>
       </c>
       <c r="F10" s="3">
-        <v>1579500</v>
+        <v>1527700</v>
       </c>
       <c r="G10" s="3">
-        <v>991100</v>
+        <v>958600</v>
       </c>
       <c r="H10" s="3">
-        <v>468100</v>
+        <v>452800</v>
       </c>
       <c r="I10" s="3">
-        <v>263800</v>
+        <v>255200</v>
       </c>
       <c r="J10" s="3">
-        <v>203100</v>
+        <v>196500</v>
       </c>
       <c r="K10" s="3">
         <v>153100</v>
@@ -845,25 +845,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>956100</v>
+        <v>924700</v>
       </c>
       <c r="E12" s="3">
-        <v>701600</v>
+        <v>678600</v>
       </c>
       <c r="F12" s="3">
-        <v>575500</v>
+        <v>556600</v>
       </c>
       <c r="G12" s="3">
-        <v>462300</v>
+        <v>447100</v>
       </c>
       <c r="H12" s="3">
-        <v>241700</v>
+        <v>233700</v>
       </c>
       <c r="I12" s="3">
-        <v>158800</v>
+        <v>153600</v>
       </c>
       <c r="J12" s="3">
-        <v>133100</v>
+        <v>128700</v>
       </c>
       <c r="K12" s="3">
         <v>87300</v>
@@ -917,16 +917,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G14" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H14" s="3">
         <v>2300</v>
@@ -953,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="E15" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9541200</v>
+        <v>9228100</v>
       </c>
       <c r="E17" s="3">
-        <v>7981600</v>
+        <v>7719700</v>
       </c>
       <c r="F17" s="3">
-        <v>6190800</v>
+        <v>5987600</v>
       </c>
       <c r="G17" s="3">
-        <v>5214800</v>
+        <v>5043700</v>
       </c>
       <c r="H17" s="3">
-        <v>3856000</v>
+        <v>3729400</v>
       </c>
       <c r="I17" s="3">
-        <v>2539100</v>
+        <v>2455800</v>
       </c>
       <c r="J17" s="3">
-        <v>1489600</v>
+        <v>1440700</v>
       </c>
       <c r="K17" s="3">
         <v>1009600</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-342100</v>
+        <v>-330800</v>
       </c>
       <c r="E18" s="3">
-        <v>-85200</v>
+        <v>-82400</v>
       </c>
       <c r="F18" s="3">
-        <v>-51400</v>
+        <v>-49700</v>
       </c>
       <c r="G18" s="3">
-        <v>-440100</v>
+        <v>-425700</v>
       </c>
       <c r="H18" s="3">
-        <v>-409800</v>
+        <v>-396300</v>
       </c>
       <c r="I18" s="3">
-        <v>-274300</v>
+        <v>-265300</v>
       </c>
       <c r="J18" s="3">
-        <v>-223000</v>
+        <v>-215700</v>
       </c>
       <c r="K18" s="3">
         <v>-117200</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-437800</v>
+        <v>-423400</v>
       </c>
       <c r="E20" s="3">
-        <v>-23300</v>
+        <v>-22600</v>
       </c>
       <c r="F20" s="3">
-        <v>-150600</v>
+        <v>-145700</v>
       </c>
       <c r="G20" s="3">
-        <v>-994600</v>
+        <v>-962000</v>
       </c>
       <c r="H20" s="3">
-        <v>-214800</v>
+        <v>-207800</v>
       </c>
       <c r="I20" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="J20" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="K20" s="3">
         <v>44300</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-649800</v>
+        <v>-628600</v>
       </c>
       <c r="E21" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="F21" s="3">
-        <v>-164500</v>
+        <v>-159100</v>
       </c>
       <c r="G21" s="3">
-        <v>-1371500</v>
+        <v>-1326600</v>
       </c>
       <c r="H21" s="3">
-        <v>-580100</v>
+        <v>-561100</v>
       </c>
       <c r="I21" s="3">
-        <v>-227500</v>
+        <v>-220100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,16 +1162,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>47900</v>
+        <v>46300</v>
       </c>
       <c r="E22" s="3">
-        <v>44400</v>
+        <v>42900</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-827700</v>
+        <v>-800500</v>
       </c>
       <c r="E23" s="3">
-        <v>-152900</v>
+        <v>-147900</v>
       </c>
       <c r="F23" s="3">
-        <v>-202000</v>
+        <v>-195300</v>
       </c>
       <c r="G23" s="3">
-        <v>-1439400</v>
+        <v>-1392200</v>
       </c>
       <c r="H23" s="3">
-        <v>-624600</v>
+        <v>-604100</v>
       </c>
       <c r="I23" s="3">
-        <v>-262700</v>
+        <v>-254000</v>
       </c>
       <c r="J23" s="3">
-        <v>-212500</v>
+        <v>-205500</v>
       </c>
       <c r="K23" s="3">
         <v>-73000</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-149400</v>
+        <v>-144500</v>
       </c>
       <c r="E24" s="3">
-        <v>64200</v>
+        <v>62100</v>
       </c>
       <c r="F24" s="3">
-        <v>-110900</v>
+        <v>-107300</v>
       </c>
       <c r="G24" s="3">
         <v>2300</v>
       </c>
       <c r="H24" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="I24" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="J24" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="K24" s="3">
         <v>2400</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-678300</v>
+        <v>-656000</v>
       </c>
       <c r="E26" s="3">
-        <v>-217100</v>
+        <v>-210000</v>
       </c>
       <c r="F26" s="3">
-        <v>-91100</v>
+        <v>-88100</v>
       </c>
       <c r="G26" s="3">
-        <v>-1441800</v>
+        <v>-1394400</v>
       </c>
       <c r="H26" s="3">
-        <v>-629200</v>
+        <v>-608600</v>
       </c>
       <c r="I26" s="3">
-        <v>-268500</v>
+        <v>-259700</v>
       </c>
       <c r="J26" s="3">
-        <v>-219500</v>
+        <v>-212300</v>
       </c>
       <c r="K26" s="3">
         <v>-75400</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-678300</v>
+        <v>-656000</v>
       </c>
       <c r="E27" s="3">
-        <v>-217100</v>
+        <v>-210000</v>
       </c>
       <c r="F27" s="3">
-        <v>-91100</v>
+        <v>-88100</v>
       </c>
       <c r="G27" s="3">
-        <v>-1441800</v>
+        <v>-1394400</v>
       </c>
       <c r="H27" s="3">
-        <v>-629200</v>
+        <v>-608600</v>
       </c>
       <c r="I27" s="3">
-        <v>-268500</v>
+        <v>-259700</v>
       </c>
       <c r="J27" s="3">
-        <v>-219500</v>
+        <v>-212300</v>
       </c>
       <c r="K27" s="3">
         <v>-75400</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>437800</v>
+        <v>423400</v>
       </c>
       <c r="E32" s="3">
-        <v>23300</v>
+        <v>22600</v>
       </c>
       <c r="F32" s="3">
-        <v>150600</v>
+        <v>145700</v>
       </c>
       <c r="G32" s="3">
-        <v>994600</v>
+        <v>962000</v>
       </c>
       <c r="H32" s="3">
-        <v>214800</v>
+        <v>207800</v>
       </c>
       <c r="I32" s="3">
-        <v>-11700</v>
+        <v>-11300</v>
       </c>
       <c r="J32" s="3">
-        <v>-10500</v>
+        <v>-10200</v>
       </c>
       <c r="K32" s="3">
         <v>-44300</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-678300</v>
+        <v>-656000</v>
       </c>
       <c r="E33" s="3">
-        <v>-217100</v>
+        <v>-210000</v>
       </c>
       <c r="F33" s="3">
-        <v>-91100</v>
+        <v>-88100</v>
       </c>
       <c r="G33" s="3">
-        <v>-1441800</v>
+        <v>-1394400</v>
       </c>
       <c r="H33" s="3">
-        <v>-629200</v>
+        <v>-608600</v>
       </c>
       <c r="I33" s="3">
-        <v>-268500</v>
+        <v>-259700</v>
       </c>
       <c r="J33" s="3">
-        <v>-219500</v>
+        <v>-212300</v>
       </c>
       <c r="K33" s="3">
         <v>-75400</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-678300</v>
+        <v>-656000</v>
       </c>
       <c r="E35" s="3">
-        <v>-217100</v>
+        <v>-210000</v>
       </c>
       <c r="F35" s="3">
-        <v>-91100</v>
+        <v>-88100</v>
       </c>
       <c r="G35" s="3">
-        <v>-1441800</v>
+        <v>-1394400</v>
       </c>
       <c r="H35" s="3">
-        <v>-629200</v>
+        <v>-608600</v>
       </c>
       <c r="I35" s="3">
-        <v>-268500</v>
+        <v>-259700</v>
       </c>
       <c r="J35" s="3">
-        <v>-219500</v>
+        <v>-212300</v>
       </c>
       <c r="K35" s="3">
         <v>-75400</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1343700</v>
+        <v>1299600</v>
       </c>
       <c r="E41" s="3">
-        <v>1243300</v>
+        <v>1202500</v>
       </c>
       <c r="F41" s="3">
-        <v>1040200</v>
+        <v>1006000</v>
       </c>
       <c r="G41" s="3">
-        <v>556900</v>
+        <v>538600</v>
       </c>
       <c r="H41" s="3">
-        <v>881400</v>
+        <v>852500</v>
       </c>
       <c r="I41" s="3">
-        <v>696900</v>
+        <v>674100</v>
       </c>
       <c r="J41" s="3">
-        <v>240500</v>
+        <v>232600</v>
       </c>
       <c r="K41" s="3">
         <v>260800</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>695800</v>
+        <v>672900</v>
       </c>
       <c r="E42" s="3">
-        <v>807800</v>
+        <v>781300</v>
       </c>
       <c r="F42" s="3">
-        <v>1068200</v>
+        <v>1033100</v>
       </c>
       <c r="G42" s="3">
-        <v>1204800</v>
+        <v>1165200</v>
       </c>
       <c r="H42" s="3">
-        <v>969000</v>
+        <v>937200</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>546300</v>
+        <v>528400</v>
       </c>
       <c r="E43" s="3">
-        <v>474000</v>
+        <v>458400</v>
       </c>
       <c r="F43" s="3">
-        <v>469300</v>
+        <v>453900</v>
       </c>
       <c r="G43" s="3">
-        <v>420300</v>
+        <v>406500</v>
       </c>
       <c r="H43" s="3">
-        <v>357200</v>
+        <v>345500</v>
       </c>
       <c r="I43" s="3">
-        <v>288400</v>
+        <v>278900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>176300</v>
+        <v>170500</v>
       </c>
       <c r="E45" s="3">
-        <v>79400</v>
+        <v>76800</v>
       </c>
       <c r="F45" s="3">
-        <v>44400</v>
+        <v>42900</v>
       </c>
       <c r="G45" s="3">
-        <v>33900</v>
+        <v>32700</v>
       </c>
       <c r="H45" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="I45" s="3">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2762100</v>
+        <v>2671500</v>
       </c>
       <c r="E46" s="3">
-        <v>2604500</v>
+        <v>2519000</v>
       </c>
       <c r="F46" s="3">
-        <v>2622000</v>
+        <v>2536000</v>
       </c>
       <c r="G46" s="3">
-        <v>2215700</v>
+        <v>2143000</v>
       </c>
       <c r="H46" s="3">
-        <v>2228600</v>
+        <v>2155500</v>
       </c>
       <c r="I46" s="3">
-        <v>1016800</v>
+        <v>983400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2658200</v>
+        <v>2571000</v>
       </c>
       <c r="E47" s="3">
-        <v>1747600</v>
+        <v>1690300</v>
       </c>
       <c r="F47" s="3">
-        <v>1921600</v>
+        <v>1858500</v>
       </c>
       <c r="G47" s="3">
-        <v>1063500</v>
+        <v>1028600</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>883700</v>
+        <v>854700</v>
       </c>
       <c r="E48" s="3">
-        <v>910600</v>
+        <v>880700</v>
       </c>
       <c r="F48" s="3">
-        <v>230000</v>
+        <v>222400</v>
       </c>
       <c r="G48" s="3">
-        <v>85200</v>
+        <v>82400</v>
       </c>
       <c r="H48" s="3">
-        <v>99200</v>
+        <v>96000</v>
       </c>
       <c r="I48" s="3">
-        <v>94600</v>
+        <v>91500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>972500</v>
+        <v>940500</v>
       </c>
       <c r="E49" s="3">
-        <v>625700</v>
+        <v>605200</v>
       </c>
       <c r="F49" s="3">
-        <v>203100</v>
+        <v>196500</v>
       </c>
       <c r="G49" s="3">
-        <v>189100</v>
+        <v>182900</v>
       </c>
       <c r="H49" s="3">
-        <v>93400</v>
+        <v>90300</v>
       </c>
       <c r="I49" s="3">
-        <v>85200</v>
+        <v>82400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>108600</v>
+        <v>105000</v>
       </c>
       <c r="E52" s="3">
-        <v>91100</v>
+        <v>88100</v>
       </c>
       <c r="F52" s="3">
-        <v>85200</v>
+        <v>82400</v>
       </c>
       <c r="G52" s="3">
-        <v>73500</v>
+        <v>71100</v>
       </c>
       <c r="H52" s="3">
-        <v>30400</v>
+        <v>29400</v>
       </c>
       <c r="I52" s="3">
-        <v>29200</v>
+        <v>28200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7385000</v>
+        <v>7142700</v>
       </c>
       <c r="E54" s="3">
-        <v>5979500</v>
+        <v>5783300</v>
       </c>
       <c r="F54" s="3">
-        <v>5061900</v>
+        <v>4895800</v>
       </c>
       <c r="G54" s="3">
-        <v>3627100</v>
+        <v>3508100</v>
       </c>
       <c r="H54" s="3">
-        <v>2451600</v>
+        <v>2371100</v>
       </c>
       <c r="I54" s="3">
-        <v>1226900</v>
+        <v>1186700</v>
       </c>
       <c r="J54" s="3">
-        <v>553400</v>
+        <v>535200</v>
       </c>
       <c r="K54" s="3">
         <v>446200</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>506700</v>
+        <v>490000</v>
       </c>
       <c r="E57" s="3">
-        <v>440100</v>
+        <v>425700</v>
       </c>
       <c r="F57" s="3">
-        <v>344400</v>
+        <v>333100</v>
       </c>
       <c r="G57" s="3">
-        <v>282500</v>
+        <v>273200</v>
       </c>
       <c r="H57" s="3">
-        <v>162300</v>
+        <v>156900</v>
       </c>
       <c r="I57" s="3">
-        <v>88700</v>
+        <v>85800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2314,19 +2314,19 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H58" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="I58" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2878800</v>
+        <v>2784400</v>
       </c>
       <c r="E59" s="3">
-        <v>2399000</v>
+        <v>2320300</v>
       </c>
       <c r="F59" s="3">
-        <v>2162000</v>
+        <v>2091100</v>
       </c>
       <c r="G59" s="3">
-        <v>1887700</v>
+        <v>1825800</v>
       </c>
       <c r="H59" s="3">
-        <v>1256100</v>
+        <v>1214900</v>
       </c>
       <c r="I59" s="3">
-        <v>835900</v>
+        <v>808400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3385500</v>
+        <v>3274400</v>
       </c>
       <c r="E60" s="3">
-        <v>2847300</v>
+        <v>2753900</v>
       </c>
       <c r="F60" s="3">
-        <v>2506400</v>
+        <v>2424200</v>
       </c>
       <c r="G60" s="3">
-        <v>2171400</v>
+        <v>2100100</v>
       </c>
       <c r="H60" s="3">
-        <v>1424200</v>
+        <v>1377500</v>
       </c>
       <c r="I60" s="3">
-        <v>931600</v>
+        <v>901000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,22 +2419,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>673600</v>
+        <v>651500</v>
       </c>
       <c r="E61" s="3">
-        <v>726100</v>
+        <v>702300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>1102000</v>
+        <v>1065900</v>
       </c>
       <c r="H61" s="3">
-        <v>1292300</v>
+        <v>1249900</v>
       </c>
       <c r="I61" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51400</v>
+        <v>49700</v>
       </c>
       <c r="E62" s="3">
-        <v>28000</v>
+        <v>27100</v>
       </c>
       <c r="F62" s="3">
-        <v>110900</v>
+        <v>107300</v>
       </c>
       <c r="G62" s="3">
-        <v>75900</v>
+        <v>73400</v>
       </c>
       <c r="H62" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="I62" s="3">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4110500</v>
+        <v>3975600</v>
       </c>
       <c r="E66" s="3">
-        <v>3601500</v>
+        <v>3483300</v>
       </c>
       <c r="F66" s="3">
-        <v>2617300</v>
+        <v>2531400</v>
       </c>
       <c r="G66" s="3">
-        <v>3349300</v>
+        <v>3239400</v>
       </c>
       <c r="H66" s="3">
-        <v>2731700</v>
+        <v>2642100</v>
       </c>
       <c r="I66" s="3">
-        <v>959600</v>
+        <v>928100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3840800</v>
+        <v>-3714700</v>
       </c>
       <c r="E72" s="3">
-        <v>-3162500</v>
+        <v>-3058700</v>
       </c>
       <c r="F72" s="3">
-        <v>-2924400</v>
+        <v>-2828400</v>
       </c>
       <c r="G72" s="3">
-        <v>-2833300</v>
+        <v>-2740300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1391600</v>
+        <v>-1345900</v>
       </c>
       <c r="I72" s="3">
-        <v>-762300</v>
+        <v>-737300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3274600</v>
+        <v>3167100</v>
       </c>
       <c r="E76" s="3">
-        <v>2378000</v>
+        <v>2300000</v>
       </c>
       <c r="F76" s="3">
-        <v>2444600</v>
+        <v>2364300</v>
       </c>
       <c r="G76" s="3">
-        <v>277800</v>
+        <v>268700</v>
       </c>
       <c r="H76" s="3">
-        <v>-280200</v>
+        <v>-271000</v>
       </c>
       <c r="I76" s="3">
-        <v>267300</v>
+        <v>258600</v>
       </c>
       <c r="J76" s="3">
-        <v>42000</v>
+        <v>40600</v>
       </c>
       <c r="K76" s="3">
         <v>112400</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-678300</v>
+        <v>-656000</v>
       </c>
       <c r="E81" s="3">
-        <v>-217100</v>
+        <v>-210000</v>
       </c>
       <c r="F81" s="3">
-        <v>-91100</v>
+        <v>-88100</v>
       </c>
       <c r="G81" s="3">
-        <v>-1441800</v>
+        <v>-1394400</v>
       </c>
       <c r="H81" s="3">
-        <v>-629200</v>
+        <v>-608600</v>
       </c>
       <c r="I81" s="3">
-        <v>-268500</v>
+        <v>-259700</v>
       </c>
       <c r="J81" s="3">
-        <v>-219500</v>
+        <v>-212300</v>
       </c>
       <c r="K81" s="3">
         <v>-75400</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>129600</v>
+        <v>125300</v>
       </c>
       <c r="E83" s="3">
-        <v>101600</v>
+        <v>98200</v>
       </c>
       <c r="F83" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="G83" s="3">
-        <v>63000</v>
+        <v>61000</v>
       </c>
       <c r="H83" s="3">
-        <v>44400</v>
+        <v>42900</v>
       </c>
       <c r="I83" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>302400</v>
+        <v>292400</v>
       </c>
       <c r="E89" s="3">
-        <v>668900</v>
+        <v>647000</v>
       </c>
       <c r="F89" s="3">
-        <v>401600</v>
+        <v>388400</v>
       </c>
       <c r="G89" s="3">
-        <v>209000</v>
+        <v>202100</v>
       </c>
       <c r="H89" s="3">
-        <v>117900</v>
+        <v>114000</v>
       </c>
       <c r="I89" s="3">
-        <v>-44400</v>
+        <v>-42900</v>
       </c>
       <c r="J89" s="3">
-        <v>-86400</v>
+        <v>-83600</v>
       </c>
       <c r="K89" s="3">
         <v>-29900</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-91100</v>
+        <v>-88100</v>
       </c>
       <c r="E91" s="3">
-        <v>-157600</v>
+        <v>-152400</v>
       </c>
       <c r="F91" s="3">
-        <v>-145900</v>
+        <v>-141100</v>
       </c>
       <c r="G91" s="3">
-        <v>-42000</v>
+        <v>-40600</v>
       </c>
       <c r="H91" s="3">
-        <v>-31500</v>
+        <v>-30500</v>
       </c>
       <c r="I91" s="3">
-        <v>-51400</v>
+        <v>-49700</v>
       </c>
       <c r="J91" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="K91" s="3">
         <v>-40700</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-434300</v>
+        <v>-420000</v>
       </c>
       <c r="E94" s="3">
-        <v>-254500</v>
+        <v>-246100</v>
       </c>
       <c r="F94" s="3">
-        <v>-25700</v>
+        <v>-24800</v>
       </c>
       <c r="G94" s="3">
-        <v>-507800</v>
+        <v>-491200</v>
       </c>
       <c r="H94" s="3">
-        <v>-965400</v>
+        <v>-933800</v>
       </c>
       <c r="I94" s="3">
-        <v>-78200</v>
+        <v>-75600</v>
       </c>
       <c r="J94" s="3">
-        <v>-24500</v>
+        <v>-23700</v>
       </c>
       <c r="K94" s="3">
         <v>-49000</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>332700</v>
+        <v>321800</v>
       </c>
       <c r="E100" s="3">
-        <v>-237000</v>
+        <v>-229200</v>
       </c>
       <c r="F100" s="3">
-        <v>107400</v>
+        <v>103900</v>
       </c>
       <c r="G100" s="3">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="H100" s="3">
-        <v>1069300</v>
+        <v>1034300</v>
       </c>
       <c r="I100" s="3">
-        <v>555700</v>
+        <v>537500</v>
       </c>
       <c r="J100" s="3">
-        <v>75900</v>
+        <v>73400</v>
       </c>
       <c r="K100" s="3">
         <v>147100</v>
@@ -3712,22 +3712,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100400</v>
+        <v>-97100</v>
       </c>
       <c r="E101" s="3">
-        <v>25700</v>
+        <v>24800</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-65400</v>
+        <v>-63200</v>
       </c>
       <c r="H101" s="3">
-        <v>-37400</v>
+        <v>-36100</v>
       </c>
       <c r="I101" s="3">
-        <v>23300</v>
+        <v>22600</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100400</v>
+        <v>97100</v>
       </c>
       <c r="E102" s="3">
-        <v>203100</v>
+        <v>196500</v>
       </c>
       <c r="F102" s="3">
-        <v>483300</v>
+        <v>467400</v>
       </c>
       <c r="G102" s="3">
-        <v>-324500</v>
+        <v>-313900</v>
       </c>
       <c r="H102" s="3">
-        <v>184500</v>
+        <v>178400</v>
       </c>
       <c r="I102" s="3">
-        <v>456500</v>
+        <v>441500</v>
       </c>
       <c r="J102" s="3">
-        <v>-35000</v>
+        <v>-33900</v>
       </c>
       <c r="K102" s="3">
         <v>68200</v>

--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>8897300</v>
+        <v>10546900</v>
       </c>
       <c r="E8" s="3">
-        <v>7637200</v>
+        <v>8596400</v>
       </c>
       <c r="F8" s="3">
-        <v>5937900</v>
+        <v>7378900</v>
       </c>
       <c r="G8" s="3">
-        <v>4618000</v>
+        <v>5737100</v>
       </c>
       <c r="H8" s="3">
-        <v>3333100</v>
+        <v>4461800</v>
       </c>
       <c r="I8" s="3">
-        <v>2190500</v>
+        <v>3220400</v>
       </c>
       <c r="J8" s="3">
+        <v>2116400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1225100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>892400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6622200</v>
+        <v>7720400</v>
       </c>
       <c r="E9" s="3">
-        <v>5692900</v>
+        <v>6398200</v>
       </c>
       <c r="F9" s="3">
-        <v>4410300</v>
+        <v>5500400</v>
       </c>
       <c r="G9" s="3">
-        <v>3659400</v>
+        <v>4261100</v>
       </c>
       <c r="H9" s="3">
-        <v>2880300</v>
+        <v>3535600</v>
       </c>
       <c r="I9" s="3">
-        <v>1935300</v>
+        <v>2782900</v>
       </c>
       <c r="J9" s="3">
+        <v>1869800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1028600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>739300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2275100</v>
+        <v>2826500</v>
       </c>
       <c r="E10" s="3">
-        <v>1944300</v>
+        <v>2198200</v>
       </c>
       <c r="F10" s="3">
-        <v>1527700</v>
+        <v>1878500</v>
       </c>
       <c r="G10" s="3">
-        <v>958600</v>
+        <v>1476000</v>
       </c>
       <c r="H10" s="3">
-        <v>452800</v>
+        <v>926200</v>
       </c>
       <c r="I10" s="3">
-        <v>255200</v>
+        <v>437500</v>
       </c>
       <c r="J10" s="3">
+        <v>246500</v>
+      </c>
+      <c r="K10" s="3">
         <v>196500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>153100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,44 +851,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>924700</v>
+        <v>967600</v>
       </c>
       <c r="E12" s="3">
-        <v>678600</v>
+        <v>893500</v>
       </c>
       <c r="F12" s="3">
-        <v>556600</v>
+        <v>655600</v>
       </c>
       <c r="G12" s="3">
-        <v>447100</v>
+        <v>537800</v>
       </c>
       <c r="H12" s="3">
-        <v>233700</v>
+        <v>432000</v>
       </c>
       <c r="I12" s="3">
-        <v>153600</v>
+        <v>225800</v>
       </c>
       <c r="J12" s="3">
+        <v>148400</v>
+      </c>
+      <c r="K12" s="3">
         <v>128700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>87300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,35 +926,38 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="H14" s="3">
-        <v>2300</v>
-      </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -946,20 +965,23 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>20300</v>
+        <v>27300</v>
       </c>
       <c r="E15" s="3">
-        <v>15800</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+        <v>19600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>15300</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -976,15 +998,18 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9228100</v>
+        <v>10444400</v>
       </c>
       <c r="E17" s="3">
-        <v>7719700</v>
+        <v>8916000</v>
       </c>
       <c r="F17" s="3">
-        <v>5987600</v>
+        <v>7458600</v>
       </c>
       <c r="G17" s="3">
-        <v>5043700</v>
+        <v>5785100</v>
       </c>
       <c r="H17" s="3">
-        <v>3729400</v>
+        <v>4873100</v>
       </c>
       <c r="I17" s="3">
-        <v>2455800</v>
+        <v>3603300</v>
       </c>
       <c r="J17" s="3">
+        <v>2372700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1440700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1009600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-330800</v>
+        <v>102500</v>
       </c>
       <c r="E18" s="3">
-        <v>-82400</v>
+        <v>-319600</v>
       </c>
       <c r="F18" s="3">
-        <v>-49700</v>
+        <v>-79600</v>
       </c>
       <c r="G18" s="3">
-        <v>-425700</v>
+        <v>-48000</v>
       </c>
       <c r="H18" s="3">
-        <v>-396300</v>
+        <v>-411300</v>
       </c>
       <c r="I18" s="3">
-        <v>-265300</v>
+        <v>-382900</v>
       </c>
       <c r="J18" s="3">
+        <v>-256400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-215700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-117200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,67 +1116,71 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-423400</v>
+        <v>212700</v>
       </c>
       <c r="E20" s="3">
-        <v>-22600</v>
+        <v>-409100</v>
       </c>
       <c r="F20" s="3">
-        <v>-145700</v>
+        <v>-21800</v>
       </c>
       <c r="G20" s="3">
-        <v>-962000</v>
+        <v>-140700</v>
       </c>
       <c r="H20" s="3">
-        <v>-207800</v>
+        <v>-929500</v>
       </c>
       <c r="I20" s="3">
-        <v>11300</v>
+        <v>-200700</v>
       </c>
       <c r="J20" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K20" s="3">
         <v>10200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>44300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-628600</v>
+        <v>455900</v>
       </c>
       <c r="E21" s="3">
-        <v>-6500</v>
+        <v>-605800</v>
       </c>
       <c r="F21" s="3">
-        <v>-159100</v>
+        <v>-5100</v>
       </c>
       <c r="G21" s="3">
-        <v>-1326600</v>
+        <v>-153300</v>
       </c>
       <c r="H21" s="3">
-        <v>-561100</v>
+        <v>-1280900</v>
       </c>
       <c r="I21" s="3">
-        <v>-220100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-541600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-212200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1155,26 +1191,29 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46300</v>
+        <v>43600</v>
       </c>
       <c r="E22" s="3">
-        <v>42900</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>44700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1191,81 +1230,90 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-800500</v>
+        <v>271600</v>
       </c>
       <c r="E23" s="3">
-        <v>-147900</v>
+        <v>-773500</v>
       </c>
       <c r="F23" s="3">
-        <v>-195300</v>
+        <v>-142900</v>
       </c>
       <c r="G23" s="3">
-        <v>-1392200</v>
+        <v>-188700</v>
       </c>
       <c r="H23" s="3">
-        <v>-604100</v>
+        <v>-1345100</v>
       </c>
       <c r="I23" s="3">
-        <v>-254000</v>
+        <v>-583600</v>
       </c>
       <c r="J23" s="3">
+        <v>-245500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-205500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-73000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-144500</v>
+        <v>308700</v>
       </c>
       <c r="E24" s="3">
-        <v>62100</v>
+        <v>-139600</v>
       </c>
       <c r="F24" s="3">
-        <v>-107300</v>
+        <v>60000</v>
       </c>
       <c r="G24" s="3">
-        <v>2300</v>
+        <v>-103600</v>
       </c>
       <c r="H24" s="3">
-        <v>4500</v>
+        <v>2200</v>
       </c>
       <c r="I24" s="3">
-        <v>5600</v>
+        <v>4400</v>
       </c>
       <c r="J24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K24" s="3">
         <v>6800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-656000</v>
+        <v>-37100</v>
       </c>
       <c r="E26" s="3">
-        <v>-210000</v>
+        <v>-633800</v>
       </c>
       <c r="F26" s="3">
-        <v>-88100</v>
+        <v>-202900</v>
       </c>
       <c r="G26" s="3">
-        <v>-1394400</v>
+        <v>-85100</v>
       </c>
       <c r="H26" s="3">
-        <v>-608600</v>
+        <v>-1347300</v>
       </c>
       <c r="I26" s="3">
-        <v>-259700</v>
+        <v>-588000</v>
       </c>
       <c r="J26" s="3">
+        <v>-250900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-212300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-75400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-656000</v>
+        <v>-37100</v>
       </c>
       <c r="E27" s="3">
-        <v>-210000</v>
+        <v>-633800</v>
       </c>
       <c r="F27" s="3">
-        <v>-88100</v>
+        <v>-202900</v>
       </c>
       <c r="G27" s="3">
-        <v>-1394400</v>
+        <v>-85100</v>
       </c>
       <c r="H27" s="3">
-        <v>-608600</v>
+        <v>-1347300</v>
       </c>
       <c r="I27" s="3">
-        <v>-259700</v>
+        <v>-588000</v>
       </c>
       <c r="J27" s="3">
+        <v>-250900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-212300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-75400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>423400</v>
+        <v>-212700</v>
       </c>
       <c r="E32" s="3">
-        <v>22600</v>
+        <v>409100</v>
       </c>
       <c r="F32" s="3">
-        <v>145700</v>
+        <v>21800</v>
       </c>
       <c r="G32" s="3">
-        <v>962000</v>
+        <v>140700</v>
       </c>
       <c r="H32" s="3">
-        <v>207800</v>
+        <v>929500</v>
       </c>
       <c r="I32" s="3">
-        <v>-11300</v>
+        <v>200700</v>
       </c>
       <c r="J32" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-44300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-656000</v>
+        <v>-37100</v>
       </c>
       <c r="E33" s="3">
-        <v>-210000</v>
+        <v>-633800</v>
       </c>
       <c r="F33" s="3">
-        <v>-88100</v>
+        <v>-202900</v>
       </c>
       <c r="G33" s="3">
-        <v>-1394400</v>
+        <v>-85100</v>
       </c>
       <c r="H33" s="3">
-        <v>-608600</v>
+        <v>-1347300</v>
       </c>
       <c r="I33" s="3">
-        <v>-259700</v>
+        <v>-588000</v>
       </c>
       <c r="J33" s="3">
+        <v>-250900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-212300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-75400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-656000</v>
+        <v>-37100</v>
       </c>
       <c r="E35" s="3">
-        <v>-210000</v>
+        <v>-633800</v>
       </c>
       <c r="F35" s="3">
-        <v>-88100</v>
+        <v>-202900</v>
       </c>
       <c r="G35" s="3">
-        <v>-1394400</v>
+        <v>-85100</v>
       </c>
       <c r="H35" s="3">
-        <v>-608600</v>
+        <v>-1347300</v>
       </c>
       <c r="I35" s="3">
-        <v>-259700</v>
+        <v>-588000</v>
       </c>
       <c r="J35" s="3">
+        <v>-250900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-212300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-75400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,64 +1818,68 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1299600</v>
+        <v>2993500</v>
       </c>
       <c r="E41" s="3">
-        <v>1202500</v>
+        <v>1255600</v>
       </c>
       <c r="F41" s="3">
-        <v>1006000</v>
+        <v>1161800</v>
       </c>
       <c r="G41" s="3">
-        <v>538600</v>
+        <v>972000</v>
       </c>
       <c r="H41" s="3">
-        <v>852500</v>
+        <v>520400</v>
       </c>
       <c r="I41" s="3">
-        <v>674100</v>
+        <v>823600</v>
       </c>
       <c r="J41" s="3">
+        <v>651300</v>
+      </c>
+      <c r="K41" s="3">
         <v>232600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>260800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>672900</v>
+        <v>824700</v>
       </c>
       <c r="E42" s="3">
-        <v>781300</v>
+        <v>650200</v>
       </c>
       <c r="F42" s="3">
-        <v>1033100</v>
+        <v>754900</v>
       </c>
       <c r="G42" s="3">
-        <v>1165200</v>
+        <v>998200</v>
       </c>
       <c r="H42" s="3">
-        <v>937200</v>
+        <v>1125800</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>905500</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -1798,38 +1887,41 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>528400</v>
+        <v>682900</v>
       </c>
       <c r="E43" s="3">
-        <v>458400</v>
+        <v>510500</v>
       </c>
       <c r="F43" s="3">
-        <v>453900</v>
+        <v>442900</v>
       </c>
       <c r="G43" s="3">
-        <v>406500</v>
+        <v>438500</v>
       </c>
       <c r="H43" s="3">
-        <v>345500</v>
+        <v>392700</v>
       </c>
       <c r="I43" s="3">
-        <v>278900</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>333800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>269500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1840,9 +1932,12 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,32 +1971,35 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>170500</v>
+        <v>268400</v>
       </c>
       <c r="E45" s="3">
-        <v>76800</v>
+        <v>164700</v>
       </c>
       <c r="F45" s="3">
-        <v>42900</v>
+        <v>74200</v>
       </c>
       <c r="G45" s="3">
-        <v>32700</v>
+        <v>41500</v>
       </c>
       <c r="H45" s="3">
-        <v>20300</v>
+        <v>31600</v>
       </c>
       <c r="I45" s="3">
-        <v>30500</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>19600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>29500</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1912,32 +2010,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2671500</v>
+        <v>4769500</v>
       </c>
       <c r="E46" s="3">
-        <v>2519000</v>
+        <v>2581100</v>
       </c>
       <c r="F46" s="3">
-        <v>2536000</v>
+        <v>2433800</v>
       </c>
       <c r="G46" s="3">
-        <v>2143000</v>
+        <v>2450200</v>
       </c>
       <c r="H46" s="3">
-        <v>2155500</v>
+        <v>2070500</v>
       </c>
       <c r="I46" s="3">
-        <v>983400</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>2082500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>950200</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1948,33 +2049,36 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2571000</v>
+        <v>999300</v>
       </c>
       <c r="E47" s="3">
-        <v>1690300</v>
+        <v>2484000</v>
       </c>
       <c r="F47" s="3">
-        <v>1858500</v>
+        <v>1633100</v>
       </c>
       <c r="G47" s="3">
-        <v>1028600</v>
+        <v>1795600</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>993800</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>1100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,32 +2088,35 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>854700</v>
+        <v>882500</v>
       </c>
       <c r="E48" s="3">
-        <v>880700</v>
+        <v>825800</v>
       </c>
       <c r="F48" s="3">
-        <v>222400</v>
+        <v>850900</v>
       </c>
       <c r="G48" s="3">
-        <v>82400</v>
+        <v>214900</v>
       </c>
       <c r="H48" s="3">
-        <v>96000</v>
+        <v>79600</v>
       </c>
       <c r="I48" s="3">
-        <v>91500</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>92700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>88400</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2020,32 +2127,35 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>940500</v>
+        <v>1072400</v>
       </c>
       <c r="E49" s="3">
-        <v>605200</v>
+        <v>908700</v>
       </c>
       <c r="F49" s="3">
-        <v>196500</v>
+        <v>584700</v>
       </c>
       <c r="G49" s="3">
-        <v>182900</v>
+        <v>189800</v>
       </c>
       <c r="H49" s="3">
-        <v>90300</v>
+        <v>176700</v>
       </c>
       <c r="I49" s="3">
-        <v>82400</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>87300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>79600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,32 +2244,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>105000</v>
+        <v>98200</v>
       </c>
       <c r="E52" s="3">
-        <v>88100</v>
+        <v>101500</v>
       </c>
       <c r="F52" s="3">
-        <v>82400</v>
+        <v>85100</v>
       </c>
       <c r="G52" s="3">
-        <v>71100</v>
+        <v>79600</v>
       </c>
       <c r="H52" s="3">
-        <v>29400</v>
+        <v>68700</v>
       </c>
       <c r="I52" s="3">
-        <v>28200</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>28400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>27300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7142700</v>
+        <v>7821800</v>
       </c>
       <c r="E54" s="3">
-        <v>5783300</v>
+        <v>6901100</v>
       </c>
       <c r="F54" s="3">
-        <v>4895800</v>
+        <v>5587600</v>
       </c>
       <c r="G54" s="3">
-        <v>3508100</v>
+        <v>4730200</v>
       </c>
       <c r="H54" s="3">
-        <v>2371100</v>
+        <v>3389500</v>
       </c>
       <c r="I54" s="3">
-        <v>1186700</v>
+        <v>2290900</v>
       </c>
       <c r="J54" s="3">
+        <v>1146500</v>
+      </c>
+      <c r="K54" s="3">
         <v>535200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>446200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,31 +2398,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>490000</v>
+        <v>582500</v>
       </c>
       <c r="E57" s="3">
-        <v>425700</v>
+        <v>473500</v>
       </c>
       <c r="F57" s="3">
-        <v>333100</v>
+        <v>411300</v>
       </c>
       <c r="G57" s="3">
-        <v>273200</v>
+        <v>321800</v>
       </c>
       <c r="H57" s="3">
-        <v>156900</v>
+        <v>264000</v>
       </c>
       <c r="I57" s="3">
-        <v>85800</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>151600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>82900</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2304,32 +2434,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>7900</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
-        <v>5600</v>
-      </c>
       <c r="I58" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>6500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2340,32 +2473,35 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2784400</v>
+        <v>2936700</v>
       </c>
       <c r="E59" s="3">
-        <v>2320300</v>
+        <v>2690200</v>
       </c>
       <c r="F59" s="3">
-        <v>2091100</v>
+        <v>2241800</v>
       </c>
       <c r="G59" s="3">
-        <v>1825800</v>
+        <v>2020400</v>
       </c>
       <c r="H59" s="3">
-        <v>1214900</v>
+        <v>1764000</v>
       </c>
       <c r="I59" s="3">
-        <v>808400</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>1173800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>781100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2376,32 +2512,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3274400</v>
+        <v>3519300</v>
       </c>
       <c r="E60" s="3">
-        <v>2753900</v>
+        <v>3163600</v>
       </c>
       <c r="F60" s="3">
-        <v>2424200</v>
+        <v>2660700</v>
       </c>
       <c r="G60" s="3">
-        <v>2100100</v>
+        <v>2342200</v>
       </c>
       <c r="H60" s="3">
-        <v>1377500</v>
+        <v>2029100</v>
       </c>
       <c r="I60" s="3">
-        <v>901000</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>1330900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>870500</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2412,32 +2551,35 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>651500</v>
+        <v>1942900</v>
       </c>
       <c r="E61" s="3">
-        <v>702300</v>
+        <v>629500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>678500</v>
       </c>
       <c r="G61" s="3">
-        <v>1065900</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>1249900</v>
+        <v>1029800</v>
       </c>
       <c r="I61" s="3">
-        <v>5600</v>
+        <v>1207600</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2448,32 +2590,35 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49700</v>
+        <v>48000</v>
       </c>
       <c r="E62" s="3">
-        <v>27100</v>
+        <v>48000</v>
       </c>
       <c r="F62" s="3">
-        <v>107300</v>
+        <v>26200</v>
       </c>
       <c r="G62" s="3">
-        <v>73400</v>
+        <v>103600</v>
       </c>
       <c r="H62" s="3">
-        <v>14700</v>
+        <v>70900</v>
       </c>
       <c r="I62" s="3">
-        <v>21500</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>14200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>20700</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,32 +2746,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3975600</v>
+        <v>5510200</v>
       </c>
       <c r="E66" s="3">
-        <v>3483300</v>
+        <v>3841100</v>
       </c>
       <c r="F66" s="3">
-        <v>2531400</v>
+        <v>3365500</v>
       </c>
       <c r="G66" s="3">
-        <v>3239400</v>
+        <v>2445800</v>
       </c>
       <c r="H66" s="3">
-        <v>2642100</v>
+        <v>3129800</v>
       </c>
       <c r="I66" s="3">
-        <v>928100</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>2552700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>896700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,32 +2958,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3714700</v>
+        <v>-3512700</v>
       </c>
       <c r="E72" s="3">
-        <v>-3058700</v>
+        <v>-3589100</v>
       </c>
       <c r="F72" s="3">
-        <v>-2828400</v>
+        <v>-2955300</v>
       </c>
       <c r="G72" s="3">
-        <v>-2740300</v>
+        <v>-2732700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1345900</v>
+        <v>-2647600</v>
       </c>
       <c r="I72" s="3">
-        <v>-737300</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-1300400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-712400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3167100</v>
+        <v>2311600</v>
       </c>
       <c r="E76" s="3">
-        <v>2300000</v>
+        <v>3060000</v>
       </c>
       <c r="F76" s="3">
-        <v>2364300</v>
+        <v>2222200</v>
       </c>
       <c r="G76" s="3">
-        <v>268700</v>
+        <v>2284400</v>
       </c>
       <c r="H76" s="3">
-        <v>-271000</v>
+        <v>259600</v>
       </c>
       <c r="I76" s="3">
-        <v>258600</v>
+        <v>-261800</v>
       </c>
       <c r="J76" s="3">
+        <v>249800</v>
+      </c>
+      <c r="K76" s="3">
         <v>40600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>112400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-656000</v>
+        <v>-37100</v>
       </c>
       <c r="E81" s="3">
-        <v>-210000</v>
+        <v>-633800</v>
       </c>
       <c r="F81" s="3">
-        <v>-88100</v>
+        <v>-202900</v>
       </c>
       <c r="G81" s="3">
-        <v>-1394400</v>
+        <v>-85100</v>
       </c>
       <c r="H81" s="3">
-        <v>-608600</v>
+        <v>-1347300</v>
       </c>
       <c r="I81" s="3">
-        <v>-259700</v>
+        <v>-588000</v>
       </c>
       <c r="J81" s="3">
+        <v>-250900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-212300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-75400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,31 +3295,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>125300</v>
+        <v>138500</v>
       </c>
       <c r="E83" s="3">
-        <v>98200</v>
+        <v>121100</v>
       </c>
       <c r="F83" s="3">
-        <v>36100</v>
+        <v>94900</v>
       </c>
       <c r="G83" s="3">
-        <v>61000</v>
+        <v>34900</v>
       </c>
       <c r="H83" s="3">
-        <v>42900</v>
+        <v>58900</v>
       </c>
       <c r="I83" s="3">
-        <v>33900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>41500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>32700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>292400</v>
+        <v>393800</v>
       </c>
       <c r="E89" s="3">
-        <v>647000</v>
+        <v>282500</v>
       </c>
       <c r="F89" s="3">
-        <v>388400</v>
+        <v>625100</v>
       </c>
       <c r="G89" s="3">
-        <v>202100</v>
+        <v>375300</v>
       </c>
       <c r="H89" s="3">
-        <v>114000</v>
+        <v>195300</v>
       </c>
       <c r="I89" s="3">
-        <v>-42900</v>
+        <v>110200</v>
       </c>
       <c r="J89" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-83600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-29900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-88100</v>
+        <v>-92700</v>
       </c>
       <c r="E91" s="3">
-        <v>-152400</v>
+        <v>-85100</v>
       </c>
       <c r="F91" s="3">
-        <v>-141100</v>
+        <v>-147300</v>
       </c>
       <c r="G91" s="3">
-        <v>-40600</v>
+        <v>-136400</v>
       </c>
       <c r="H91" s="3">
-        <v>-30500</v>
+        <v>-39300</v>
       </c>
       <c r="I91" s="3">
-        <v>-49700</v>
+        <v>-29500</v>
       </c>
       <c r="J91" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-18100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-420000</v>
+        <v>-204000</v>
       </c>
       <c r="E94" s="3">
-        <v>-246100</v>
+        <v>-405800</v>
       </c>
       <c r="F94" s="3">
-        <v>-24800</v>
+        <v>-237800</v>
       </c>
       <c r="G94" s="3">
-        <v>-491200</v>
+        <v>-24000</v>
       </c>
       <c r="H94" s="3">
-        <v>-933800</v>
+        <v>-474500</v>
       </c>
       <c r="I94" s="3">
-        <v>-75600</v>
+        <v>-902200</v>
       </c>
       <c r="J94" s="3">
+        <v>-73100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-23700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-49000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,68 +3911,74 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>321800</v>
+        <v>1363600</v>
       </c>
       <c r="E100" s="3">
-        <v>-229200</v>
+        <v>310900</v>
       </c>
       <c r="F100" s="3">
-        <v>103900</v>
+        <v>-221500</v>
       </c>
       <c r="G100" s="3">
-        <v>38400</v>
+        <v>100400</v>
       </c>
       <c r="H100" s="3">
-        <v>1034300</v>
+        <v>37100</v>
       </c>
       <c r="I100" s="3">
-        <v>537500</v>
+        <v>999300</v>
       </c>
       <c r="J100" s="3">
+        <v>519300</v>
+      </c>
+      <c r="K100" s="3">
         <v>73400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>147100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-97100</v>
+        <v>184400</v>
       </c>
       <c r="E101" s="3">
-        <v>24800</v>
+        <v>-93800</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="G101" s="3">
-        <v>-63200</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-36100</v>
+        <v>-61100</v>
       </c>
       <c r="I101" s="3">
-        <v>22600</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>-34900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>21800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3741,43 +3989,49 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>97100</v>
+        <v>1737800</v>
       </c>
       <c r="E102" s="3">
-        <v>196500</v>
+        <v>93800</v>
       </c>
       <c r="F102" s="3">
-        <v>467400</v>
+        <v>189800</v>
       </c>
       <c r="G102" s="3">
-        <v>-313900</v>
+        <v>451600</v>
       </c>
       <c r="H102" s="3">
-        <v>178400</v>
+        <v>-303300</v>
       </c>
       <c r="I102" s="3">
-        <v>441500</v>
+        <v>172400</v>
       </c>
       <c r="J102" s="3">
+        <v>426500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-33900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>68200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>10546900</v>
+        <v>10034400</v>
       </c>
       <c r="E8" s="3">
-        <v>8596400</v>
+        <v>8178700</v>
       </c>
       <c r="F8" s="3">
-        <v>7378900</v>
+        <v>7020400</v>
       </c>
       <c r="G8" s="3">
-        <v>5737100</v>
+        <v>5458300</v>
       </c>
       <c r="H8" s="3">
-        <v>4461800</v>
+        <v>4245000</v>
       </c>
       <c r="I8" s="3">
-        <v>3220400</v>
+        <v>3063900</v>
       </c>
       <c r="J8" s="3">
-        <v>2116400</v>
+        <v>2013500</v>
       </c>
       <c r="K8" s="3">
         <v>1225100</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7720400</v>
+        <v>7345200</v>
       </c>
       <c r="E9" s="3">
-        <v>6398200</v>
+        <v>6087300</v>
       </c>
       <c r="F9" s="3">
-        <v>5500400</v>
+        <v>5233100</v>
       </c>
       <c r="G9" s="3">
-        <v>4261100</v>
+        <v>4054000</v>
       </c>
       <c r="H9" s="3">
-        <v>3535600</v>
+        <v>3363800</v>
       </c>
       <c r="I9" s="3">
-        <v>2782900</v>
+        <v>2647700</v>
       </c>
       <c r="J9" s="3">
-        <v>1869800</v>
+        <v>1779000</v>
       </c>
       <c r="K9" s="3">
         <v>1028600</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2826500</v>
+        <v>2689200</v>
       </c>
       <c r="E10" s="3">
-        <v>2198200</v>
+        <v>2091400</v>
       </c>
       <c r="F10" s="3">
-        <v>1878500</v>
+        <v>1787300</v>
       </c>
       <c r="G10" s="3">
-        <v>1476000</v>
+        <v>1404300</v>
       </c>
       <c r="H10" s="3">
-        <v>926200</v>
+        <v>881200</v>
       </c>
       <c r="I10" s="3">
-        <v>437500</v>
+        <v>416200</v>
       </c>
       <c r="J10" s="3">
-        <v>246500</v>
+        <v>234600</v>
       </c>
       <c r="K10" s="3">
         <v>196500</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>967600</v>
+        <v>920600</v>
       </c>
       <c r="E12" s="3">
-        <v>893500</v>
+        <v>850000</v>
       </c>
       <c r="F12" s="3">
-        <v>655600</v>
+        <v>623800</v>
       </c>
       <c r="G12" s="3">
-        <v>537800</v>
+        <v>511700</v>
       </c>
       <c r="H12" s="3">
-        <v>432000</v>
+        <v>411000</v>
       </c>
       <c r="I12" s="3">
-        <v>225800</v>
+        <v>214800</v>
       </c>
       <c r="J12" s="3">
-        <v>148400</v>
+        <v>141200</v>
       </c>
       <c r="K12" s="3">
         <v>128700</v>
@@ -936,22 +936,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E14" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I14" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>27300</v>
+        <v>25900</v>
       </c>
       <c r="E15" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="F15" s="3">
-        <v>15300</v>
+        <v>14500</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10444400</v>
+        <v>9936900</v>
       </c>
       <c r="E17" s="3">
-        <v>8916000</v>
+        <v>8482800</v>
       </c>
       <c r="F17" s="3">
-        <v>7458600</v>
+        <v>7096100</v>
       </c>
       <c r="G17" s="3">
-        <v>5785100</v>
+        <v>5504000</v>
       </c>
       <c r="H17" s="3">
-        <v>4873100</v>
+        <v>4636300</v>
       </c>
       <c r="I17" s="3">
-        <v>3603300</v>
+        <v>3428200</v>
       </c>
       <c r="J17" s="3">
-        <v>2372700</v>
+        <v>2257400</v>
       </c>
       <c r="K17" s="3">
         <v>1440700</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>102500</v>
+        <v>97600</v>
       </c>
       <c r="E18" s="3">
-        <v>-319600</v>
+        <v>-304100</v>
       </c>
       <c r="F18" s="3">
-        <v>-79600</v>
+        <v>-75800</v>
       </c>
       <c r="G18" s="3">
-        <v>-48000</v>
+        <v>-45700</v>
       </c>
       <c r="H18" s="3">
-        <v>-411300</v>
+        <v>-391300</v>
       </c>
       <c r="I18" s="3">
-        <v>-382900</v>
+        <v>-364300</v>
       </c>
       <c r="J18" s="3">
-        <v>-256400</v>
+        <v>-243900</v>
       </c>
       <c r="K18" s="3">
         <v>-215700</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>212700</v>
+        <v>202400</v>
       </c>
       <c r="E20" s="3">
-        <v>-409100</v>
+        <v>-389200</v>
       </c>
       <c r="F20" s="3">
-        <v>-21800</v>
+        <v>-20800</v>
       </c>
       <c r="G20" s="3">
-        <v>-140700</v>
+        <v>-133900</v>
       </c>
       <c r="H20" s="3">
-        <v>-929500</v>
+        <v>-884300</v>
       </c>
       <c r="I20" s="3">
-        <v>-200700</v>
+        <v>-191000</v>
       </c>
       <c r="J20" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="K20" s="3">
         <v>10200</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>455900</v>
+        <v>433400</v>
       </c>
       <c r="E21" s="3">
-        <v>-605800</v>
+        <v>-576600</v>
       </c>
       <c r="F21" s="3">
         <v>-5100</v>
       </c>
       <c r="G21" s="3">
-        <v>-153300</v>
+        <v>-145900</v>
       </c>
       <c r="H21" s="3">
-        <v>-1280900</v>
+        <v>-1218800</v>
       </c>
       <c r="I21" s="3">
-        <v>-541600</v>
+        <v>-515300</v>
       </c>
       <c r="J21" s="3">
-        <v>-212200</v>
+        <v>-202000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1201,19 +1201,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>43600</v>
+        <v>41500</v>
       </c>
       <c r="E22" s="3">
-        <v>44700</v>
+        <v>42600</v>
       </c>
       <c r="F22" s="3">
-        <v>41500</v>
+        <v>39400</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>271600</v>
+        <v>258400</v>
       </c>
       <c r="E23" s="3">
-        <v>-773500</v>
+        <v>-735900</v>
       </c>
       <c r="F23" s="3">
-        <v>-142900</v>
+        <v>-136000</v>
       </c>
       <c r="G23" s="3">
-        <v>-188700</v>
+        <v>-179600</v>
       </c>
       <c r="H23" s="3">
-        <v>-1345100</v>
+        <v>-1279700</v>
       </c>
       <c r="I23" s="3">
-        <v>-583600</v>
+        <v>-555300</v>
       </c>
       <c r="J23" s="3">
-        <v>-245500</v>
+        <v>-233500</v>
       </c>
       <c r="K23" s="3">
         <v>-205500</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>308700</v>
+        <v>293700</v>
       </c>
       <c r="E24" s="3">
-        <v>-139600</v>
+        <v>-132900</v>
       </c>
       <c r="F24" s="3">
-        <v>60000</v>
+        <v>57100</v>
       </c>
       <c r="G24" s="3">
-        <v>-103600</v>
+        <v>-98600</v>
       </c>
       <c r="H24" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I24" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="J24" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="K24" s="3">
         <v>6800</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-37100</v>
+        <v>-35300</v>
       </c>
       <c r="E26" s="3">
-        <v>-633800</v>
+        <v>-603000</v>
       </c>
       <c r="F26" s="3">
-        <v>-202900</v>
+        <v>-193000</v>
       </c>
       <c r="G26" s="3">
-        <v>-85100</v>
+        <v>-81000</v>
       </c>
       <c r="H26" s="3">
-        <v>-1347300</v>
+        <v>-1281800</v>
       </c>
       <c r="I26" s="3">
-        <v>-588000</v>
+        <v>-559400</v>
       </c>
       <c r="J26" s="3">
-        <v>-250900</v>
+        <v>-238700</v>
       </c>
       <c r="K26" s="3">
         <v>-212300</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-37100</v>
+        <v>-35300</v>
       </c>
       <c r="E27" s="3">
-        <v>-633800</v>
+        <v>-603000</v>
       </c>
       <c r="F27" s="3">
-        <v>-202900</v>
+        <v>-193000</v>
       </c>
       <c r="G27" s="3">
-        <v>-85100</v>
+        <v>-81000</v>
       </c>
       <c r="H27" s="3">
-        <v>-1347300</v>
+        <v>-1281800</v>
       </c>
       <c r="I27" s="3">
-        <v>-588000</v>
+        <v>-559400</v>
       </c>
       <c r="J27" s="3">
-        <v>-250900</v>
+        <v>-238700</v>
       </c>
       <c r="K27" s="3">
         <v>-212300</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-212700</v>
+        <v>-202400</v>
       </c>
       <c r="E32" s="3">
-        <v>409100</v>
+        <v>389200</v>
       </c>
       <c r="F32" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="G32" s="3">
-        <v>140700</v>
+        <v>133900</v>
       </c>
       <c r="H32" s="3">
-        <v>929500</v>
+        <v>884300</v>
       </c>
       <c r="I32" s="3">
-        <v>200700</v>
+        <v>191000</v>
       </c>
       <c r="J32" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="K32" s="3">
         <v>-10200</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-37100</v>
+        <v>-35300</v>
       </c>
       <c r="E33" s="3">
-        <v>-633800</v>
+        <v>-603000</v>
       </c>
       <c r="F33" s="3">
-        <v>-202900</v>
+        <v>-193000</v>
       </c>
       <c r="G33" s="3">
-        <v>-85100</v>
+        <v>-81000</v>
       </c>
       <c r="H33" s="3">
-        <v>-1347300</v>
+        <v>-1281800</v>
       </c>
       <c r="I33" s="3">
-        <v>-588000</v>
+        <v>-559400</v>
       </c>
       <c r="J33" s="3">
-        <v>-250900</v>
+        <v>-238700</v>
       </c>
       <c r="K33" s="3">
         <v>-212300</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-37100</v>
+        <v>-35300</v>
       </c>
       <c r="E35" s="3">
-        <v>-633800</v>
+        <v>-603000</v>
       </c>
       <c r="F35" s="3">
-        <v>-202900</v>
+        <v>-193000</v>
       </c>
       <c r="G35" s="3">
-        <v>-85100</v>
+        <v>-81000</v>
       </c>
       <c r="H35" s="3">
-        <v>-1347300</v>
+        <v>-1281800</v>
       </c>
       <c r="I35" s="3">
-        <v>-588000</v>
+        <v>-559400</v>
       </c>
       <c r="J35" s="3">
-        <v>-250900</v>
+        <v>-238700</v>
       </c>
       <c r="K35" s="3">
         <v>-212300</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2993500</v>
+        <v>2848000</v>
       </c>
       <c r="E41" s="3">
-        <v>1255600</v>
+        <v>1194600</v>
       </c>
       <c r="F41" s="3">
-        <v>1161800</v>
+        <v>1105400</v>
       </c>
       <c r="G41" s="3">
-        <v>972000</v>
+        <v>924800</v>
       </c>
       <c r="H41" s="3">
-        <v>520400</v>
+        <v>495100</v>
       </c>
       <c r="I41" s="3">
-        <v>823600</v>
+        <v>783600</v>
       </c>
       <c r="J41" s="3">
-        <v>651300</v>
+        <v>619600</v>
       </c>
       <c r="K41" s="3">
         <v>232600</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>824700</v>
+        <v>784700</v>
       </c>
       <c r="E42" s="3">
-        <v>650200</v>
+        <v>618600</v>
       </c>
       <c r="F42" s="3">
-        <v>754900</v>
+        <v>718200</v>
       </c>
       <c r="G42" s="3">
-        <v>998200</v>
+        <v>949700</v>
       </c>
       <c r="H42" s="3">
-        <v>1125800</v>
+        <v>1071100</v>
       </c>
       <c r="I42" s="3">
-        <v>905500</v>
+        <v>861500</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>682900</v>
+        <v>649700</v>
       </c>
       <c r="E43" s="3">
-        <v>510500</v>
+        <v>485700</v>
       </c>
       <c r="F43" s="3">
-        <v>442900</v>
+        <v>421400</v>
       </c>
       <c r="G43" s="3">
-        <v>438500</v>
+        <v>417200</v>
       </c>
       <c r="H43" s="3">
-        <v>392700</v>
+        <v>373600</v>
       </c>
       <c r="I43" s="3">
-        <v>333800</v>
+        <v>317600</v>
       </c>
       <c r="J43" s="3">
-        <v>269500</v>
+        <v>256400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>268400</v>
+        <v>255300</v>
       </c>
       <c r="E45" s="3">
-        <v>164700</v>
+        <v>156700</v>
       </c>
       <c r="F45" s="3">
-        <v>74200</v>
+        <v>70600</v>
       </c>
       <c r="G45" s="3">
-        <v>41500</v>
+        <v>39400</v>
       </c>
       <c r="H45" s="3">
-        <v>31600</v>
+        <v>30100</v>
       </c>
       <c r="I45" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="J45" s="3">
-        <v>29500</v>
+        <v>28000</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4769500</v>
+        <v>4537700</v>
       </c>
       <c r="E46" s="3">
-        <v>2581100</v>
+        <v>2455700</v>
       </c>
       <c r="F46" s="3">
-        <v>2433800</v>
+        <v>2315600</v>
       </c>
       <c r="G46" s="3">
-        <v>2450200</v>
+        <v>2331100</v>
       </c>
       <c r="H46" s="3">
-        <v>2070500</v>
+        <v>1969900</v>
       </c>
       <c r="I46" s="3">
-        <v>2082500</v>
+        <v>1981400</v>
       </c>
       <c r="J46" s="3">
-        <v>950200</v>
+        <v>904000</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>999300</v>
+        <v>950700</v>
       </c>
       <c r="E47" s="3">
-        <v>2484000</v>
+        <v>2363300</v>
       </c>
       <c r="F47" s="3">
-        <v>1633100</v>
+        <v>1553700</v>
       </c>
       <c r="G47" s="3">
-        <v>1795600</v>
+        <v>1708400</v>
       </c>
       <c r="H47" s="3">
-        <v>993800</v>
+        <v>945500</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>882500</v>
+        <v>839700</v>
       </c>
       <c r="E48" s="3">
-        <v>825800</v>
+        <v>785700</v>
       </c>
       <c r="F48" s="3">
-        <v>850900</v>
+        <v>809600</v>
       </c>
       <c r="G48" s="3">
-        <v>214900</v>
+        <v>204500</v>
       </c>
       <c r="H48" s="3">
-        <v>79600</v>
+        <v>75800</v>
       </c>
       <c r="I48" s="3">
-        <v>92700</v>
+        <v>88200</v>
       </c>
       <c r="J48" s="3">
-        <v>88400</v>
+        <v>84100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1072400</v>
+        <v>1020300</v>
       </c>
       <c r="E49" s="3">
-        <v>908700</v>
+        <v>864600</v>
       </c>
       <c r="F49" s="3">
-        <v>584700</v>
+        <v>556300</v>
       </c>
       <c r="G49" s="3">
-        <v>189800</v>
+        <v>180600</v>
       </c>
       <c r="H49" s="3">
-        <v>176700</v>
+        <v>168100</v>
       </c>
       <c r="I49" s="3">
-        <v>87300</v>
+        <v>83000</v>
       </c>
       <c r="J49" s="3">
-        <v>79600</v>
+        <v>75800</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98200</v>
+        <v>93400</v>
       </c>
       <c r="E52" s="3">
-        <v>101500</v>
+        <v>96500</v>
       </c>
       <c r="F52" s="3">
-        <v>85100</v>
+        <v>81000</v>
       </c>
       <c r="G52" s="3">
-        <v>79600</v>
+        <v>75800</v>
       </c>
       <c r="H52" s="3">
-        <v>68700</v>
+        <v>65400</v>
       </c>
       <c r="I52" s="3">
-        <v>28400</v>
+        <v>27000</v>
       </c>
       <c r="J52" s="3">
-        <v>27300</v>
+        <v>25900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7821800</v>
+        <v>7441700</v>
       </c>
       <c r="E54" s="3">
-        <v>6901100</v>
+        <v>6565800</v>
       </c>
       <c r="F54" s="3">
-        <v>5587600</v>
+        <v>5316100</v>
       </c>
       <c r="G54" s="3">
-        <v>4730200</v>
+        <v>4500300</v>
       </c>
       <c r="H54" s="3">
-        <v>3389500</v>
+        <v>3224800</v>
       </c>
       <c r="I54" s="3">
-        <v>2290900</v>
+        <v>2179600</v>
       </c>
       <c r="J54" s="3">
-        <v>1146500</v>
+        <v>1090800</v>
       </c>
       <c r="K54" s="3">
         <v>535200</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>582500</v>
+        <v>554200</v>
       </c>
       <c r="E57" s="3">
-        <v>473500</v>
+        <v>450400</v>
       </c>
       <c r="F57" s="3">
-        <v>411300</v>
+        <v>391300</v>
       </c>
       <c r="G57" s="3">
-        <v>321800</v>
+        <v>306200</v>
       </c>
       <c r="H57" s="3">
-        <v>264000</v>
+        <v>251200</v>
       </c>
       <c r="I57" s="3">
-        <v>151600</v>
+        <v>144300</v>
       </c>
       <c r="J57" s="3">
-        <v>82900</v>
+        <v>78900</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2450,19 +2450,19 @@
         <v>3</v>
       </c>
       <c r="F58" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I58" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="J58" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2936700</v>
+        <v>2794000</v>
       </c>
       <c r="E59" s="3">
-        <v>2690200</v>
+        <v>2559500</v>
       </c>
       <c r="F59" s="3">
-        <v>2241800</v>
+        <v>2132900</v>
       </c>
       <c r="G59" s="3">
-        <v>2020400</v>
+        <v>1922200</v>
       </c>
       <c r="H59" s="3">
-        <v>1764000</v>
+        <v>1678300</v>
       </c>
       <c r="I59" s="3">
-        <v>1173800</v>
+        <v>1116800</v>
       </c>
       <c r="J59" s="3">
-        <v>781100</v>
+        <v>743100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3519300</v>
+        <v>3348300</v>
       </c>
       <c r="E60" s="3">
-        <v>3163600</v>
+        <v>3009900</v>
       </c>
       <c r="F60" s="3">
-        <v>2660700</v>
+        <v>2531400</v>
       </c>
       <c r="G60" s="3">
-        <v>2342200</v>
+        <v>2228400</v>
       </c>
       <c r="H60" s="3">
-        <v>2029100</v>
+        <v>1930500</v>
       </c>
       <c r="I60" s="3">
-        <v>1330900</v>
+        <v>1266200</v>
       </c>
       <c r="J60" s="3">
-        <v>870500</v>
+        <v>828200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1942900</v>
+        <v>1848500</v>
       </c>
       <c r="E61" s="3">
-        <v>629500</v>
+        <v>598900</v>
       </c>
       <c r="F61" s="3">
-        <v>678500</v>
+        <v>645600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>1029800</v>
+        <v>979800</v>
       </c>
       <c r="I61" s="3">
-        <v>1207600</v>
+        <v>1149000</v>
       </c>
       <c r="J61" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>48000</v>
+        <v>45700</v>
       </c>
       <c r="E62" s="3">
-        <v>48000</v>
+        <v>45700</v>
       </c>
       <c r="F62" s="3">
-        <v>26200</v>
+        <v>24900</v>
       </c>
       <c r="G62" s="3">
-        <v>103600</v>
+        <v>98600</v>
       </c>
       <c r="H62" s="3">
-        <v>70900</v>
+        <v>67500</v>
       </c>
       <c r="I62" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="J62" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5510200</v>
+        <v>5242400</v>
       </c>
       <c r="E66" s="3">
-        <v>3841100</v>
+        <v>3654400</v>
       </c>
       <c r="F66" s="3">
-        <v>3365500</v>
+        <v>3201900</v>
       </c>
       <c r="G66" s="3">
-        <v>2445800</v>
+        <v>2327000</v>
       </c>
       <c r="H66" s="3">
-        <v>3129800</v>
+        <v>2977700</v>
       </c>
       <c r="I66" s="3">
-        <v>2552700</v>
+        <v>2428700</v>
       </c>
       <c r="J66" s="3">
-        <v>896700</v>
+        <v>853200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3512700</v>
+        <v>-3342000</v>
       </c>
       <c r="E72" s="3">
-        <v>-3589100</v>
+        <v>-3414700</v>
       </c>
       <c r="F72" s="3">
-        <v>-2955300</v>
+        <v>-2811700</v>
       </c>
       <c r="G72" s="3">
-        <v>-2732700</v>
+        <v>-2599900</v>
       </c>
       <c r="H72" s="3">
-        <v>-2647600</v>
+        <v>-2519000</v>
       </c>
       <c r="I72" s="3">
-        <v>-1300400</v>
+        <v>-1237200</v>
       </c>
       <c r="J72" s="3">
-        <v>-712400</v>
+        <v>-677700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2311600</v>
+        <v>2199300</v>
       </c>
       <c r="E76" s="3">
-        <v>3060000</v>
+        <v>2911300</v>
       </c>
       <c r="F76" s="3">
-        <v>2222200</v>
+        <v>2114200</v>
       </c>
       <c r="G76" s="3">
-        <v>2284400</v>
+        <v>2173400</v>
       </c>
       <c r="H76" s="3">
-        <v>259600</v>
+        <v>247000</v>
       </c>
       <c r="I76" s="3">
-        <v>-261800</v>
+        <v>-249100</v>
       </c>
       <c r="J76" s="3">
-        <v>249800</v>
+        <v>237700</v>
       </c>
       <c r="K76" s="3">
         <v>40600</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-37100</v>
+        <v>-35300</v>
       </c>
       <c r="E81" s="3">
-        <v>-633800</v>
+        <v>-603000</v>
       </c>
       <c r="F81" s="3">
-        <v>-202900</v>
+        <v>-193000</v>
       </c>
       <c r="G81" s="3">
-        <v>-85100</v>
+        <v>-81000</v>
       </c>
       <c r="H81" s="3">
-        <v>-1347300</v>
+        <v>-1281800</v>
       </c>
       <c r="I81" s="3">
-        <v>-588000</v>
+        <v>-559400</v>
       </c>
       <c r="J81" s="3">
-        <v>-250900</v>
+        <v>-238700</v>
       </c>
       <c r="K81" s="3">
         <v>-212300</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>138500</v>
+        <v>131800</v>
       </c>
       <c r="E83" s="3">
-        <v>121100</v>
+        <v>115200</v>
       </c>
       <c r="F83" s="3">
-        <v>94900</v>
+        <v>90300</v>
       </c>
       <c r="G83" s="3">
-        <v>34900</v>
+        <v>33200</v>
       </c>
       <c r="H83" s="3">
-        <v>58900</v>
+        <v>56000</v>
       </c>
       <c r="I83" s="3">
-        <v>41500</v>
+        <v>39400</v>
       </c>
       <c r="J83" s="3">
-        <v>32700</v>
+        <v>31100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>393800</v>
+        <v>374700</v>
       </c>
       <c r="E89" s="3">
-        <v>282500</v>
+        <v>268800</v>
       </c>
       <c r="F89" s="3">
-        <v>625100</v>
+        <v>594700</v>
       </c>
       <c r="G89" s="3">
-        <v>375300</v>
+        <v>357000</v>
       </c>
       <c r="H89" s="3">
-        <v>195300</v>
+        <v>185800</v>
       </c>
       <c r="I89" s="3">
-        <v>110200</v>
+        <v>104800</v>
       </c>
       <c r="J89" s="3">
-        <v>-41500</v>
+        <v>-39400</v>
       </c>
       <c r="K89" s="3">
         <v>-83600</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-92700</v>
+        <v>-88200</v>
       </c>
       <c r="E91" s="3">
-        <v>-85100</v>
+        <v>-81000</v>
       </c>
       <c r="F91" s="3">
-        <v>-147300</v>
+        <v>-140100</v>
       </c>
       <c r="G91" s="3">
-        <v>-136400</v>
+        <v>-129700</v>
       </c>
       <c r="H91" s="3">
-        <v>-39300</v>
+        <v>-37400</v>
       </c>
       <c r="I91" s="3">
-        <v>-29500</v>
+        <v>-28000</v>
       </c>
       <c r="J91" s="3">
-        <v>-48000</v>
+        <v>-45700</v>
       </c>
       <c r="K91" s="3">
         <v>-18100</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-204000</v>
+        <v>-194100</v>
       </c>
       <c r="E94" s="3">
-        <v>-405800</v>
+        <v>-386100</v>
       </c>
       <c r="F94" s="3">
-        <v>-237800</v>
+        <v>-226300</v>
       </c>
       <c r="G94" s="3">
-        <v>-24000</v>
+        <v>-22800</v>
       </c>
       <c r="H94" s="3">
-        <v>-474500</v>
+        <v>-451500</v>
       </c>
       <c r="I94" s="3">
-        <v>-902200</v>
+        <v>-858300</v>
       </c>
       <c r="J94" s="3">
-        <v>-73100</v>
+        <v>-69500</v>
       </c>
       <c r="K94" s="3">
         <v>-23700</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1363600</v>
+        <v>1297400</v>
       </c>
       <c r="E100" s="3">
-        <v>310900</v>
+        <v>295800</v>
       </c>
       <c r="F100" s="3">
-        <v>-221500</v>
+        <v>-210700</v>
       </c>
       <c r="G100" s="3">
-        <v>100400</v>
+        <v>95500</v>
       </c>
       <c r="H100" s="3">
-        <v>37100</v>
+        <v>35300</v>
       </c>
       <c r="I100" s="3">
-        <v>999300</v>
+        <v>950700</v>
       </c>
       <c r="J100" s="3">
-        <v>519300</v>
+        <v>494000</v>
       </c>
       <c r="K100" s="3">
         <v>73400</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>184400</v>
+        <v>175400</v>
       </c>
       <c r="E101" s="3">
-        <v>-93800</v>
+        <v>-89300</v>
       </c>
       <c r="F101" s="3">
-        <v>24000</v>
+        <v>22800</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-61100</v>
+        <v>-58100</v>
       </c>
       <c r="I101" s="3">
-        <v>-34900</v>
+        <v>-33200</v>
       </c>
       <c r="J101" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1737800</v>
+        <v>1653400</v>
       </c>
       <c r="E102" s="3">
-        <v>93800</v>
+        <v>89300</v>
       </c>
       <c r="F102" s="3">
-        <v>189800</v>
+        <v>180600</v>
       </c>
       <c r="G102" s="3">
-        <v>451600</v>
+        <v>429700</v>
       </c>
       <c r="H102" s="3">
-        <v>-303300</v>
+        <v>-288500</v>
       </c>
       <c r="I102" s="3">
-        <v>172400</v>
+        <v>164000</v>
       </c>
       <c r="J102" s="3">
-        <v>426500</v>
+        <v>405800</v>
       </c>
       <c r="K102" s="3">
         <v>-33900</v>

--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>10034400</v>
+        <v>9642900</v>
       </c>
       <c r="E8" s="3">
-        <v>8178700</v>
+        <v>7859500</v>
       </c>
       <c r="F8" s="3">
-        <v>7020400</v>
+        <v>6746400</v>
       </c>
       <c r="G8" s="3">
-        <v>5458300</v>
+        <v>5245300</v>
       </c>
       <c r="H8" s="3">
-        <v>4245000</v>
+        <v>4079400</v>
       </c>
       <c r="I8" s="3">
-        <v>3063900</v>
+        <v>2944300</v>
       </c>
       <c r="J8" s="3">
-        <v>2013500</v>
+        <v>1935000</v>
       </c>
       <c r="K8" s="3">
         <v>1225100</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7345200</v>
+        <v>7058600</v>
       </c>
       <c r="E9" s="3">
-        <v>6087300</v>
+        <v>5849800</v>
       </c>
       <c r="F9" s="3">
-        <v>5233100</v>
+        <v>5028900</v>
       </c>
       <c r="G9" s="3">
-        <v>4054000</v>
+        <v>3895800</v>
       </c>
       <c r="H9" s="3">
-        <v>3363800</v>
+        <v>3232600</v>
       </c>
       <c r="I9" s="3">
-        <v>2647700</v>
+        <v>2544400</v>
       </c>
       <c r="J9" s="3">
-        <v>1779000</v>
+        <v>1709500</v>
       </c>
       <c r="K9" s="3">
         <v>1028600</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2689200</v>
+        <v>2584300</v>
       </c>
       <c r="E10" s="3">
-        <v>2091400</v>
+        <v>2009800</v>
       </c>
       <c r="F10" s="3">
-        <v>1787300</v>
+        <v>1717500</v>
       </c>
       <c r="G10" s="3">
-        <v>1404300</v>
+        <v>1349500</v>
       </c>
       <c r="H10" s="3">
-        <v>881200</v>
+        <v>846800</v>
       </c>
       <c r="I10" s="3">
-        <v>416200</v>
+        <v>400000</v>
       </c>
       <c r="J10" s="3">
-        <v>234600</v>
+        <v>225400</v>
       </c>
       <c r="K10" s="3">
         <v>196500</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>920600</v>
+        <v>884700</v>
       </c>
       <c r="E12" s="3">
-        <v>850000</v>
+        <v>816900</v>
       </c>
       <c r="F12" s="3">
-        <v>623800</v>
+        <v>599400</v>
       </c>
       <c r="G12" s="3">
-        <v>511700</v>
+        <v>491700</v>
       </c>
       <c r="H12" s="3">
-        <v>411000</v>
+        <v>395000</v>
       </c>
       <c r="I12" s="3">
-        <v>214800</v>
+        <v>206500</v>
       </c>
       <c r="J12" s="3">
-        <v>141200</v>
+        <v>135600</v>
       </c>
       <c r="K12" s="3">
         <v>128700</v>
@@ -936,10 +936,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -951,7 +951,7 @@
         <v>-1000</v>
       </c>
       <c r="I14" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>25900</v>
+        <v>24900</v>
       </c>
       <c r="E15" s="3">
-        <v>18700</v>
+        <v>18000</v>
       </c>
       <c r="F15" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9936900</v>
+        <v>9549100</v>
       </c>
       <c r="E17" s="3">
-        <v>8482800</v>
+        <v>8151800</v>
       </c>
       <c r="F17" s="3">
-        <v>7096100</v>
+        <v>6819200</v>
       </c>
       <c r="G17" s="3">
-        <v>5504000</v>
+        <v>5289200</v>
       </c>
       <c r="H17" s="3">
-        <v>4636300</v>
+        <v>4455400</v>
       </c>
       <c r="I17" s="3">
-        <v>3428200</v>
+        <v>3294400</v>
       </c>
       <c r="J17" s="3">
-        <v>2257400</v>
+        <v>2169300</v>
       </c>
       <c r="K17" s="3">
         <v>1440700</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>97600</v>
+        <v>93800</v>
       </c>
       <c r="E18" s="3">
-        <v>-304100</v>
+        <v>-292200</v>
       </c>
       <c r="F18" s="3">
-        <v>-75800</v>
+        <v>-72800</v>
       </c>
       <c r="G18" s="3">
-        <v>-45700</v>
+        <v>-43900</v>
       </c>
       <c r="H18" s="3">
-        <v>-391300</v>
+        <v>-376000</v>
       </c>
       <c r="I18" s="3">
-        <v>-364300</v>
+        <v>-350100</v>
       </c>
       <c r="J18" s="3">
-        <v>-243900</v>
+        <v>-234400</v>
       </c>
       <c r="K18" s="3">
         <v>-215700</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>202400</v>
+        <v>194500</v>
       </c>
       <c r="E20" s="3">
-        <v>-389200</v>
+        <v>-374000</v>
       </c>
       <c r="F20" s="3">
-        <v>-20800</v>
+        <v>-19900</v>
       </c>
       <c r="G20" s="3">
-        <v>-133900</v>
+        <v>-128700</v>
       </c>
       <c r="H20" s="3">
-        <v>-884300</v>
+        <v>-849800</v>
       </c>
       <c r="I20" s="3">
-        <v>-191000</v>
+        <v>-183500</v>
       </c>
       <c r="J20" s="3">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="K20" s="3">
         <v>10200</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>433400</v>
+        <v>414800</v>
       </c>
       <c r="E21" s="3">
-        <v>-576600</v>
+        <v>-555700</v>
       </c>
       <c r="F21" s="3">
-        <v>-5100</v>
+        <v>-6100</v>
       </c>
       <c r="G21" s="3">
-        <v>-145900</v>
+        <v>-140700</v>
       </c>
       <c r="H21" s="3">
-        <v>-1218800</v>
+        <v>-1172000</v>
       </c>
       <c r="I21" s="3">
-        <v>-515300</v>
+        <v>-495700</v>
       </c>
       <c r="J21" s="3">
-        <v>-202000</v>
+        <v>-194500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1201,19 +1201,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41500</v>
+        <v>39900</v>
       </c>
       <c r="E22" s="3">
-        <v>42600</v>
+        <v>40900</v>
       </c>
       <c r="F22" s="3">
-        <v>39400</v>
+        <v>37900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>258400</v>
+        <v>248400</v>
       </c>
       <c r="E23" s="3">
-        <v>-735900</v>
+        <v>-707200</v>
       </c>
       <c r="F23" s="3">
-        <v>-136000</v>
+        <v>-130700</v>
       </c>
       <c r="G23" s="3">
-        <v>-179600</v>
+        <v>-172600</v>
       </c>
       <c r="H23" s="3">
-        <v>-1279700</v>
+        <v>-1229800</v>
       </c>
       <c r="I23" s="3">
-        <v>-555300</v>
+        <v>-533600</v>
       </c>
       <c r="J23" s="3">
-        <v>-233500</v>
+        <v>-224400</v>
       </c>
       <c r="K23" s="3">
         <v>-205500</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>293700</v>
+        <v>282300</v>
       </c>
       <c r="E24" s="3">
-        <v>-132900</v>
+        <v>-127700</v>
       </c>
       <c r="F24" s="3">
-        <v>57100</v>
+        <v>54900</v>
       </c>
       <c r="G24" s="3">
-        <v>-98600</v>
+        <v>-94800</v>
       </c>
       <c r="H24" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I24" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="J24" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="K24" s="3">
         <v>6800</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-35300</v>
+        <v>-33900</v>
       </c>
       <c r="E26" s="3">
-        <v>-603000</v>
+        <v>-579500</v>
       </c>
       <c r="F26" s="3">
-        <v>-193000</v>
+        <v>-185500</v>
       </c>
       <c r="G26" s="3">
-        <v>-81000</v>
+        <v>-77800</v>
       </c>
       <c r="H26" s="3">
-        <v>-1281800</v>
+        <v>-1231800</v>
       </c>
       <c r="I26" s="3">
-        <v>-559400</v>
+        <v>-537600</v>
       </c>
       <c r="J26" s="3">
-        <v>-238700</v>
+        <v>-229400</v>
       </c>
       <c r="K26" s="3">
         <v>-212300</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35300</v>
+        <v>-33900</v>
       </c>
       <c r="E27" s="3">
-        <v>-603000</v>
+        <v>-579500</v>
       </c>
       <c r="F27" s="3">
-        <v>-193000</v>
+        <v>-185500</v>
       </c>
       <c r="G27" s="3">
-        <v>-81000</v>
+        <v>-77800</v>
       </c>
       <c r="H27" s="3">
-        <v>-1281800</v>
+        <v>-1231800</v>
       </c>
       <c r="I27" s="3">
-        <v>-559400</v>
+        <v>-537600</v>
       </c>
       <c r="J27" s="3">
-        <v>-238700</v>
+        <v>-229400</v>
       </c>
       <c r="K27" s="3">
         <v>-212300</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-202400</v>
+        <v>-194500</v>
       </c>
       <c r="E32" s="3">
-        <v>389200</v>
+        <v>374000</v>
       </c>
       <c r="F32" s="3">
-        <v>20800</v>
+        <v>19900</v>
       </c>
       <c r="G32" s="3">
-        <v>133900</v>
+        <v>128700</v>
       </c>
       <c r="H32" s="3">
-        <v>884300</v>
+        <v>849800</v>
       </c>
       <c r="I32" s="3">
-        <v>191000</v>
+        <v>183500</v>
       </c>
       <c r="J32" s="3">
-        <v>-10400</v>
+        <v>-10000</v>
       </c>
       <c r="K32" s="3">
         <v>-10200</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35300</v>
+        <v>-33900</v>
       </c>
       <c r="E33" s="3">
-        <v>-603000</v>
+        <v>-579500</v>
       </c>
       <c r="F33" s="3">
-        <v>-193000</v>
+        <v>-185500</v>
       </c>
       <c r="G33" s="3">
-        <v>-81000</v>
+        <v>-77800</v>
       </c>
       <c r="H33" s="3">
-        <v>-1281800</v>
+        <v>-1231800</v>
       </c>
       <c r="I33" s="3">
-        <v>-559400</v>
+        <v>-537600</v>
       </c>
       <c r="J33" s="3">
-        <v>-238700</v>
+        <v>-229400</v>
       </c>
       <c r="K33" s="3">
         <v>-212300</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35300</v>
+        <v>-33900</v>
       </c>
       <c r="E35" s="3">
-        <v>-603000</v>
+        <v>-579500</v>
       </c>
       <c r="F35" s="3">
-        <v>-193000</v>
+        <v>-185500</v>
       </c>
       <c r="G35" s="3">
-        <v>-81000</v>
+        <v>-77800</v>
       </c>
       <c r="H35" s="3">
-        <v>-1281800</v>
+        <v>-1231800</v>
       </c>
       <c r="I35" s="3">
-        <v>-559400</v>
+        <v>-537600</v>
       </c>
       <c r="J35" s="3">
-        <v>-238700</v>
+        <v>-229400</v>
       </c>
       <c r="K35" s="3">
         <v>-212300</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2848000</v>
+        <v>2736900</v>
       </c>
       <c r="E41" s="3">
-        <v>1194600</v>
+        <v>1148000</v>
       </c>
       <c r="F41" s="3">
-        <v>1105400</v>
+        <v>1062200</v>
       </c>
       <c r="G41" s="3">
-        <v>924800</v>
+        <v>888700</v>
       </c>
       <c r="H41" s="3">
-        <v>495100</v>
+        <v>475800</v>
       </c>
       <c r="I41" s="3">
-        <v>783600</v>
+        <v>753000</v>
       </c>
       <c r="J41" s="3">
-        <v>619600</v>
+        <v>595400</v>
       </c>
       <c r="K41" s="3">
         <v>232600</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>784700</v>
+        <v>754000</v>
       </c>
       <c r="E42" s="3">
-        <v>618600</v>
+        <v>594500</v>
       </c>
       <c r="F42" s="3">
-        <v>718200</v>
+        <v>690200</v>
       </c>
       <c r="G42" s="3">
-        <v>949700</v>
+        <v>912600</v>
       </c>
       <c r="H42" s="3">
-        <v>1071100</v>
+        <v>1029300</v>
       </c>
       <c r="I42" s="3">
-        <v>861500</v>
+        <v>827800</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>649700</v>
+        <v>624400</v>
       </c>
       <c r="E43" s="3">
-        <v>485700</v>
+        <v>466800</v>
       </c>
       <c r="F43" s="3">
-        <v>421400</v>
+        <v>404900</v>
       </c>
       <c r="G43" s="3">
-        <v>417200</v>
+        <v>401000</v>
       </c>
       <c r="H43" s="3">
-        <v>373600</v>
+        <v>359100</v>
       </c>
       <c r="I43" s="3">
-        <v>317600</v>
+        <v>305200</v>
       </c>
       <c r="J43" s="3">
-        <v>256400</v>
+        <v>246400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>255300</v>
+        <v>245400</v>
       </c>
       <c r="E45" s="3">
-        <v>156700</v>
+        <v>150600</v>
       </c>
       <c r="F45" s="3">
-        <v>70600</v>
+        <v>67800</v>
       </c>
       <c r="G45" s="3">
-        <v>39400</v>
+        <v>37900</v>
       </c>
       <c r="H45" s="3">
-        <v>30100</v>
+        <v>28900</v>
       </c>
       <c r="I45" s="3">
-        <v>18700</v>
+        <v>18000</v>
       </c>
       <c r="J45" s="3">
-        <v>28000</v>
+        <v>26900</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4537700</v>
+        <v>4360600</v>
       </c>
       <c r="E46" s="3">
-        <v>2455700</v>
+        <v>2359800</v>
       </c>
       <c r="F46" s="3">
-        <v>2315600</v>
+        <v>2225200</v>
       </c>
       <c r="G46" s="3">
-        <v>2331100</v>
+        <v>2240200</v>
       </c>
       <c r="H46" s="3">
-        <v>1969900</v>
+        <v>1893100</v>
       </c>
       <c r="I46" s="3">
-        <v>1981400</v>
+        <v>1904000</v>
       </c>
       <c r="J46" s="3">
-        <v>904000</v>
+        <v>868700</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,19 +2059,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>950700</v>
+        <v>913600</v>
       </c>
       <c r="E47" s="3">
-        <v>2363300</v>
+        <v>2271100</v>
       </c>
       <c r="F47" s="3">
-        <v>1553700</v>
+        <v>1493100</v>
       </c>
       <c r="G47" s="3">
-        <v>1708400</v>
+        <v>1641700</v>
       </c>
       <c r="H47" s="3">
-        <v>945500</v>
+        <v>908600</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>839700</v>
+        <v>806900</v>
       </c>
       <c r="E48" s="3">
-        <v>785700</v>
+        <v>755000</v>
       </c>
       <c r="F48" s="3">
-        <v>809600</v>
+        <v>778000</v>
       </c>
       <c r="G48" s="3">
-        <v>204500</v>
+        <v>196500</v>
       </c>
       <c r="H48" s="3">
-        <v>75800</v>
+        <v>72800</v>
       </c>
       <c r="I48" s="3">
-        <v>88200</v>
+        <v>84800</v>
       </c>
       <c r="J48" s="3">
-        <v>84100</v>
+        <v>80800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1020300</v>
+        <v>980400</v>
       </c>
       <c r="E49" s="3">
-        <v>864600</v>
+        <v>830800</v>
       </c>
       <c r="F49" s="3">
-        <v>556300</v>
+        <v>534600</v>
       </c>
       <c r="G49" s="3">
-        <v>180600</v>
+        <v>173500</v>
       </c>
       <c r="H49" s="3">
-        <v>168100</v>
+        <v>161600</v>
       </c>
       <c r="I49" s="3">
-        <v>83000</v>
+        <v>79800</v>
       </c>
       <c r="J49" s="3">
-        <v>75800</v>
+        <v>72800</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93400</v>
+        <v>89800</v>
       </c>
       <c r="E52" s="3">
-        <v>96500</v>
+        <v>92800</v>
       </c>
       <c r="F52" s="3">
-        <v>81000</v>
+        <v>77800</v>
       </c>
       <c r="G52" s="3">
-        <v>75800</v>
+        <v>72800</v>
       </c>
       <c r="H52" s="3">
-        <v>65400</v>
+        <v>62800</v>
       </c>
       <c r="I52" s="3">
-        <v>27000</v>
+        <v>25900</v>
       </c>
       <c r="J52" s="3">
-        <v>25900</v>
+        <v>24900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7441700</v>
+        <v>7151400</v>
       </c>
       <c r="E54" s="3">
-        <v>6565800</v>
+        <v>6309600</v>
       </c>
       <c r="F54" s="3">
-        <v>5316100</v>
+        <v>5108700</v>
       </c>
       <c r="G54" s="3">
-        <v>4500300</v>
+        <v>4324700</v>
       </c>
       <c r="H54" s="3">
-        <v>3224800</v>
+        <v>3098900</v>
       </c>
       <c r="I54" s="3">
-        <v>2179600</v>
+        <v>2094500</v>
       </c>
       <c r="J54" s="3">
-        <v>1090800</v>
+        <v>1048300</v>
       </c>
       <c r="K54" s="3">
         <v>535200</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>554200</v>
+        <v>532600</v>
       </c>
       <c r="E57" s="3">
-        <v>450400</v>
+        <v>432900</v>
       </c>
       <c r="F57" s="3">
-        <v>391300</v>
+        <v>376000</v>
       </c>
       <c r="G57" s="3">
-        <v>306200</v>
+        <v>294200</v>
       </c>
       <c r="H57" s="3">
-        <v>251200</v>
+        <v>241400</v>
       </c>
       <c r="I57" s="3">
-        <v>144300</v>
+        <v>138600</v>
       </c>
       <c r="J57" s="3">
-        <v>78900</v>
+        <v>75800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2450,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="F58" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2459,10 +2459,10 @@
         <v>1000</v>
       </c>
       <c r="I58" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="J58" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2794000</v>
+        <v>2685000</v>
       </c>
       <c r="E59" s="3">
-        <v>2559500</v>
+        <v>2459600</v>
       </c>
       <c r="F59" s="3">
-        <v>2132900</v>
+        <v>2049700</v>
       </c>
       <c r="G59" s="3">
-        <v>1922200</v>
+        <v>1847200</v>
       </c>
       <c r="H59" s="3">
-        <v>1678300</v>
+        <v>1612800</v>
       </c>
       <c r="I59" s="3">
-        <v>1116800</v>
+        <v>1073200</v>
       </c>
       <c r="J59" s="3">
-        <v>743100</v>
+        <v>714100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3348300</v>
+        <v>3217600</v>
       </c>
       <c r="E60" s="3">
-        <v>3009900</v>
+        <v>2892500</v>
       </c>
       <c r="F60" s="3">
-        <v>2531400</v>
+        <v>2432700</v>
       </c>
       <c r="G60" s="3">
-        <v>2228400</v>
+        <v>2141400</v>
       </c>
       <c r="H60" s="3">
-        <v>1930500</v>
+        <v>1855200</v>
       </c>
       <c r="I60" s="3">
-        <v>1266200</v>
+        <v>1216800</v>
       </c>
       <c r="J60" s="3">
-        <v>828200</v>
+        <v>795900</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1848500</v>
+        <v>1776400</v>
       </c>
       <c r="E61" s="3">
-        <v>598900</v>
+        <v>575500</v>
       </c>
       <c r="F61" s="3">
-        <v>645600</v>
+        <v>620400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>979800</v>
+        <v>941500</v>
       </c>
       <c r="I61" s="3">
-        <v>1149000</v>
+        <v>1104100</v>
       </c>
       <c r="J61" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>45700</v>
+        <v>43900</v>
       </c>
       <c r="E62" s="3">
-        <v>45700</v>
+        <v>43900</v>
       </c>
       <c r="F62" s="3">
-        <v>24900</v>
+        <v>23900</v>
       </c>
       <c r="G62" s="3">
-        <v>98600</v>
+        <v>94800</v>
       </c>
       <c r="H62" s="3">
-        <v>67500</v>
+        <v>64800</v>
       </c>
       <c r="I62" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="J62" s="3">
-        <v>19700</v>
+        <v>19000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5242400</v>
+        <v>5037900</v>
       </c>
       <c r="E66" s="3">
-        <v>3654400</v>
+        <v>3511800</v>
       </c>
       <c r="F66" s="3">
-        <v>3201900</v>
+        <v>3077000</v>
       </c>
       <c r="G66" s="3">
-        <v>2327000</v>
+        <v>2236200</v>
       </c>
       <c r="H66" s="3">
-        <v>2977700</v>
+        <v>2861500</v>
       </c>
       <c r="I66" s="3">
-        <v>2428700</v>
+        <v>2333900</v>
       </c>
       <c r="J66" s="3">
-        <v>853200</v>
+        <v>819900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3342000</v>
+        <v>-3211600</v>
       </c>
       <c r="E72" s="3">
-        <v>-3414700</v>
+        <v>-3281400</v>
       </c>
       <c r="F72" s="3">
-        <v>-2811700</v>
+        <v>-2702000</v>
       </c>
       <c r="G72" s="3">
-        <v>-2599900</v>
+        <v>-2498500</v>
       </c>
       <c r="H72" s="3">
-        <v>-2519000</v>
+        <v>-2420700</v>
       </c>
       <c r="I72" s="3">
-        <v>-1237200</v>
+        <v>-1188900</v>
       </c>
       <c r="J72" s="3">
-        <v>-677700</v>
+        <v>-651300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2199300</v>
+        <v>2113500</v>
       </c>
       <c r="E76" s="3">
-        <v>2911300</v>
+        <v>2797700</v>
       </c>
       <c r="F76" s="3">
-        <v>2114200</v>
+        <v>2031700</v>
       </c>
       <c r="G76" s="3">
-        <v>2173400</v>
+        <v>2088600</v>
       </c>
       <c r="H76" s="3">
-        <v>247000</v>
+        <v>237400</v>
       </c>
       <c r="I76" s="3">
-        <v>-249100</v>
+        <v>-239400</v>
       </c>
       <c r="J76" s="3">
-        <v>237700</v>
+        <v>228400</v>
       </c>
       <c r="K76" s="3">
         <v>40600</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35300</v>
+        <v>-33900</v>
       </c>
       <c r="E81" s="3">
-        <v>-603000</v>
+        <v>-579500</v>
       </c>
       <c r="F81" s="3">
-        <v>-193000</v>
+        <v>-185500</v>
       </c>
       <c r="G81" s="3">
-        <v>-81000</v>
+        <v>-77800</v>
       </c>
       <c r="H81" s="3">
-        <v>-1281800</v>
+        <v>-1231800</v>
       </c>
       <c r="I81" s="3">
-        <v>-559400</v>
+        <v>-537600</v>
       </c>
       <c r="J81" s="3">
-        <v>-238700</v>
+        <v>-229400</v>
       </c>
       <c r="K81" s="3">
         <v>-212300</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>131800</v>
+        <v>126700</v>
       </c>
       <c r="E83" s="3">
-        <v>115200</v>
+        <v>110700</v>
       </c>
       <c r="F83" s="3">
-        <v>90300</v>
+        <v>86800</v>
       </c>
       <c r="G83" s="3">
-        <v>33200</v>
+        <v>31900</v>
       </c>
       <c r="H83" s="3">
-        <v>56000</v>
+        <v>53900</v>
       </c>
       <c r="I83" s="3">
-        <v>39400</v>
+        <v>37900</v>
       </c>
       <c r="J83" s="3">
-        <v>31100</v>
+        <v>29900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>374700</v>
+        <v>360100</v>
       </c>
       <c r="E89" s="3">
-        <v>268800</v>
+        <v>258300</v>
       </c>
       <c r="F89" s="3">
-        <v>594700</v>
+        <v>571500</v>
       </c>
       <c r="G89" s="3">
-        <v>357000</v>
+        <v>343100</v>
       </c>
       <c r="H89" s="3">
-        <v>185800</v>
+        <v>178500</v>
       </c>
       <c r="I89" s="3">
-        <v>104800</v>
+        <v>100700</v>
       </c>
       <c r="J89" s="3">
-        <v>-39400</v>
+        <v>-37900</v>
       </c>
       <c r="K89" s="3">
         <v>-83600</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-88200</v>
+        <v>-84800</v>
       </c>
       <c r="E91" s="3">
-        <v>-81000</v>
+        <v>-77800</v>
       </c>
       <c r="F91" s="3">
-        <v>-140100</v>
+        <v>-134600</v>
       </c>
       <c r="G91" s="3">
-        <v>-129700</v>
+        <v>-124700</v>
       </c>
       <c r="H91" s="3">
-        <v>-37400</v>
+        <v>-35900</v>
       </c>
       <c r="I91" s="3">
-        <v>-28000</v>
+        <v>-26900</v>
       </c>
       <c r="J91" s="3">
-        <v>-45700</v>
+        <v>-43900</v>
       </c>
       <c r="K91" s="3">
         <v>-18100</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-194100</v>
+        <v>-186500</v>
       </c>
       <c r="E94" s="3">
-        <v>-386100</v>
+        <v>-371000</v>
       </c>
       <c r="F94" s="3">
-        <v>-226300</v>
+        <v>-217400</v>
       </c>
       <c r="G94" s="3">
-        <v>-22800</v>
+        <v>-21900</v>
       </c>
       <c r="H94" s="3">
-        <v>-451500</v>
+        <v>-433900</v>
       </c>
       <c r="I94" s="3">
-        <v>-858300</v>
+        <v>-824800</v>
       </c>
       <c r="J94" s="3">
-        <v>-69500</v>
+        <v>-66800</v>
       </c>
       <c r="K94" s="3">
         <v>-23700</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1297400</v>
+        <v>1246800</v>
       </c>
       <c r="E100" s="3">
-        <v>295800</v>
+        <v>284300</v>
       </c>
       <c r="F100" s="3">
-        <v>-210700</v>
+        <v>-202500</v>
       </c>
       <c r="G100" s="3">
-        <v>95500</v>
+        <v>91800</v>
       </c>
       <c r="H100" s="3">
-        <v>35300</v>
+        <v>33900</v>
       </c>
       <c r="I100" s="3">
-        <v>950700</v>
+        <v>913600</v>
       </c>
       <c r="J100" s="3">
-        <v>494000</v>
+        <v>474800</v>
       </c>
       <c r="K100" s="3">
         <v>73400</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>175400</v>
+        <v>168600</v>
       </c>
       <c r="E101" s="3">
-        <v>-89300</v>
+        <v>-85800</v>
       </c>
       <c r="F101" s="3">
-        <v>22800</v>
+        <v>21900</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-58100</v>
+        <v>-55900</v>
       </c>
       <c r="I101" s="3">
-        <v>-33200</v>
+        <v>-31900</v>
       </c>
       <c r="J101" s="3">
-        <v>20800</v>
+        <v>19900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1653400</v>
+        <v>1588900</v>
       </c>
       <c r="E102" s="3">
-        <v>89300</v>
+        <v>85800</v>
       </c>
       <c r="F102" s="3">
-        <v>180600</v>
+        <v>173500</v>
       </c>
       <c r="G102" s="3">
-        <v>429700</v>
+        <v>412900</v>
       </c>
       <c r="H102" s="3">
-        <v>-288500</v>
+        <v>-277300</v>
       </c>
       <c r="I102" s="3">
-        <v>164000</v>
+        <v>157600</v>
       </c>
       <c r="J102" s="3">
-        <v>405800</v>
+        <v>390000</v>
       </c>
       <c r="K102" s="3">
         <v>-33900</v>

--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>9642900</v>
+        <v>9869100</v>
       </c>
       <c r="E8" s="3">
-        <v>7859500</v>
+        <v>8043900</v>
       </c>
       <c r="F8" s="3">
-        <v>6746400</v>
+        <v>6904700</v>
       </c>
       <c r="G8" s="3">
-        <v>5245300</v>
+        <v>5368400</v>
       </c>
       <c r="H8" s="3">
-        <v>4079400</v>
+        <v>4175100</v>
       </c>
       <c r="I8" s="3">
-        <v>2944300</v>
+        <v>3013400</v>
       </c>
       <c r="J8" s="3">
-        <v>1935000</v>
+        <v>1980400</v>
       </c>
       <c r="K8" s="3">
         <v>1225100</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7058600</v>
+        <v>7224200</v>
       </c>
       <c r="E9" s="3">
-        <v>5849800</v>
+        <v>5987000</v>
       </c>
       <c r="F9" s="3">
-        <v>5028900</v>
+        <v>5146900</v>
       </c>
       <c r="G9" s="3">
-        <v>3895800</v>
+        <v>3987200</v>
       </c>
       <c r="H9" s="3">
-        <v>3232600</v>
+        <v>3308400</v>
       </c>
       <c r="I9" s="3">
-        <v>2544400</v>
+        <v>2604100</v>
       </c>
       <c r="J9" s="3">
-        <v>1709500</v>
+        <v>1749700</v>
       </c>
       <c r="K9" s="3">
         <v>1028600</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2584300</v>
+        <v>2644900</v>
       </c>
       <c r="E10" s="3">
-        <v>2009800</v>
+        <v>2056900</v>
       </c>
       <c r="F10" s="3">
-        <v>1717500</v>
+        <v>1757800</v>
       </c>
       <c r="G10" s="3">
-        <v>1349500</v>
+        <v>1381100</v>
       </c>
       <c r="H10" s="3">
-        <v>846800</v>
+        <v>866700</v>
       </c>
       <c r="I10" s="3">
-        <v>400000</v>
+        <v>409300</v>
       </c>
       <c r="J10" s="3">
-        <v>225400</v>
+        <v>230700</v>
       </c>
       <c r="K10" s="3">
         <v>196500</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>884700</v>
+        <v>905400</v>
       </c>
       <c r="E12" s="3">
-        <v>816900</v>
+        <v>836000</v>
       </c>
       <c r="F12" s="3">
-        <v>599400</v>
+        <v>613500</v>
       </c>
       <c r="G12" s="3">
-        <v>491700</v>
+        <v>503300</v>
       </c>
       <c r="H12" s="3">
-        <v>395000</v>
+        <v>404200</v>
       </c>
       <c r="I12" s="3">
-        <v>206500</v>
+        <v>211300</v>
       </c>
       <c r="J12" s="3">
-        <v>135600</v>
+        <v>138800</v>
       </c>
       <c r="K12" s="3">
         <v>128700</v>
@@ -936,10 +936,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E14" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -975,13 +975,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>24900</v>
+        <v>25500</v>
       </c>
       <c r="E15" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="F15" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9549100</v>
+        <v>9773100</v>
       </c>
       <c r="E17" s="3">
-        <v>8151800</v>
+        <v>8343000</v>
       </c>
       <c r="F17" s="3">
-        <v>6819200</v>
+        <v>6979200</v>
       </c>
       <c r="G17" s="3">
-        <v>5289200</v>
+        <v>5413300</v>
       </c>
       <c r="H17" s="3">
-        <v>4455400</v>
+        <v>4559900</v>
       </c>
       <c r="I17" s="3">
-        <v>3294400</v>
+        <v>3371700</v>
       </c>
       <c r="J17" s="3">
-        <v>2169300</v>
+        <v>2220200</v>
       </c>
       <c r="K17" s="3">
         <v>1440700</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>93800</v>
+        <v>96000</v>
       </c>
       <c r="E18" s="3">
-        <v>-292200</v>
+        <v>-299100</v>
       </c>
       <c r="F18" s="3">
-        <v>-72800</v>
+        <v>-74500</v>
       </c>
       <c r="G18" s="3">
-        <v>-43900</v>
+        <v>-44900</v>
       </c>
       <c r="H18" s="3">
-        <v>-376000</v>
+        <v>-384800</v>
       </c>
       <c r="I18" s="3">
-        <v>-350100</v>
+        <v>-358300</v>
       </c>
       <c r="J18" s="3">
-        <v>-234400</v>
+        <v>-239900</v>
       </c>
       <c r="K18" s="3">
         <v>-215700</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>194500</v>
+        <v>199100</v>
       </c>
       <c r="E20" s="3">
-        <v>-374000</v>
+        <v>-382800</v>
       </c>
       <c r="F20" s="3">
-        <v>-19900</v>
+        <v>-20400</v>
       </c>
       <c r="G20" s="3">
-        <v>-128700</v>
+        <v>-131700</v>
       </c>
       <c r="H20" s="3">
-        <v>-849800</v>
+        <v>-869700</v>
       </c>
       <c r="I20" s="3">
-        <v>-183500</v>
+        <v>-187800</v>
       </c>
       <c r="J20" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="K20" s="3">
         <v>10200</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>414800</v>
+        <v>422200</v>
       </c>
       <c r="E21" s="3">
-        <v>-555700</v>
+        <v>-570800</v>
       </c>
       <c r="F21" s="3">
-        <v>-6100</v>
+        <v>-7800</v>
       </c>
       <c r="G21" s="3">
-        <v>-140700</v>
+        <v>-144600</v>
       </c>
       <c r="H21" s="3">
-        <v>-1172000</v>
+        <v>-1200500</v>
       </c>
       <c r="I21" s="3">
-        <v>-495700</v>
+        <v>-508100</v>
       </c>
       <c r="J21" s="3">
-        <v>-194500</v>
+        <v>-199600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1201,19 +1201,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="E22" s="3">
-        <v>40900</v>
+        <v>41900</v>
       </c>
       <c r="F22" s="3">
-        <v>37900</v>
+        <v>38800</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>248400</v>
+        <v>254200</v>
       </c>
       <c r="E23" s="3">
-        <v>-707200</v>
+        <v>-723700</v>
       </c>
       <c r="F23" s="3">
-        <v>-130700</v>
+        <v>-133700</v>
       </c>
       <c r="G23" s="3">
-        <v>-172600</v>
+        <v>-176600</v>
       </c>
       <c r="H23" s="3">
-        <v>-1229800</v>
+        <v>-1258600</v>
       </c>
       <c r="I23" s="3">
-        <v>-533600</v>
+        <v>-546100</v>
       </c>
       <c r="J23" s="3">
-        <v>-224400</v>
+        <v>-229700</v>
       </c>
       <c r="K23" s="3">
         <v>-205500</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>282300</v>
+        <v>288900</v>
       </c>
       <c r="E24" s="3">
-        <v>-127700</v>
+        <v>-130700</v>
       </c>
       <c r="F24" s="3">
-        <v>54900</v>
+        <v>56100</v>
       </c>
       <c r="G24" s="3">
-        <v>-94800</v>
+        <v>-97000</v>
       </c>
       <c r="H24" s="3">
         <v>2000</v>
       </c>
       <c r="I24" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J24" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K24" s="3">
         <v>6800</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="E26" s="3">
-        <v>-579500</v>
+        <v>-593100</v>
       </c>
       <c r="F26" s="3">
-        <v>-185500</v>
+        <v>-189900</v>
       </c>
       <c r="G26" s="3">
-        <v>-77800</v>
+        <v>-79600</v>
       </c>
       <c r="H26" s="3">
-        <v>-1231800</v>
+        <v>-1260700</v>
       </c>
       <c r="I26" s="3">
-        <v>-537600</v>
+        <v>-550200</v>
       </c>
       <c r="J26" s="3">
-        <v>-229400</v>
+        <v>-234800</v>
       </c>
       <c r="K26" s="3">
         <v>-212300</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="E27" s="3">
-        <v>-579500</v>
+        <v>-593100</v>
       </c>
       <c r="F27" s="3">
-        <v>-185500</v>
+        <v>-189900</v>
       </c>
       <c r="G27" s="3">
-        <v>-77800</v>
+        <v>-79600</v>
       </c>
       <c r="H27" s="3">
-        <v>-1231800</v>
+        <v>-1260700</v>
       </c>
       <c r="I27" s="3">
-        <v>-537600</v>
+        <v>-550200</v>
       </c>
       <c r="J27" s="3">
-        <v>-229400</v>
+        <v>-234800</v>
       </c>
       <c r="K27" s="3">
         <v>-212300</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-194500</v>
+        <v>-199100</v>
       </c>
       <c r="E32" s="3">
-        <v>374000</v>
+        <v>382800</v>
       </c>
       <c r="F32" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="G32" s="3">
-        <v>128700</v>
+        <v>131700</v>
       </c>
       <c r="H32" s="3">
-        <v>849800</v>
+        <v>869700</v>
       </c>
       <c r="I32" s="3">
-        <v>183500</v>
+        <v>187800</v>
       </c>
       <c r="J32" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="K32" s="3">
         <v>-10200</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="E33" s="3">
-        <v>-579500</v>
+        <v>-593100</v>
       </c>
       <c r="F33" s="3">
-        <v>-185500</v>
+        <v>-189900</v>
       </c>
       <c r="G33" s="3">
-        <v>-77800</v>
+        <v>-79600</v>
       </c>
       <c r="H33" s="3">
-        <v>-1231800</v>
+        <v>-1260700</v>
       </c>
       <c r="I33" s="3">
-        <v>-537600</v>
+        <v>-550200</v>
       </c>
       <c r="J33" s="3">
-        <v>-229400</v>
+        <v>-234800</v>
       </c>
       <c r="K33" s="3">
         <v>-212300</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="E35" s="3">
-        <v>-579500</v>
+        <v>-593100</v>
       </c>
       <c r="F35" s="3">
-        <v>-185500</v>
+        <v>-189900</v>
       </c>
       <c r="G35" s="3">
-        <v>-77800</v>
+        <v>-79600</v>
       </c>
       <c r="H35" s="3">
-        <v>-1231800</v>
+        <v>-1260700</v>
       </c>
       <c r="I35" s="3">
-        <v>-537600</v>
+        <v>-550200</v>
       </c>
       <c r="J35" s="3">
-        <v>-229400</v>
+        <v>-234800</v>
       </c>
       <c r="K35" s="3">
         <v>-212300</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2736900</v>
+        <v>2801100</v>
       </c>
       <c r="E41" s="3">
-        <v>1148000</v>
+        <v>1174900</v>
       </c>
       <c r="F41" s="3">
-        <v>1062200</v>
+        <v>1087200</v>
       </c>
       <c r="G41" s="3">
-        <v>888700</v>
+        <v>909500</v>
       </c>
       <c r="H41" s="3">
-        <v>475800</v>
+        <v>486900</v>
       </c>
       <c r="I41" s="3">
-        <v>753000</v>
+        <v>770700</v>
       </c>
       <c r="J41" s="3">
-        <v>595400</v>
+        <v>609400</v>
       </c>
       <c r="K41" s="3">
         <v>232600</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>754000</v>
+        <v>771700</v>
       </c>
       <c r="E42" s="3">
-        <v>594500</v>
+        <v>608400</v>
       </c>
       <c r="F42" s="3">
-        <v>690200</v>
+        <v>706400</v>
       </c>
       <c r="G42" s="3">
-        <v>912600</v>
+        <v>934000</v>
       </c>
       <c r="H42" s="3">
-        <v>1029300</v>
+        <v>1053500</v>
       </c>
       <c r="I42" s="3">
-        <v>827800</v>
+        <v>847300</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>624400</v>
+        <v>639000</v>
       </c>
       <c r="E43" s="3">
-        <v>466800</v>
+        <v>477700</v>
       </c>
       <c r="F43" s="3">
-        <v>404900</v>
+        <v>414400</v>
       </c>
       <c r="G43" s="3">
-        <v>401000</v>
+        <v>410400</v>
       </c>
       <c r="H43" s="3">
-        <v>359100</v>
+        <v>367500</v>
       </c>
       <c r="I43" s="3">
-        <v>305200</v>
+        <v>312400</v>
       </c>
       <c r="J43" s="3">
-        <v>246400</v>
+        <v>252100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>245400</v>
+        <v>251100</v>
       </c>
       <c r="E45" s="3">
-        <v>150600</v>
+        <v>154100</v>
       </c>
       <c r="F45" s="3">
-        <v>67800</v>
+        <v>69400</v>
       </c>
       <c r="G45" s="3">
-        <v>37900</v>
+        <v>38800</v>
       </c>
       <c r="H45" s="3">
-        <v>28900</v>
+        <v>29600</v>
       </c>
       <c r="I45" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="J45" s="3">
-        <v>26900</v>
+        <v>27600</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4360600</v>
+        <v>4462900</v>
       </c>
       <c r="E46" s="3">
-        <v>2359800</v>
+        <v>2415200</v>
       </c>
       <c r="F46" s="3">
-        <v>2225200</v>
+        <v>2277400</v>
       </c>
       <c r="G46" s="3">
-        <v>2240200</v>
+        <v>2292700</v>
       </c>
       <c r="H46" s="3">
-        <v>1893100</v>
+        <v>1937500</v>
       </c>
       <c r="I46" s="3">
-        <v>1904000</v>
+        <v>1948700</v>
       </c>
       <c r="J46" s="3">
-        <v>868700</v>
+        <v>889100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,19 +2059,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>913600</v>
+        <v>935100</v>
       </c>
       <c r="E47" s="3">
-        <v>2271100</v>
+        <v>2324400</v>
       </c>
       <c r="F47" s="3">
-        <v>1493100</v>
+        <v>1528100</v>
       </c>
       <c r="G47" s="3">
-        <v>1641700</v>
+        <v>1680200</v>
       </c>
       <c r="H47" s="3">
-        <v>908600</v>
+        <v>929900</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>806900</v>
+        <v>825800</v>
       </c>
       <c r="E48" s="3">
-        <v>755000</v>
+        <v>772700</v>
       </c>
       <c r="F48" s="3">
-        <v>778000</v>
+        <v>796200</v>
       </c>
       <c r="G48" s="3">
-        <v>196500</v>
+        <v>201100</v>
       </c>
       <c r="H48" s="3">
-        <v>72800</v>
+        <v>74500</v>
       </c>
       <c r="I48" s="3">
-        <v>84800</v>
+        <v>86800</v>
       </c>
       <c r="J48" s="3">
-        <v>80800</v>
+        <v>82700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>980400</v>
+        <v>1003400</v>
       </c>
       <c r="E49" s="3">
-        <v>830800</v>
+        <v>850300</v>
       </c>
       <c r="F49" s="3">
-        <v>534600</v>
+        <v>547100</v>
       </c>
       <c r="G49" s="3">
-        <v>173500</v>
+        <v>177600</v>
       </c>
       <c r="H49" s="3">
-        <v>161600</v>
+        <v>165400</v>
       </c>
       <c r="I49" s="3">
-        <v>79800</v>
+        <v>81700</v>
       </c>
       <c r="J49" s="3">
-        <v>72800</v>
+        <v>74500</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>89800</v>
+        <v>91900</v>
       </c>
       <c r="E52" s="3">
-        <v>92800</v>
+        <v>94900</v>
       </c>
       <c r="F52" s="3">
-        <v>77800</v>
+        <v>79600</v>
       </c>
       <c r="G52" s="3">
-        <v>72800</v>
+        <v>74500</v>
       </c>
       <c r="H52" s="3">
-        <v>62800</v>
+        <v>64300</v>
       </c>
       <c r="I52" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="J52" s="3">
-        <v>24900</v>
+        <v>25500</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7151400</v>
+        <v>7319100</v>
       </c>
       <c r="E54" s="3">
-        <v>6309600</v>
+        <v>6457600</v>
       </c>
       <c r="F54" s="3">
-        <v>5108700</v>
+        <v>5228500</v>
       </c>
       <c r="G54" s="3">
-        <v>4324700</v>
+        <v>4426200</v>
       </c>
       <c r="H54" s="3">
-        <v>3098900</v>
+        <v>3171600</v>
       </c>
       <c r="I54" s="3">
-        <v>2094500</v>
+        <v>2143700</v>
       </c>
       <c r="J54" s="3">
-        <v>1048300</v>
+        <v>1072900</v>
       </c>
       <c r="K54" s="3">
         <v>535200</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>532600</v>
+        <v>545100</v>
       </c>
       <c r="E57" s="3">
-        <v>432900</v>
+        <v>443000</v>
       </c>
       <c r="F57" s="3">
-        <v>376000</v>
+        <v>384800</v>
       </c>
       <c r="G57" s="3">
-        <v>294200</v>
+        <v>301100</v>
       </c>
       <c r="H57" s="3">
-        <v>241400</v>
+        <v>247000</v>
       </c>
       <c r="I57" s="3">
-        <v>138600</v>
+        <v>141900</v>
       </c>
       <c r="J57" s="3">
-        <v>75800</v>
+        <v>77600</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2450,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="F58" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2459,10 +2459,10 @@
         <v>1000</v>
       </c>
       <c r="I58" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J58" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2685000</v>
+        <v>2748000</v>
       </c>
       <c r="E59" s="3">
-        <v>2459600</v>
+        <v>2517300</v>
       </c>
       <c r="F59" s="3">
-        <v>2049700</v>
+        <v>2097700</v>
       </c>
       <c r="G59" s="3">
-        <v>1847200</v>
+        <v>1890500</v>
       </c>
       <c r="H59" s="3">
-        <v>1612800</v>
+        <v>1650600</v>
       </c>
       <c r="I59" s="3">
-        <v>1073200</v>
+        <v>1098400</v>
       </c>
       <c r="J59" s="3">
-        <v>714100</v>
+        <v>730900</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3217600</v>
+        <v>3293100</v>
       </c>
       <c r="E60" s="3">
-        <v>2892500</v>
+        <v>2960300</v>
       </c>
       <c r="F60" s="3">
-        <v>2432700</v>
+        <v>2489700</v>
       </c>
       <c r="G60" s="3">
-        <v>2141400</v>
+        <v>2191700</v>
       </c>
       <c r="H60" s="3">
-        <v>1855200</v>
+        <v>1898700</v>
       </c>
       <c r="I60" s="3">
-        <v>1216800</v>
+        <v>1245400</v>
       </c>
       <c r="J60" s="3">
-        <v>795900</v>
+        <v>814600</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1776400</v>
+        <v>1818000</v>
       </c>
       <c r="E61" s="3">
-        <v>575500</v>
+        <v>589000</v>
       </c>
       <c r="F61" s="3">
-        <v>620400</v>
+        <v>634900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>941500</v>
+        <v>963600</v>
       </c>
       <c r="I61" s="3">
-        <v>1104100</v>
+        <v>1130000</v>
       </c>
       <c r="J61" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>43900</v>
+        <v>44900</v>
       </c>
       <c r="E62" s="3">
-        <v>43900</v>
+        <v>44900</v>
       </c>
       <c r="F62" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="G62" s="3">
-        <v>94800</v>
+        <v>97000</v>
       </c>
       <c r="H62" s="3">
-        <v>64800</v>
+        <v>66400</v>
       </c>
       <c r="I62" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="J62" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5037900</v>
+        <v>5156100</v>
       </c>
       <c r="E66" s="3">
-        <v>3511800</v>
+        <v>3594200</v>
       </c>
       <c r="F66" s="3">
-        <v>3077000</v>
+        <v>3149200</v>
       </c>
       <c r="G66" s="3">
-        <v>2236200</v>
+        <v>2288600</v>
       </c>
       <c r="H66" s="3">
-        <v>2861500</v>
+        <v>2928700</v>
       </c>
       <c r="I66" s="3">
-        <v>2333900</v>
+        <v>2388700</v>
       </c>
       <c r="J66" s="3">
-        <v>819900</v>
+        <v>839100</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3211600</v>
+        <v>-3287000</v>
       </c>
       <c r="E72" s="3">
-        <v>-3281400</v>
+        <v>-3358400</v>
       </c>
       <c r="F72" s="3">
-        <v>-2702000</v>
+        <v>-2765300</v>
       </c>
       <c r="G72" s="3">
-        <v>-2498500</v>
+        <v>-2557100</v>
       </c>
       <c r="H72" s="3">
-        <v>-2420700</v>
+        <v>-2477500</v>
       </c>
       <c r="I72" s="3">
-        <v>-1188900</v>
+        <v>-1216800</v>
       </c>
       <c r="J72" s="3">
-        <v>-651300</v>
+        <v>-666600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2113500</v>
+        <v>2163100</v>
       </c>
       <c r="E76" s="3">
-        <v>2797700</v>
+        <v>2863300</v>
       </c>
       <c r="F76" s="3">
-        <v>2031700</v>
+        <v>2079400</v>
       </c>
       <c r="G76" s="3">
-        <v>2088600</v>
+        <v>2137600</v>
       </c>
       <c r="H76" s="3">
-        <v>237400</v>
+        <v>243000</v>
       </c>
       <c r="I76" s="3">
-        <v>-239400</v>
+        <v>-245000</v>
       </c>
       <c r="J76" s="3">
-        <v>228400</v>
+        <v>233800</v>
       </c>
       <c r="K76" s="3">
         <v>40600</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="E81" s="3">
-        <v>-579500</v>
+        <v>-593100</v>
       </c>
       <c r="F81" s="3">
-        <v>-185500</v>
+        <v>-189900</v>
       </c>
       <c r="G81" s="3">
-        <v>-77800</v>
+        <v>-79600</v>
       </c>
       <c r="H81" s="3">
-        <v>-1231800</v>
+        <v>-1260700</v>
       </c>
       <c r="I81" s="3">
-        <v>-537600</v>
+        <v>-550200</v>
       </c>
       <c r="J81" s="3">
-        <v>-229400</v>
+        <v>-234800</v>
       </c>
       <c r="K81" s="3">
         <v>-212300</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>126700</v>
+        <v>129600</v>
       </c>
       <c r="E83" s="3">
-        <v>110700</v>
+        <v>113300</v>
       </c>
       <c r="F83" s="3">
-        <v>86800</v>
+        <v>88800</v>
       </c>
       <c r="G83" s="3">
-        <v>31900</v>
+        <v>32700</v>
       </c>
       <c r="H83" s="3">
-        <v>53900</v>
+        <v>55100</v>
       </c>
       <c r="I83" s="3">
-        <v>37900</v>
+        <v>38800</v>
       </c>
       <c r="J83" s="3">
-        <v>29900</v>
+        <v>30600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>360100</v>
+        <v>368500</v>
       </c>
       <c r="E89" s="3">
-        <v>258300</v>
+        <v>264400</v>
       </c>
       <c r="F89" s="3">
-        <v>571500</v>
+        <v>584900</v>
       </c>
       <c r="G89" s="3">
-        <v>343100</v>
+        <v>351200</v>
       </c>
       <c r="H89" s="3">
-        <v>178500</v>
+        <v>182700</v>
       </c>
       <c r="I89" s="3">
-        <v>100700</v>
+        <v>103100</v>
       </c>
       <c r="J89" s="3">
-        <v>-37900</v>
+        <v>-38800</v>
       </c>
       <c r="K89" s="3">
         <v>-83600</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-84800</v>
+        <v>-86800</v>
       </c>
       <c r="E91" s="3">
-        <v>-77800</v>
+        <v>-79600</v>
       </c>
       <c r="F91" s="3">
-        <v>-134600</v>
+        <v>-137800</v>
       </c>
       <c r="G91" s="3">
-        <v>-124700</v>
+        <v>-127600</v>
       </c>
       <c r="H91" s="3">
-        <v>-35900</v>
+        <v>-36700</v>
       </c>
       <c r="I91" s="3">
-        <v>-26900</v>
+        <v>-27600</v>
       </c>
       <c r="J91" s="3">
-        <v>-43900</v>
+        <v>-44900</v>
       </c>
       <c r="K91" s="3">
         <v>-18100</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-186500</v>
+        <v>-190900</v>
       </c>
       <c r="E94" s="3">
-        <v>-371000</v>
+        <v>-379700</v>
       </c>
       <c r="F94" s="3">
-        <v>-217400</v>
+        <v>-222500</v>
       </c>
       <c r="G94" s="3">
-        <v>-21900</v>
+        <v>-22500</v>
       </c>
       <c r="H94" s="3">
-        <v>-433900</v>
+        <v>-444000</v>
       </c>
       <c r="I94" s="3">
-        <v>-824800</v>
+        <v>-844200</v>
       </c>
       <c r="J94" s="3">
-        <v>-66800</v>
+        <v>-68400</v>
       </c>
       <c r="K94" s="3">
         <v>-23700</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1246800</v>
+        <v>1276000</v>
       </c>
       <c r="E100" s="3">
-        <v>284300</v>
+        <v>290900</v>
       </c>
       <c r="F100" s="3">
-        <v>-202500</v>
+        <v>-207200</v>
       </c>
       <c r="G100" s="3">
-        <v>91800</v>
+        <v>93900</v>
       </c>
       <c r="H100" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="I100" s="3">
-        <v>913600</v>
+        <v>935100</v>
       </c>
       <c r="J100" s="3">
-        <v>474800</v>
+        <v>485900</v>
       </c>
       <c r="K100" s="3">
         <v>73400</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>168600</v>
+        <v>172500</v>
       </c>
       <c r="E101" s="3">
-        <v>-85800</v>
+        <v>-87800</v>
       </c>
       <c r="F101" s="3">
-        <v>21900</v>
+        <v>22500</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-55900</v>
+        <v>-57200</v>
       </c>
       <c r="I101" s="3">
-        <v>-31900</v>
+        <v>-32700</v>
       </c>
       <c r="J101" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1588900</v>
+        <v>1626100</v>
       </c>
       <c r="E102" s="3">
-        <v>85800</v>
+        <v>87800</v>
       </c>
       <c r="F102" s="3">
-        <v>173500</v>
+        <v>177600</v>
       </c>
       <c r="G102" s="3">
-        <v>412900</v>
+        <v>422600</v>
       </c>
       <c r="H102" s="3">
-        <v>-277300</v>
+        <v>-283800</v>
       </c>
       <c r="I102" s="3">
-        <v>157600</v>
+        <v>161300</v>
       </c>
       <c r="J102" s="3">
-        <v>390000</v>
+        <v>399100</v>
       </c>
       <c r="K102" s="3">
         <v>-33900</v>

--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>SPOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>9869100</v>
+        <v>12407200</v>
       </c>
       <c r="E8" s="3">
-        <v>8043900</v>
+        <v>10228700</v>
       </c>
       <c r="F8" s="3">
-        <v>6904700</v>
+        <v>8337000</v>
       </c>
       <c r="G8" s="3">
-        <v>5368400</v>
+        <v>7156300</v>
       </c>
       <c r="H8" s="3">
-        <v>4175100</v>
+        <v>5564000</v>
       </c>
       <c r="I8" s="3">
-        <v>3013400</v>
+        <v>4327200</v>
       </c>
       <c r="J8" s="3">
+        <v>3123200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1980400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1225100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>892400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7224200</v>
+        <v>9311500</v>
       </c>
       <c r="E9" s="3">
-        <v>5987000</v>
+        <v>7487500</v>
       </c>
       <c r="F9" s="3">
-        <v>5146900</v>
+        <v>6205200</v>
       </c>
       <c r="G9" s="3">
-        <v>3987200</v>
+        <v>5334400</v>
       </c>
       <c r="H9" s="3">
-        <v>3308400</v>
+        <v>4132500</v>
       </c>
       <c r="I9" s="3">
-        <v>2604100</v>
+        <v>3429000</v>
       </c>
       <c r="J9" s="3">
+        <v>2699000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1749700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1028600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>739300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2644900</v>
+        <v>3095700</v>
       </c>
       <c r="E10" s="3">
-        <v>2056900</v>
+        <v>2741300</v>
       </c>
       <c r="F10" s="3">
-        <v>1757800</v>
+        <v>2131900</v>
       </c>
       <c r="G10" s="3">
-        <v>1381100</v>
+        <v>1821900</v>
       </c>
       <c r="H10" s="3">
-        <v>866700</v>
+        <v>1431500</v>
       </c>
       <c r="I10" s="3">
-        <v>409300</v>
+        <v>898200</v>
       </c>
       <c r="J10" s="3">
+        <v>424300</v>
+      </c>
+      <c r="K10" s="3">
         <v>230700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>196500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>153100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,47 +864,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>905400</v>
+        <v>1425100</v>
       </c>
       <c r="E12" s="3">
-        <v>836000</v>
+        <v>938400</v>
       </c>
       <c r="F12" s="3">
-        <v>613500</v>
+        <v>866500</v>
       </c>
       <c r="G12" s="3">
-        <v>503300</v>
+        <v>635900</v>
       </c>
       <c r="H12" s="3">
-        <v>404200</v>
+        <v>521600</v>
       </c>
       <c r="I12" s="3">
-        <v>211300</v>
+        <v>419000</v>
       </c>
       <c r="J12" s="3">
+        <v>219000</v>
+      </c>
+      <c r="K12" s="3">
         <v>138800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>128700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>87300</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,38 +945,41 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3100</v>
+        <v>2100</v>
       </c>
       <c r="E14" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1000</v>
+        <v>3200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>-1000</v>
+        <v>1100</v>
       </c>
       <c r="I14" s="3">
-        <v>2000</v>
+        <v>-1100</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -968,23 +987,26 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>25500</v>
+        <v>42300</v>
       </c>
       <c r="E15" s="3">
-        <v>18400</v>
+        <v>26500</v>
       </c>
       <c r="F15" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>19000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>14800</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -1001,15 +1023,18 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9773100</v>
+        <v>13104400</v>
       </c>
       <c r="E17" s="3">
-        <v>8343000</v>
+        <v>10129300</v>
       </c>
       <c r="F17" s="3">
-        <v>6979200</v>
+        <v>8647000</v>
       </c>
       <c r="G17" s="3">
-        <v>5413300</v>
+        <v>7233500</v>
       </c>
       <c r="H17" s="3">
-        <v>4559900</v>
+        <v>5610600</v>
       </c>
       <c r="I17" s="3">
-        <v>3371700</v>
+        <v>4726100</v>
       </c>
       <c r="J17" s="3">
+        <v>3494600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2220200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1440700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1009600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>96000</v>
+        <v>-697200</v>
       </c>
       <c r="E18" s="3">
-        <v>-299100</v>
+        <v>99500</v>
       </c>
       <c r="F18" s="3">
-        <v>-74500</v>
+        <v>-310000</v>
       </c>
       <c r="G18" s="3">
-        <v>-44900</v>
+        <v>-77200</v>
       </c>
       <c r="H18" s="3">
-        <v>-384800</v>
+        <v>-46600</v>
       </c>
       <c r="I18" s="3">
-        <v>-358300</v>
+        <v>-398900</v>
       </c>
       <c r="J18" s="3">
+        <v>-371400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-239900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-215700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-117200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,74 +1149,78 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>199100</v>
+        <v>349100</v>
       </c>
       <c r="E20" s="3">
-        <v>-382800</v>
+        <v>206300</v>
       </c>
       <c r="F20" s="3">
-        <v>-20400</v>
+        <v>-396800</v>
       </c>
       <c r="G20" s="3">
-        <v>-131700</v>
+        <v>-21200</v>
       </c>
       <c r="H20" s="3">
-        <v>-869700</v>
+        <v>-136500</v>
       </c>
       <c r="I20" s="3">
-        <v>-187800</v>
+        <v>-901400</v>
       </c>
       <c r="J20" s="3">
-        <v>10200</v>
+        <v>-194700</v>
       </c>
       <c r="K20" s="3">
         <v>10200</v>
       </c>
       <c r="L20" s="3">
+        <v>10200</v>
+      </c>
+      <c r="M20" s="3">
         <v>44300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>422200</v>
+        <v>-167800</v>
       </c>
       <c r="E21" s="3">
-        <v>-570800</v>
+        <v>439700</v>
       </c>
       <c r="F21" s="3">
-        <v>-7800</v>
+        <v>-589700</v>
       </c>
       <c r="G21" s="3">
-        <v>-144600</v>
+        <v>-6700</v>
       </c>
       <c r="H21" s="3">
-        <v>-1200500</v>
+        <v>-149300</v>
       </c>
       <c r="I21" s="3">
-        <v>-508100</v>
+        <v>-1243300</v>
       </c>
       <c r="J21" s="3">
+        <v>-526000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-199600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1194,29 +1230,32 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40800</v>
+        <v>43400</v>
       </c>
       <c r="E22" s="3">
-        <v>41900</v>
+        <v>42300</v>
       </c>
       <c r="F22" s="3">
-        <v>38800</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>43400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>40200</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4200</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1233,87 +1272,96 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>254200</v>
+        <v>-391500</v>
       </c>
       <c r="E23" s="3">
-        <v>-723700</v>
+        <v>263400</v>
       </c>
       <c r="F23" s="3">
-        <v>-133700</v>
+        <v>-750100</v>
       </c>
       <c r="G23" s="3">
-        <v>-176600</v>
+        <v>-138600</v>
       </c>
       <c r="H23" s="3">
-        <v>-1258600</v>
+        <v>-183000</v>
       </c>
       <c r="I23" s="3">
-        <v>-546100</v>
+        <v>-1304500</v>
       </c>
       <c r="J23" s="3">
+        <v>-566000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-229700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-205500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-73000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>288900</v>
+        <v>63500</v>
       </c>
       <c r="E24" s="3">
-        <v>-130700</v>
+        <v>299400</v>
       </c>
       <c r="F24" s="3">
-        <v>56100</v>
+        <v>-135400</v>
       </c>
       <c r="G24" s="3">
-        <v>-97000</v>
+        <v>58200</v>
       </c>
       <c r="H24" s="3">
-        <v>2000</v>
+        <v>-100500</v>
       </c>
       <c r="I24" s="3">
-        <v>4100</v>
+        <v>2100</v>
       </c>
       <c r="J24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K24" s="3">
         <v>5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-34700</v>
+        <v>-454900</v>
       </c>
       <c r="E26" s="3">
-        <v>-593100</v>
+        <v>-36000</v>
       </c>
       <c r="F26" s="3">
-        <v>-189900</v>
+        <v>-614700</v>
       </c>
       <c r="G26" s="3">
-        <v>-79600</v>
+        <v>-196800</v>
       </c>
       <c r="H26" s="3">
-        <v>-1260700</v>
+        <v>-82500</v>
       </c>
       <c r="I26" s="3">
-        <v>-550200</v>
+        <v>-1306600</v>
       </c>
       <c r="J26" s="3">
+        <v>-570300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-234800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-212300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-75400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-34700</v>
+        <v>-454900</v>
       </c>
       <c r="E27" s="3">
-        <v>-593100</v>
+        <v>-36000</v>
       </c>
       <c r="F27" s="3">
-        <v>-189900</v>
+        <v>-614700</v>
       </c>
       <c r="G27" s="3">
-        <v>-79600</v>
+        <v>-196800</v>
       </c>
       <c r="H27" s="3">
-        <v>-1260700</v>
+        <v>-82500</v>
       </c>
       <c r="I27" s="3">
-        <v>-550200</v>
+        <v>-1306600</v>
       </c>
       <c r="J27" s="3">
+        <v>-570300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-234800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-212300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-75400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-199100</v>
+        <v>-349100</v>
       </c>
       <c r="E32" s="3">
-        <v>382800</v>
+        <v>-206300</v>
       </c>
       <c r="F32" s="3">
-        <v>20400</v>
+        <v>396800</v>
       </c>
       <c r="G32" s="3">
-        <v>131700</v>
+        <v>21200</v>
       </c>
       <c r="H32" s="3">
-        <v>869700</v>
+        <v>136500</v>
       </c>
       <c r="I32" s="3">
-        <v>187800</v>
+        <v>901400</v>
       </c>
       <c r="J32" s="3">
-        <v>-10200</v>
+        <v>194700</v>
       </c>
       <c r="K32" s="3">
         <v>-10200</v>
       </c>
       <c r="L32" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-44300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34700</v>
+        <v>-454900</v>
       </c>
       <c r="E33" s="3">
-        <v>-593100</v>
+        <v>-36000</v>
       </c>
       <c r="F33" s="3">
-        <v>-189900</v>
+        <v>-614700</v>
       </c>
       <c r="G33" s="3">
-        <v>-79600</v>
+        <v>-196800</v>
       </c>
       <c r="H33" s="3">
-        <v>-1260700</v>
+        <v>-82500</v>
       </c>
       <c r="I33" s="3">
-        <v>-550200</v>
+        <v>-1306600</v>
       </c>
       <c r="J33" s="3">
+        <v>-570300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-234800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-212300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-75400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34700</v>
+        <v>-454900</v>
       </c>
       <c r="E35" s="3">
-        <v>-593100</v>
+        <v>-36000</v>
       </c>
       <c r="F35" s="3">
-        <v>-189900</v>
+        <v>-614700</v>
       </c>
       <c r="G35" s="3">
-        <v>-79600</v>
+        <v>-196800</v>
       </c>
       <c r="H35" s="3">
-        <v>-1260700</v>
+        <v>-82500</v>
       </c>
       <c r="I35" s="3">
-        <v>-550200</v>
+        <v>-1306600</v>
       </c>
       <c r="J35" s="3">
+        <v>-570300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-234800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-212300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-75400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,70 +1904,74 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2801100</v>
+        <v>2627000</v>
       </c>
       <c r="E41" s="3">
-        <v>1174900</v>
+        <v>2903200</v>
       </c>
       <c r="F41" s="3">
-        <v>1087200</v>
+        <v>1217800</v>
       </c>
       <c r="G41" s="3">
-        <v>909500</v>
+        <v>1126800</v>
       </c>
       <c r="H41" s="3">
-        <v>486900</v>
+        <v>942700</v>
       </c>
       <c r="I41" s="3">
-        <v>770700</v>
+        <v>504700</v>
       </c>
       <c r="J41" s="3">
+        <v>798800</v>
+      </c>
+      <c r="K41" s="3">
         <v>609400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>232600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>260800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>771700</v>
+        <v>917300</v>
       </c>
       <c r="E42" s="3">
-        <v>608400</v>
+        <v>799800</v>
       </c>
       <c r="F42" s="3">
-        <v>706400</v>
+        <v>630600</v>
       </c>
       <c r="G42" s="3">
-        <v>934000</v>
+        <v>732100</v>
       </c>
       <c r="H42" s="3">
-        <v>1053500</v>
+        <v>968100</v>
       </c>
       <c r="I42" s="3">
-        <v>847300</v>
+        <v>1091900</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>878100</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1890,42 +1979,45 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>639000</v>
+        <v>735300</v>
       </c>
       <c r="E43" s="3">
-        <v>477700</v>
+        <v>662300</v>
       </c>
       <c r="F43" s="3">
-        <v>414400</v>
+        <v>495100</v>
       </c>
       <c r="G43" s="3">
-        <v>410400</v>
+        <v>429500</v>
       </c>
       <c r="H43" s="3">
-        <v>367500</v>
+        <v>425300</v>
       </c>
       <c r="I43" s="3">
-        <v>312400</v>
+        <v>380900</v>
       </c>
       <c r="J43" s="3">
+        <v>323700</v>
+      </c>
+      <c r="K43" s="3">
         <v>252100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,9 +2027,12 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,36 +2069,39 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>251100</v>
+        <v>324800</v>
       </c>
       <c r="E45" s="3">
-        <v>154100</v>
+        <v>260300</v>
       </c>
       <c r="F45" s="3">
-        <v>69400</v>
+        <v>159800</v>
       </c>
       <c r="G45" s="3">
-        <v>38800</v>
+        <v>71900</v>
       </c>
       <c r="H45" s="3">
-        <v>29600</v>
+        <v>40200</v>
       </c>
       <c r="I45" s="3">
-        <v>18400</v>
+        <v>30700</v>
       </c>
       <c r="J45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K45" s="3">
         <v>27600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,36 +2111,39 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4462900</v>
+        <v>4604400</v>
       </c>
       <c r="E46" s="3">
-        <v>2415200</v>
+        <v>4625600</v>
       </c>
       <c r="F46" s="3">
-        <v>2277400</v>
+        <v>2503200</v>
       </c>
       <c r="G46" s="3">
-        <v>2292700</v>
+        <v>2360400</v>
       </c>
       <c r="H46" s="3">
-        <v>1937500</v>
+        <v>2376300</v>
       </c>
       <c r="I46" s="3">
-        <v>1948700</v>
+        <v>2008100</v>
       </c>
       <c r="J46" s="3">
+        <v>2019700</v>
+      </c>
+      <c r="K46" s="3">
         <v>889100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,36 +2153,39 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>935100</v>
+        <v>1204000</v>
       </c>
       <c r="E47" s="3">
-        <v>2324400</v>
+        <v>969100</v>
       </c>
       <c r="F47" s="3">
-        <v>1528100</v>
+        <v>2409100</v>
       </c>
       <c r="G47" s="3">
-        <v>1680200</v>
+        <v>1583800</v>
       </c>
       <c r="H47" s="3">
-        <v>929900</v>
+        <v>1741500</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>963800</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2091,36 +2195,39 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>825800</v>
+        <v>809400</v>
       </c>
       <c r="E48" s="3">
-        <v>772700</v>
+        <v>855900</v>
       </c>
       <c r="F48" s="3">
-        <v>796200</v>
+        <v>800900</v>
       </c>
       <c r="G48" s="3">
-        <v>201100</v>
+        <v>825200</v>
       </c>
       <c r="H48" s="3">
-        <v>74500</v>
+        <v>208400</v>
       </c>
       <c r="I48" s="3">
-        <v>86800</v>
+        <v>77200</v>
       </c>
       <c r="J48" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K48" s="3">
         <v>82700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2130,36 +2237,39 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1003400</v>
+        <v>1370100</v>
       </c>
       <c r="E49" s="3">
-        <v>850300</v>
+        <v>1040000</v>
       </c>
       <c r="F49" s="3">
-        <v>547100</v>
+        <v>881300</v>
       </c>
       <c r="G49" s="3">
-        <v>177600</v>
+        <v>567100</v>
       </c>
       <c r="H49" s="3">
-        <v>165400</v>
+        <v>184100</v>
       </c>
       <c r="I49" s="3">
-        <v>81700</v>
+        <v>171400</v>
       </c>
       <c r="J49" s="3">
+        <v>84600</v>
+      </c>
+      <c r="K49" s="3">
         <v>74500</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2169,9 +2279,12 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,36 +2363,39 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>91900</v>
+        <v>91000</v>
       </c>
       <c r="E52" s="3">
-        <v>94900</v>
+        <v>95200</v>
       </c>
       <c r="F52" s="3">
-        <v>79600</v>
+        <v>98400</v>
       </c>
       <c r="G52" s="3">
-        <v>74500</v>
+        <v>82500</v>
       </c>
       <c r="H52" s="3">
-        <v>64300</v>
+        <v>77200</v>
       </c>
       <c r="I52" s="3">
-        <v>26500</v>
+        <v>66700</v>
       </c>
       <c r="J52" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K52" s="3">
         <v>25500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7319100</v>
+        <v>8078900</v>
       </c>
       <c r="E54" s="3">
-        <v>6457600</v>
+        <v>7585900</v>
       </c>
       <c r="F54" s="3">
-        <v>5228500</v>
+        <v>6692900</v>
       </c>
       <c r="G54" s="3">
-        <v>4426200</v>
+        <v>5419100</v>
       </c>
       <c r="H54" s="3">
-        <v>3171600</v>
+        <v>4587500</v>
       </c>
       <c r="I54" s="3">
-        <v>2143700</v>
+        <v>3287200</v>
       </c>
       <c r="J54" s="3">
+        <v>2221800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1072900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>535200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>446200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,35 +2528,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>545100</v>
+        <v>622100</v>
       </c>
       <c r="E57" s="3">
-        <v>443000</v>
+        <v>565000</v>
       </c>
       <c r="F57" s="3">
-        <v>384800</v>
+        <v>459200</v>
       </c>
       <c r="G57" s="3">
-        <v>301100</v>
+        <v>398900</v>
       </c>
       <c r="H57" s="3">
-        <v>247000</v>
+        <v>312100</v>
       </c>
       <c r="I57" s="3">
-        <v>141900</v>
+        <v>256000</v>
       </c>
       <c r="J57" s="3">
+        <v>147100</v>
+      </c>
+      <c r="K57" s="3">
         <v>77600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,9 +2567,12 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2449,24 +2582,24 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1000</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
-        <v>5100</v>
+        <v>1100</v>
       </c>
       <c r="J58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K58" s="3">
         <v>6100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,36 +2609,39 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2748000</v>
+        <v>3097800</v>
       </c>
       <c r="E59" s="3">
-        <v>2517300</v>
+        <v>2848100</v>
       </c>
       <c r="F59" s="3">
-        <v>2097700</v>
+        <v>2609000</v>
       </c>
       <c r="G59" s="3">
-        <v>1890500</v>
+        <v>2174200</v>
       </c>
       <c r="H59" s="3">
-        <v>1650600</v>
+        <v>1959400</v>
       </c>
       <c r="I59" s="3">
-        <v>1098400</v>
+        <v>1710800</v>
       </c>
       <c r="J59" s="3">
+        <v>1138400</v>
+      </c>
+      <c r="K59" s="3">
         <v>730900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2515,36 +2651,39 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3293100</v>
+        <v>3719900</v>
       </c>
       <c r="E60" s="3">
-        <v>2960300</v>
+        <v>3413100</v>
       </c>
       <c r="F60" s="3">
-        <v>2489700</v>
+        <v>3068200</v>
       </c>
       <c r="G60" s="3">
-        <v>2191700</v>
+        <v>2580500</v>
       </c>
       <c r="H60" s="3">
-        <v>1898700</v>
+        <v>2271500</v>
       </c>
       <c r="I60" s="3">
-        <v>1245400</v>
+        <v>1967900</v>
       </c>
       <c r="J60" s="3">
+        <v>1290800</v>
+      </c>
+      <c r="K60" s="3">
         <v>814600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2554,36 +2693,39 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1818000</v>
+        <v>1780600</v>
       </c>
       <c r="E61" s="3">
-        <v>589000</v>
+        <v>1884300</v>
       </c>
       <c r="F61" s="3">
-        <v>634900</v>
+        <v>610500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>658100</v>
       </c>
       <c r="H61" s="3">
-        <v>963600</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1130000</v>
+        <v>998800</v>
       </c>
       <c r="J61" s="3">
+        <v>1171200</v>
+      </c>
+      <c r="K61" s="3">
         <v>5100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2593,36 +2735,39 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>44900</v>
+        <v>38100</v>
       </c>
       <c r="E62" s="3">
-        <v>44900</v>
+        <v>46600</v>
       </c>
       <c r="F62" s="3">
-        <v>24500</v>
+        <v>46600</v>
       </c>
       <c r="G62" s="3">
-        <v>97000</v>
+        <v>25400</v>
       </c>
       <c r="H62" s="3">
-        <v>66400</v>
+        <v>100500</v>
       </c>
       <c r="I62" s="3">
-        <v>13300</v>
+        <v>68800</v>
       </c>
       <c r="J62" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K62" s="3">
         <v>19400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,36 +2903,39 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5156100</v>
+        <v>5538600</v>
       </c>
       <c r="E66" s="3">
-        <v>3594200</v>
+        <v>5344000</v>
       </c>
       <c r="F66" s="3">
-        <v>3149200</v>
+        <v>3725200</v>
       </c>
       <c r="G66" s="3">
-        <v>2288600</v>
+        <v>3263900</v>
       </c>
       <c r="H66" s="3">
-        <v>2928700</v>
+        <v>2372000</v>
       </c>
       <c r="I66" s="3">
-        <v>2388700</v>
+        <v>3035400</v>
       </c>
       <c r="J66" s="3">
+        <v>2475700</v>
+      </c>
+      <c r="K66" s="3">
         <v>839100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2788,9 +2945,12 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,36 +3131,39 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3287000</v>
+        <v>-3858500</v>
       </c>
       <c r="E72" s="3">
-        <v>-3358400</v>
+        <v>-3406800</v>
       </c>
       <c r="F72" s="3">
-        <v>-2765300</v>
+        <v>-3480800</v>
       </c>
       <c r="G72" s="3">
-        <v>-2557100</v>
+        <v>-2866100</v>
       </c>
       <c r="H72" s="3">
-        <v>-2477500</v>
+        <v>-2650300</v>
       </c>
       <c r="I72" s="3">
-        <v>-1216800</v>
+        <v>-2567800</v>
       </c>
       <c r="J72" s="3">
+        <v>-1261100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-666600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,9 +3173,12 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2163100</v>
+        <v>2540300</v>
       </c>
       <c r="E76" s="3">
-        <v>2863300</v>
+        <v>2241900</v>
       </c>
       <c r="F76" s="3">
-        <v>2079400</v>
+        <v>2967700</v>
       </c>
       <c r="G76" s="3">
-        <v>2137600</v>
+        <v>2155100</v>
       </c>
       <c r="H76" s="3">
-        <v>243000</v>
+        <v>2215500</v>
       </c>
       <c r="I76" s="3">
-        <v>-245000</v>
+        <v>251800</v>
       </c>
       <c r="J76" s="3">
+        <v>-253900</v>
+      </c>
+      <c r="K76" s="3">
         <v>233800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>112400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34700</v>
+        <v>-454900</v>
       </c>
       <c r="E81" s="3">
-        <v>-593100</v>
+        <v>-36000</v>
       </c>
       <c r="F81" s="3">
-        <v>-189900</v>
+        <v>-614700</v>
       </c>
       <c r="G81" s="3">
-        <v>-79600</v>
+        <v>-196800</v>
       </c>
       <c r="H81" s="3">
-        <v>-1260700</v>
+        <v>-82500</v>
       </c>
       <c r="I81" s="3">
-        <v>-550200</v>
+        <v>-1306600</v>
       </c>
       <c r="J81" s="3">
+        <v>-570300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-234800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-212300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-75400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,35 +3493,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>129600</v>
+        <v>180900</v>
       </c>
       <c r="E83" s="3">
-        <v>113300</v>
+        <v>134400</v>
       </c>
       <c r="F83" s="3">
-        <v>88800</v>
+        <v>117400</v>
       </c>
       <c r="G83" s="3">
-        <v>32700</v>
+        <v>92000</v>
       </c>
       <c r="H83" s="3">
-        <v>55100</v>
+        <v>33900</v>
       </c>
       <c r="I83" s="3">
-        <v>38800</v>
+        <v>57100</v>
       </c>
       <c r="J83" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K83" s="3">
         <v>30600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3334,9 +3532,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>368500</v>
+        <v>48700</v>
       </c>
       <c r="E89" s="3">
-        <v>264400</v>
+        <v>381900</v>
       </c>
       <c r="F89" s="3">
-        <v>584900</v>
+        <v>274000</v>
       </c>
       <c r="G89" s="3">
-        <v>351200</v>
+        <v>606200</v>
       </c>
       <c r="H89" s="3">
-        <v>182700</v>
+        <v>364000</v>
       </c>
       <c r="I89" s="3">
-        <v>103100</v>
+        <v>189400</v>
       </c>
       <c r="J89" s="3">
+        <v>106900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-38800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-83600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-29900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-86800</v>
+        <v>-26500</v>
       </c>
       <c r="E91" s="3">
-        <v>-79600</v>
+        <v>-89900</v>
       </c>
       <c r="F91" s="3">
-        <v>-137800</v>
+        <v>-82500</v>
       </c>
       <c r="G91" s="3">
-        <v>-127600</v>
+        <v>-142800</v>
       </c>
       <c r="H91" s="3">
-        <v>-36700</v>
+        <v>-132300</v>
       </c>
       <c r="I91" s="3">
-        <v>-27600</v>
+        <v>-38100</v>
       </c>
       <c r="J91" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-44900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-190900</v>
+        <v>-447500</v>
       </c>
       <c r="E94" s="3">
-        <v>-379700</v>
+        <v>-197800</v>
       </c>
       <c r="F94" s="3">
-        <v>-222500</v>
+        <v>-393600</v>
       </c>
       <c r="G94" s="3">
-        <v>-22500</v>
+        <v>-230600</v>
       </c>
       <c r="H94" s="3">
-        <v>-444000</v>
+        <v>-23300</v>
       </c>
       <c r="I94" s="3">
-        <v>-844200</v>
+        <v>-460200</v>
       </c>
       <c r="J94" s="3">
+        <v>-875000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-68400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-49000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,75 +4156,81 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1276000</v>
+        <v>-42300</v>
       </c>
       <c r="E100" s="3">
-        <v>290900</v>
+        <v>1322500</v>
       </c>
       <c r="F100" s="3">
-        <v>-207200</v>
+        <v>301500</v>
       </c>
       <c r="G100" s="3">
-        <v>93900</v>
+        <v>-214800</v>
       </c>
       <c r="H100" s="3">
-        <v>34700</v>
+        <v>97300</v>
       </c>
       <c r="I100" s="3">
-        <v>935100</v>
+        <v>36000</v>
       </c>
       <c r="J100" s="3">
+        <v>969100</v>
+      </c>
+      <c r="K100" s="3">
         <v>485900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>73400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>147100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>172500</v>
+        <v>165000</v>
       </c>
       <c r="E101" s="3">
-        <v>-87800</v>
+        <v>178800</v>
       </c>
       <c r="F101" s="3">
-        <v>22500</v>
+        <v>-91000</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>23300</v>
       </c>
       <c r="H101" s="3">
-        <v>-57200</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-32700</v>
+        <v>-59200</v>
       </c>
       <c r="J101" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="K101" s="3">
         <v>20400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3992,46 +4240,52 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1626100</v>
+        <v>-276100</v>
       </c>
       <c r="E102" s="3">
-        <v>87800</v>
+        <v>1685400</v>
       </c>
       <c r="F102" s="3">
-        <v>177600</v>
+        <v>91000</v>
       </c>
       <c r="G102" s="3">
-        <v>422600</v>
+        <v>184100</v>
       </c>
       <c r="H102" s="3">
-        <v>-283800</v>
+        <v>438000</v>
       </c>
       <c r="I102" s="3">
-        <v>161300</v>
+        <v>-294100</v>
       </c>
       <c r="J102" s="3">
+        <v>167200</v>
+      </c>
+      <c r="K102" s="3">
         <v>399100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>68200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>12407200</v>
+        <v>12628800</v>
       </c>
       <c r="E8" s="3">
-        <v>10228700</v>
+        <v>10411500</v>
       </c>
       <c r="F8" s="3">
-        <v>8337000</v>
+        <v>8486000</v>
       </c>
       <c r="G8" s="3">
-        <v>7156300</v>
+        <v>7284200</v>
       </c>
       <c r="H8" s="3">
-        <v>5564000</v>
+        <v>5663400</v>
       </c>
       <c r="I8" s="3">
-        <v>4327200</v>
+        <v>4404500</v>
       </c>
       <c r="J8" s="3">
-        <v>3123200</v>
+        <v>3179000</v>
       </c>
       <c r="K8" s="3">
         <v>1980400</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>9311500</v>
+        <v>9477800</v>
       </c>
       <c r="E9" s="3">
-        <v>7487500</v>
+        <v>7621200</v>
       </c>
       <c r="F9" s="3">
-        <v>6205200</v>
+        <v>6316000</v>
       </c>
       <c r="G9" s="3">
-        <v>5334400</v>
+        <v>5429700</v>
       </c>
       <c r="H9" s="3">
-        <v>4132500</v>
+        <v>4206400</v>
       </c>
       <c r="I9" s="3">
-        <v>3429000</v>
+        <v>3490200</v>
       </c>
       <c r="J9" s="3">
-        <v>2699000</v>
+        <v>2747200</v>
       </c>
       <c r="K9" s="3">
         <v>1749700</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3095700</v>
+        <v>3151000</v>
       </c>
       <c r="E10" s="3">
-        <v>2741300</v>
+        <v>2790200</v>
       </c>
       <c r="F10" s="3">
-        <v>2131900</v>
+        <v>2170000</v>
       </c>
       <c r="G10" s="3">
-        <v>1821900</v>
+        <v>1854400</v>
       </c>
       <c r="H10" s="3">
-        <v>1431500</v>
+        <v>1457000</v>
       </c>
       <c r="I10" s="3">
-        <v>898200</v>
+        <v>914300</v>
       </c>
       <c r="J10" s="3">
-        <v>424300</v>
+        <v>431800</v>
       </c>
       <c r="K10" s="3">
         <v>230700</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1425100</v>
+        <v>1450600</v>
       </c>
       <c r="E12" s="3">
-        <v>938400</v>
+        <v>955200</v>
       </c>
       <c r="F12" s="3">
-        <v>866500</v>
+        <v>882000</v>
       </c>
       <c r="G12" s="3">
-        <v>635900</v>
+        <v>647200</v>
       </c>
       <c r="H12" s="3">
-        <v>521600</v>
+        <v>530900</v>
       </c>
       <c r="I12" s="3">
-        <v>419000</v>
+        <v>426500</v>
       </c>
       <c r="J12" s="3">
-        <v>219000</v>
+        <v>222900</v>
       </c>
       <c r="K12" s="3">
         <v>138800</v>
@@ -955,13 +955,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E14" s="3">
         <v>3200</v>
       </c>
       <c r="F14" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -973,7 +973,7 @@
         <v>-1100</v>
       </c>
       <c r="J14" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -997,16 +997,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>42300</v>
+        <v>43100</v>
       </c>
       <c r="E15" s="3">
-        <v>26500</v>
+        <v>26900</v>
       </c>
       <c r="F15" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="G15" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13104400</v>
+        <v>13338500</v>
       </c>
       <c r="E17" s="3">
-        <v>10129300</v>
+        <v>10310200</v>
       </c>
       <c r="F17" s="3">
-        <v>8647000</v>
+        <v>8801500</v>
       </c>
       <c r="G17" s="3">
-        <v>7233500</v>
+        <v>7362800</v>
       </c>
       <c r="H17" s="3">
-        <v>5610600</v>
+        <v>5710800</v>
       </c>
       <c r="I17" s="3">
-        <v>4726100</v>
+        <v>4810500</v>
       </c>
       <c r="J17" s="3">
-        <v>3494600</v>
+        <v>3557000</v>
       </c>
       <c r="K17" s="3">
         <v>2220200</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-697200</v>
+        <v>-709700</v>
       </c>
       <c r="E18" s="3">
-        <v>99500</v>
+        <v>101200</v>
       </c>
       <c r="F18" s="3">
-        <v>-310000</v>
+        <v>-315500</v>
       </c>
       <c r="G18" s="3">
-        <v>-77200</v>
+        <v>-78600</v>
       </c>
       <c r="H18" s="3">
-        <v>-46600</v>
+        <v>-47400</v>
       </c>
       <c r="I18" s="3">
-        <v>-398900</v>
+        <v>-406000</v>
       </c>
       <c r="J18" s="3">
-        <v>-371400</v>
+        <v>-378000</v>
       </c>
       <c r="K18" s="3">
         <v>-239900</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>349100</v>
+        <v>355400</v>
       </c>
       <c r="E20" s="3">
-        <v>206300</v>
+        <v>210000</v>
       </c>
       <c r="F20" s="3">
-        <v>-396800</v>
+        <v>-403800</v>
       </c>
       <c r="G20" s="3">
-        <v>-21200</v>
+        <v>-21500</v>
       </c>
       <c r="H20" s="3">
-        <v>-136500</v>
+        <v>-138900</v>
       </c>
       <c r="I20" s="3">
-        <v>-901400</v>
+        <v>-917500</v>
       </c>
       <c r="J20" s="3">
-        <v>-194700</v>
+        <v>-198100</v>
       </c>
       <c r="K20" s="3">
         <v>10200</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-167800</v>
+        <v>-169000</v>
       </c>
       <c r="E21" s="3">
-        <v>439700</v>
+        <v>448900</v>
       </c>
       <c r="F21" s="3">
-        <v>-589700</v>
+        <v>-599100</v>
       </c>
       <c r="G21" s="3">
-        <v>-6700</v>
+        <v>-5900</v>
       </c>
       <c r="H21" s="3">
-        <v>-149300</v>
+        <v>-151600</v>
       </c>
       <c r="I21" s="3">
-        <v>-1243300</v>
+        <v>-1265000</v>
       </c>
       <c r="J21" s="3">
-        <v>-526000</v>
+        <v>-535000</v>
       </c>
       <c r="K21" s="3">
         <v>-199600</v>
@@ -1240,22 +1240,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>43400</v>
+        <v>44200</v>
       </c>
       <c r="E22" s="3">
-        <v>42300</v>
+        <v>43100</v>
       </c>
       <c r="F22" s="3">
-        <v>43400</v>
+        <v>44200</v>
       </c>
       <c r="G22" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I22" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-391500</v>
+        <v>-398500</v>
       </c>
       <c r="E23" s="3">
-        <v>263400</v>
+        <v>268100</v>
       </c>
       <c r="F23" s="3">
-        <v>-750100</v>
+        <v>-763500</v>
       </c>
       <c r="G23" s="3">
-        <v>-138600</v>
+        <v>-141100</v>
       </c>
       <c r="H23" s="3">
-        <v>-183000</v>
+        <v>-186300</v>
       </c>
       <c r="I23" s="3">
-        <v>-1304500</v>
+        <v>-1327800</v>
       </c>
       <c r="J23" s="3">
-        <v>-566000</v>
+        <v>-576100</v>
       </c>
       <c r="K23" s="3">
         <v>-229700</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>63500</v>
+        <v>64600</v>
       </c>
       <c r="E24" s="3">
-        <v>299400</v>
+        <v>304800</v>
       </c>
       <c r="F24" s="3">
-        <v>-135400</v>
+        <v>-137800</v>
       </c>
       <c r="G24" s="3">
-        <v>58200</v>
+        <v>59200</v>
       </c>
       <c r="H24" s="3">
-        <v>-100500</v>
+        <v>-102300</v>
       </c>
       <c r="I24" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J24" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K24" s="3">
         <v>5100</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-454900</v>
+        <v>-463100</v>
       </c>
       <c r="E26" s="3">
-        <v>-36000</v>
+        <v>-36600</v>
       </c>
       <c r="F26" s="3">
-        <v>-614700</v>
+        <v>-625700</v>
       </c>
       <c r="G26" s="3">
-        <v>-196800</v>
+        <v>-200300</v>
       </c>
       <c r="H26" s="3">
-        <v>-82500</v>
+        <v>-84000</v>
       </c>
       <c r="I26" s="3">
-        <v>-1306600</v>
+        <v>-1330000</v>
       </c>
       <c r="J26" s="3">
-        <v>-570300</v>
+        <v>-580400</v>
       </c>
       <c r="K26" s="3">
         <v>-234800</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-454900</v>
+        <v>-463100</v>
       </c>
       <c r="E27" s="3">
-        <v>-36000</v>
+        <v>-36600</v>
       </c>
       <c r="F27" s="3">
-        <v>-614700</v>
+        <v>-625700</v>
       </c>
       <c r="G27" s="3">
-        <v>-196800</v>
+        <v>-200300</v>
       </c>
       <c r="H27" s="3">
-        <v>-82500</v>
+        <v>-84000</v>
       </c>
       <c r="I27" s="3">
-        <v>-1306600</v>
+        <v>-1330000</v>
       </c>
       <c r="J27" s="3">
-        <v>-570300</v>
+        <v>-580400</v>
       </c>
       <c r="K27" s="3">
         <v>-234800</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-349100</v>
+        <v>-355400</v>
       </c>
       <c r="E32" s="3">
-        <v>-206300</v>
+        <v>-210000</v>
       </c>
       <c r="F32" s="3">
-        <v>396800</v>
+        <v>403800</v>
       </c>
       <c r="G32" s="3">
-        <v>21200</v>
+        <v>21500</v>
       </c>
       <c r="H32" s="3">
-        <v>136500</v>
+        <v>138900</v>
       </c>
       <c r="I32" s="3">
-        <v>901400</v>
+        <v>917500</v>
       </c>
       <c r="J32" s="3">
-        <v>194700</v>
+        <v>198100</v>
       </c>
       <c r="K32" s="3">
         <v>-10200</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-454900</v>
+        <v>-463100</v>
       </c>
       <c r="E33" s="3">
-        <v>-36000</v>
+        <v>-36600</v>
       </c>
       <c r="F33" s="3">
-        <v>-614700</v>
+        <v>-625700</v>
       </c>
       <c r="G33" s="3">
-        <v>-196800</v>
+        <v>-200300</v>
       </c>
       <c r="H33" s="3">
-        <v>-82500</v>
+        <v>-84000</v>
       </c>
       <c r="I33" s="3">
-        <v>-1306600</v>
+        <v>-1330000</v>
       </c>
       <c r="J33" s="3">
-        <v>-570300</v>
+        <v>-580400</v>
       </c>
       <c r="K33" s="3">
         <v>-234800</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-454900</v>
+        <v>-463100</v>
       </c>
       <c r="E35" s="3">
-        <v>-36000</v>
+        <v>-36600</v>
       </c>
       <c r="F35" s="3">
-        <v>-614700</v>
+        <v>-625700</v>
       </c>
       <c r="G35" s="3">
-        <v>-196800</v>
+        <v>-200300</v>
       </c>
       <c r="H35" s="3">
-        <v>-82500</v>
+        <v>-84000</v>
       </c>
       <c r="I35" s="3">
-        <v>-1306600</v>
+        <v>-1330000</v>
       </c>
       <c r="J35" s="3">
-        <v>-570300</v>
+        <v>-580400</v>
       </c>
       <c r="K35" s="3">
         <v>-234800</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2627000</v>
+        <v>2673900</v>
       </c>
       <c r="E41" s="3">
-        <v>2903200</v>
+        <v>2955000</v>
       </c>
       <c r="F41" s="3">
-        <v>1217800</v>
+        <v>1239500</v>
       </c>
       <c r="G41" s="3">
-        <v>1126800</v>
+        <v>1146900</v>
       </c>
       <c r="H41" s="3">
-        <v>942700</v>
+        <v>959500</v>
       </c>
       <c r="I41" s="3">
-        <v>504700</v>
+        <v>513700</v>
       </c>
       <c r="J41" s="3">
-        <v>798800</v>
+        <v>813100</v>
       </c>
       <c r="K41" s="3">
         <v>609400</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>917300</v>
+        <v>933700</v>
       </c>
       <c r="E42" s="3">
-        <v>799800</v>
+        <v>814100</v>
       </c>
       <c r="F42" s="3">
-        <v>630600</v>
+        <v>641800</v>
       </c>
       <c r="G42" s="3">
-        <v>732100</v>
+        <v>745200</v>
       </c>
       <c r="H42" s="3">
-        <v>968100</v>
+        <v>985400</v>
       </c>
       <c r="I42" s="3">
-        <v>1091900</v>
+        <v>1111400</v>
       </c>
       <c r="J42" s="3">
-        <v>878100</v>
+        <v>893800</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>735300</v>
+        <v>748400</v>
       </c>
       <c r="E43" s="3">
-        <v>662300</v>
+        <v>674100</v>
       </c>
       <c r="F43" s="3">
-        <v>495100</v>
+        <v>504000</v>
       </c>
       <c r="G43" s="3">
-        <v>429500</v>
+        <v>437200</v>
       </c>
       <c r="H43" s="3">
-        <v>425300</v>
+        <v>432900</v>
       </c>
       <c r="I43" s="3">
-        <v>380900</v>
+        <v>387700</v>
       </c>
       <c r="J43" s="3">
-        <v>323700</v>
+        <v>329500</v>
       </c>
       <c r="K43" s="3">
         <v>252100</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>324800</v>
+        <v>330600</v>
       </c>
       <c r="E45" s="3">
-        <v>260300</v>
+        <v>264900</v>
       </c>
       <c r="F45" s="3">
-        <v>159800</v>
+        <v>162600</v>
       </c>
       <c r="G45" s="3">
-        <v>71900</v>
+        <v>73200</v>
       </c>
       <c r="H45" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="I45" s="3">
-        <v>30700</v>
+        <v>31200</v>
       </c>
       <c r="J45" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="K45" s="3">
         <v>27600</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4604400</v>
+        <v>4686700</v>
       </c>
       <c r="E46" s="3">
-        <v>4625600</v>
+        <v>4708200</v>
       </c>
       <c r="F46" s="3">
-        <v>2503200</v>
+        <v>2547900</v>
       </c>
       <c r="G46" s="3">
-        <v>2360400</v>
+        <v>2402600</v>
       </c>
       <c r="H46" s="3">
-        <v>2376300</v>
+        <v>2418700</v>
       </c>
       <c r="I46" s="3">
-        <v>2008100</v>
+        <v>2044000</v>
       </c>
       <c r="J46" s="3">
-        <v>2019700</v>
+        <v>2055800</v>
       </c>
       <c r="K46" s="3">
         <v>889100</v>
@@ -2163,22 +2163,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1204000</v>
+        <v>1225500</v>
       </c>
       <c r="E47" s="3">
-        <v>969100</v>
+        <v>986400</v>
       </c>
       <c r="F47" s="3">
-        <v>2409100</v>
+        <v>2452100</v>
       </c>
       <c r="G47" s="3">
-        <v>1583800</v>
+        <v>1612100</v>
       </c>
       <c r="H47" s="3">
-        <v>1741500</v>
+        <v>1772600</v>
       </c>
       <c r="I47" s="3">
-        <v>963800</v>
+        <v>981100</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>809400</v>
+        <v>823800</v>
       </c>
       <c r="E48" s="3">
-        <v>855900</v>
+        <v>871200</v>
       </c>
       <c r="F48" s="3">
-        <v>800900</v>
+        <v>815200</v>
       </c>
       <c r="G48" s="3">
-        <v>825200</v>
+        <v>840000</v>
       </c>
       <c r="H48" s="3">
-        <v>208400</v>
+        <v>212100</v>
       </c>
       <c r="I48" s="3">
-        <v>77200</v>
+        <v>78600</v>
       </c>
       <c r="J48" s="3">
-        <v>89900</v>
+        <v>91500</v>
       </c>
       <c r="K48" s="3">
         <v>82700</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1370100</v>
+        <v>1394600</v>
       </c>
       <c r="E49" s="3">
-        <v>1040000</v>
+        <v>1058600</v>
       </c>
       <c r="F49" s="3">
-        <v>881300</v>
+        <v>897100</v>
       </c>
       <c r="G49" s="3">
-        <v>567100</v>
+        <v>577200</v>
       </c>
       <c r="H49" s="3">
-        <v>184100</v>
+        <v>187400</v>
       </c>
       <c r="I49" s="3">
-        <v>171400</v>
+        <v>174500</v>
       </c>
       <c r="J49" s="3">
-        <v>84600</v>
+        <v>86200</v>
       </c>
       <c r="K49" s="3">
         <v>74500</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>91000</v>
+        <v>92600</v>
       </c>
       <c r="E52" s="3">
-        <v>95200</v>
+        <v>96900</v>
       </c>
       <c r="F52" s="3">
-        <v>98400</v>
+        <v>100200</v>
       </c>
       <c r="G52" s="3">
-        <v>82500</v>
+        <v>84000</v>
       </c>
       <c r="H52" s="3">
-        <v>77200</v>
+        <v>78600</v>
       </c>
       <c r="I52" s="3">
-        <v>66700</v>
+        <v>67800</v>
       </c>
       <c r="J52" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="K52" s="3">
         <v>25500</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8078900</v>
+        <v>8223200</v>
       </c>
       <c r="E54" s="3">
-        <v>7585900</v>
+        <v>7721400</v>
       </c>
       <c r="F54" s="3">
-        <v>6692900</v>
+        <v>6812500</v>
       </c>
       <c r="G54" s="3">
-        <v>5419100</v>
+        <v>5515900</v>
       </c>
       <c r="H54" s="3">
-        <v>4587500</v>
+        <v>4669400</v>
       </c>
       <c r="I54" s="3">
-        <v>3287200</v>
+        <v>3345900</v>
       </c>
       <c r="J54" s="3">
-        <v>2221800</v>
+        <v>2261500</v>
       </c>
       <c r="K54" s="3">
         <v>1072900</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>622100</v>
+        <v>633200</v>
       </c>
       <c r="E57" s="3">
-        <v>565000</v>
+        <v>575100</v>
       </c>
       <c r="F57" s="3">
-        <v>459200</v>
+        <v>467400</v>
       </c>
       <c r="G57" s="3">
-        <v>398900</v>
+        <v>406000</v>
       </c>
       <c r="H57" s="3">
-        <v>312100</v>
+        <v>317700</v>
       </c>
       <c r="I57" s="3">
-        <v>256000</v>
+        <v>260600</v>
       </c>
       <c r="J57" s="3">
-        <v>147100</v>
+        <v>149700</v>
       </c>
       <c r="K57" s="3">
         <v>77600</v>
@@ -2586,7 +2586,7 @@
         <v>3</v>
       </c>
       <c r="G58" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2595,7 +2595,7 @@
         <v>1100</v>
       </c>
       <c r="J58" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K58" s="3">
         <v>6100</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3097800</v>
+        <v>3153200</v>
       </c>
       <c r="E59" s="3">
-        <v>2848100</v>
+        <v>2899000</v>
       </c>
       <c r="F59" s="3">
-        <v>2609000</v>
+        <v>2655600</v>
       </c>
       <c r="G59" s="3">
-        <v>2174200</v>
+        <v>2213000</v>
       </c>
       <c r="H59" s="3">
-        <v>1959400</v>
+        <v>1994400</v>
       </c>
       <c r="I59" s="3">
-        <v>1710800</v>
+        <v>1741300</v>
       </c>
       <c r="J59" s="3">
-        <v>1138400</v>
+        <v>1158700</v>
       </c>
       <c r="K59" s="3">
         <v>730900</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3719900</v>
+        <v>3786400</v>
       </c>
       <c r="E60" s="3">
-        <v>3413100</v>
+        <v>3474100</v>
       </c>
       <c r="F60" s="3">
-        <v>3068200</v>
+        <v>3123000</v>
       </c>
       <c r="G60" s="3">
-        <v>2580500</v>
+        <v>2626600</v>
       </c>
       <c r="H60" s="3">
-        <v>2271500</v>
+        <v>2312100</v>
       </c>
       <c r="I60" s="3">
-        <v>1967900</v>
+        <v>2003000</v>
       </c>
       <c r="J60" s="3">
-        <v>1290800</v>
+        <v>1313800</v>
       </c>
       <c r="K60" s="3">
         <v>814600</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1780600</v>
+        <v>1812400</v>
       </c>
       <c r="E61" s="3">
-        <v>1884300</v>
+        <v>1918000</v>
       </c>
       <c r="F61" s="3">
-        <v>610500</v>
+        <v>621400</v>
       </c>
       <c r="G61" s="3">
-        <v>658100</v>
+        <v>669800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>998800</v>
+        <v>1016600</v>
       </c>
       <c r="J61" s="3">
-        <v>1171200</v>
+        <v>1192100</v>
       </c>
       <c r="K61" s="3">
         <v>5100</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38100</v>
+        <v>38800</v>
       </c>
       <c r="E62" s="3">
-        <v>46600</v>
+        <v>47400</v>
       </c>
       <c r="F62" s="3">
-        <v>46600</v>
+        <v>47400</v>
       </c>
       <c r="G62" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="H62" s="3">
-        <v>100500</v>
+        <v>102300</v>
       </c>
       <c r="I62" s="3">
-        <v>68800</v>
+        <v>70000</v>
       </c>
       <c r="J62" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="K62" s="3">
         <v>19400</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5538600</v>
+        <v>5637600</v>
       </c>
       <c r="E66" s="3">
-        <v>5344000</v>
+        <v>5439400</v>
       </c>
       <c r="F66" s="3">
-        <v>3725200</v>
+        <v>3791800</v>
       </c>
       <c r="G66" s="3">
-        <v>3263900</v>
+        <v>3322200</v>
       </c>
       <c r="H66" s="3">
-        <v>2372000</v>
+        <v>2414400</v>
       </c>
       <c r="I66" s="3">
-        <v>3035400</v>
+        <v>3089600</v>
       </c>
       <c r="J66" s="3">
-        <v>2475700</v>
+        <v>2519900</v>
       </c>
       <c r="K66" s="3">
         <v>839100</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3858500</v>
+        <v>-3927500</v>
       </c>
       <c r="E72" s="3">
-        <v>-3406800</v>
+        <v>-3467600</v>
       </c>
       <c r="F72" s="3">
-        <v>-3480800</v>
+        <v>-3543000</v>
       </c>
       <c r="G72" s="3">
-        <v>-2866100</v>
+        <v>-2917300</v>
       </c>
       <c r="H72" s="3">
-        <v>-2650300</v>
+        <v>-2697600</v>
       </c>
       <c r="I72" s="3">
-        <v>-2567800</v>
+        <v>-2613600</v>
       </c>
       <c r="J72" s="3">
-        <v>-1261100</v>
+        <v>-1283700</v>
       </c>
       <c r="K72" s="3">
         <v>-666600</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2540300</v>
+        <v>2585600</v>
       </c>
       <c r="E76" s="3">
-        <v>2241900</v>
+        <v>2282000</v>
       </c>
       <c r="F76" s="3">
-        <v>2967700</v>
+        <v>3020700</v>
       </c>
       <c r="G76" s="3">
-        <v>2155100</v>
+        <v>2193600</v>
       </c>
       <c r="H76" s="3">
-        <v>2215500</v>
+        <v>2255000</v>
       </c>
       <c r="I76" s="3">
-        <v>251800</v>
+        <v>256300</v>
       </c>
       <c r="J76" s="3">
-        <v>-253900</v>
+        <v>-258500</v>
       </c>
       <c r="K76" s="3">
         <v>233800</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-454900</v>
+        <v>-463100</v>
       </c>
       <c r="E81" s="3">
-        <v>-36000</v>
+        <v>-36600</v>
       </c>
       <c r="F81" s="3">
-        <v>-614700</v>
+        <v>-625700</v>
       </c>
       <c r="G81" s="3">
-        <v>-196800</v>
+        <v>-200300</v>
       </c>
       <c r="H81" s="3">
-        <v>-82500</v>
+        <v>-84000</v>
       </c>
       <c r="I81" s="3">
-        <v>-1306600</v>
+        <v>-1330000</v>
       </c>
       <c r="J81" s="3">
-        <v>-570300</v>
+        <v>-580400</v>
       </c>
       <c r="K81" s="3">
         <v>-234800</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>180900</v>
+        <v>184100</v>
       </c>
       <c r="E83" s="3">
-        <v>134400</v>
+        <v>136800</v>
       </c>
       <c r="F83" s="3">
-        <v>117400</v>
+        <v>119500</v>
       </c>
       <c r="G83" s="3">
-        <v>92000</v>
+        <v>93700</v>
       </c>
       <c r="H83" s="3">
-        <v>33900</v>
+        <v>34500</v>
       </c>
       <c r="I83" s="3">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="J83" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="K83" s="3">
         <v>30600</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>48700</v>
+        <v>49500</v>
       </c>
       <c r="E89" s="3">
-        <v>381900</v>
+        <v>388800</v>
       </c>
       <c r="F89" s="3">
-        <v>274000</v>
+        <v>278900</v>
       </c>
       <c r="G89" s="3">
-        <v>606200</v>
+        <v>617100</v>
       </c>
       <c r="H89" s="3">
-        <v>364000</v>
+        <v>370500</v>
       </c>
       <c r="I89" s="3">
-        <v>189400</v>
+        <v>192800</v>
       </c>
       <c r="J89" s="3">
-        <v>106900</v>
+        <v>108800</v>
       </c>
       <c r="K89" s="3">
         <v>-38800</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26500</v>
+        <v>-26900</v>
       </c>
       <c r="E91" s="3">
-        <v>-89900</v>
+        <v>-91500</v>
       </c>
       <c r="F91" s="3">
-        <v>-82500</v>
+        <v>-84000</v>
       </c>
       <c r="G91" s="3">
-        <v>-142800</v>
+        <v>-145400</v>
       </c>
       <c r="H91" s="3">
-        <v>-132300</v>
+        <v>-134600</v>
       </c>
       <c r="I91" s="3">
-        <v>-38100</v>
+        <v>-38800</v>
       </c>
       <c r="J91" s="3">
-        <v>-28600</v>
+        <v>-29100</v>
       </c>
       <c r="K91" s="3">
         <v>-44900</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-447500</v>
+        <v>-455500</v>
       </c>
       <c r="E94" s="3">
-        <v>-197800</v>
+        <v>-201400</v>
       </c>
       <c r="F94" s="3">
-        <v>-393600</v>
+        <v>-400600</v>
       </c>
       <c r="G94" s="3">
-        <v>-230600</v>
+        <v>-234800</v>
       </c>
       <c r="H94" s="3">
-        <v>-23300</v>
+        <v>-23700</v>
       </c>
       <c r="I94" s="3">
-        <v>-460200</v>
+        <v>-468500</v>
       </c>
       <c r="J94" s="3">
-        <v>-875000</v>
+        <v>-890600</v>
       </c>
       <c r="K94" s="3">
         <v>-68400</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-42300</v>
+        <v>-43100</v>
       </c>
       <c r="E100" s="3">
-        <v>1322500</v>
+        <v>1346100</v>
       </c>
       <c r="F100" s="3">
-        <v>301500</v>
+        <v>306900</v>
       </c>
       <c r="G100" s="3">
-        <v>-214800</v>
+        <v>-218600</v>
       </c>
       <c r="H100" s="3">
-        <v>97300</v>
+        <v>99100</v>
       </c>
       <c r="I100" s="3">
-        <v>36000</v>
+        <v>36600</v>
       </c>
       <c r="J100" s="3">
-        <v>969100</v>
+        <v>986400</v>
       </c>
       <c r="K100" s="3">
         <v>485900</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>165000</v>
+        <v>168000</v>
       </c>
       <c r="E101" s="3">
-        <v>178800</v>
+        <v>182000</v>
       </c>
       <c r="F101" s="3">
-        <v>-91000</v>
+        <v>-92600</v>
       </c>
       <c r="G101" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-59200</v>
+        <v>-60300</v>
       </c>
       <c r="J101" s="3">
-        <v>-33900</v>
+        <v>-34500</v>
       </c>
       <c r="K101" s="3">
         <v>20400</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-276100</v>
+        <v>-281100</v>
       </c>
       <c r="E102" s="3">
-        <v>1685400</v>
+        <v>1715500</v>
       </c>
       <c r="F102" s="3">
-        <v>91000</v>
+        <v>92600</v>
       </c>
       <c r="G102" s="3">
-        <v>184100</v>
+        <v>187400</v>
       </c>
       <c r="H102" s="3">
-        <v>438000</v>
+        <v>445800</v>
       </c>
       <c r="I102" s="3">
-        <v>-294100</v>
+        <v>-299400</v>
       </c>
       <c r="J102" s="3">
-        <v>167200</v>
+        <v>170200</v>
       </c>
       <c r="K102" s="3">
         <v>399100</v>

--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>12628800</v>
+        <v>12713200</v>
       </c>
       <c r="E8" s="3">
-        <v>10411500</v>
+        <v>10481100</v>
       </c>
       <c r="F8" s="3">
-        <v>8486000</v>
+        <v>8542700</v>
       </c>
       <c r="G8" s="3">
-        <v>7284200</v>
+        <v>7332900</v>
       </c>
       <c r="H8" s="3">
-        <v>5663400</v>
+        <v>5701300</v>
       </c>
       <c r="I8" s="3">
-        <v>4404500</v>
+        <v>4434000</v>
       </c>
       <c r="J8" s="3">
-        <v>3179000</v>
+        <v>3200300</v>
       </c>
       <c r="K8" s="3">
         <v>1980400</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>9477800</v>
+        <v>9541200</v>
       </c>
       <c r="E9" s="3">
-        <v>7621200</v>
+        <v>7672200</v>
       </c>
       <c r="F9" s="3">
-        <v>6316000</v>
+        <v>6358200</v>
       </c>
       <c r="G9" s="3">
-        <v>5429700</v>
+        <v>5466000</v>
       </c>
       <c r="H9" s="3">
-        <v>4206400</v>
+        <v>4234500</v>
       </c>
       <c r="I9" s="3">
-        <v>3490200</v>
+        <v>3513600</v>
       </c>
       <c r="J9" s="3">
-        <v>2747200</v>
+        <v>2765500</v>
       </c>
       <c r="K9" s="3">
         <v>1749700</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3151000</v>
+        <v>3172100</v>
       </c>
       <c r="E10" s="3">
-        <v>2790200</v>
+        <v>2808900</v>
       </c>
       <c r="F10" s="3">
-        <v>2170000</v>
+        <v>2184500</v>
       </c>
       <c r="G10" s="3">
-        <v>1854400</v>
+        <v>1866800</v>
       </c>
       <c r="H10" s="3">
-        <v>1457000</v>
+        <v>1466800</v>
       </c>
       <c r="I10" s="3">
-        <v>914300</v>
+        <v>920400</v>
       </c>
       <c r="J10" s="3">
-        <v>431800</v>
+        <v>434700</v>
       </c>
       <c r="K10" s="3">
         <v>230700</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1450600</v>
+        <v>1460300</v>
       </c>
       <c r="E12" s="3">
-        <v>955200</v>
+        <v>961600</v>
       </c>
       <c r="F12" s="3">
-        <v>882000</v>
+        <v>887900</v>
       </c>
       <c r="G12" s="3">
-        <v>647200</v>
+        <v>651500</v>
       </c>
       <c r="H12" s="3">
-        <v>530900</v>
+        <v>534500</v>
       </c>
       <c r="I12" s="3">
-        <v>426500</v>
+        <v>429300</v>
       </c>
       <c r="J12" s="3">
-        <v>222900</v>
+        <v>224400</v>
       </c>
       <c r="K12" s="3">
         <v>138800</v>
@@ -958,7 +958,7 @@
         <v>2200</v>
       </c>
       <c r="E14" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F14" s="3">
         <v>5400</v>
@@ -997,16 +997,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>43100</v>
+        <v>43400</v>
       </c>
       <c r="E15" s="3">
-        <v>26900</v>
+        <v>27100</v>
       </c>
       <c r="F15" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="G15" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13338500</v>
+        <v>13427700</v>
       </c>
       <c r="E17" s="3">
-        <v>10310200</v>
+        <v>10379200</v>
       </c>
       <c r="F17" s="3">
-        <v>8801500</v>
+        <v>8860300</v>
       </c>
       <c r="G17" s="3">
-        <v>7362800</v>
+        <v>7412000</v>
       </c>
       <c r="H17" s="3">
-        <v>5710800</v>
+        <v>5749000</v>
       </c>
       <c r="I17" s="3">
-        <v>4810500</v>
+        <v>4842700</v>
       </c>
       <c r="J17" s="3">
-        <v>3557000</v>
+        <v>3580800</v>
       </c>
       <c r="K17" s="3">
         <v>2220200</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-709700</v>
+        <v>-714400</v>
       </c>
       <c r="E18" s="3">
-        <v>101200</v>
+        <v>101900</v>
       </c>
       <c r="F18" s="3">
-        <v>-315500</v>
+        <v>-317600</v>
       </c>
       <c r="G18" s="3">
-        <v>-78600</v>
+        <v>-79100</v>
       </c>
       <c r="H18" s="3">
-        <v>-47400</v>
+        <v>-47700</v>
       </c>
       <c r="I18" s="3">
-        <v>-406000</v>
+        <v>-408700</v>
       </c>
       <c r="J18" s="3">
-        <v>-378000</v>
+        <v>-380500</v>
       </c>
       <c r="K18" s="3">
         <v>-239900</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>355400</v>
+        <v>357800</v>
       </c>
       <c r="E20" s="3">
-        <v>210000</v>
+        <v>211400</v>
       </c>
       <c r="F20" s="3">
-        <v>-403800</v>
+        <v>-406500</v>
       </c>
       <c r="G20" s="3">
-        <v>-21500</v>
+        <v>-21700</v>
       </c>
       <c r="H20" s="3">
-        <v>-138900</v>
+        <v>-139800</v>
       </c>
       <c r="I20" s="3">
-        <v>-917500</v>
+        <v>-923700</v>
       </c>
       <c r="J20" s="3">
-        <v>-198100</v>
+        <v>-199500</v>
       </c>
       <c r="K20" s="3">
         <v>10200</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-169000</v>
+        <v>-171300</v>
       </c>
       <c r="E21" s="3">
-        <v>448900</v>
+        <v>451000</v>
       </c>
       <c r="F21" s="3">
-        <v>-599100</v>
+        <v>-603800</v>
       </c>
       <c r="G21" s="3">
-        <v>-5900</v>
+        <v>-6500</v>
       </c>
       <c r="H21" s="3">
-        <v>-151600</v>
+        <v>-152900</v>
       </c>
       <c r="I21" s="3">
-        <v>-1265000</v>
+        <v>-1273800</v>
       </c>
       <c r="J21" s="3">
-        <v>-535000</v>
+        <v>-538800</v>
       </c>
       <c r="K21" s="3">
         <v>-199600</v>
@@ -1240,16 +1240,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44200</v>
+        <v>44400</v>
       </c>
       <c r="E22" s="3">
-        <v>43100</v>
+        <v>43400</v>
       </c>
       <c r="F22" s="3">
-        <v>44200</v>
+        <v>44400</v>
       </c>
       <c r="G22" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-398500</v>
+        <v>-401100</v>
       </c>
       <c r="E23" s="3">
-        <v>268100</v>
+        <v>269900</v>
       </c>
       <c r="F23" s="3">
-        <v>-763500</v>
+        <v>-768600</v>
       </c>
       <c r="G23" s="3">
-        <v>-141100</v>
+        <v>-142000</v>
       </c>
       <c r="H23" s="3">
-        <v>-186300</v>
+        <v>-187500</v>
       </c>
       <c r="I23" s="3">
-        <v>-1327800</v>
+        <v>-1336700</v>
       </c>
       <c r="J23" s="3">
-        <v>-576100</v>
+        <v>-580000</v>
       </c>
       <c r="K23" s="3">
         <v>-229700</v>
@@ -1324,19 +1324,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>64600</v>
+        <v>65000</v>
       </c>
       <c r="E24" s="3">
-        <v>304800</v>
+        <v>306800</v>
       </c>
       <c r="F24" s="3">
-        <v>-137800</v>
+        <v>-138800</v>
       </c>
       <c r="G24" s="3">
-        <v>59200</v>
+        <v>59600</v>
       </c>
       <c r="H24" s="3">
-        <v>-102300</v>
+        <v>-103000</v>
       </c>
       <c r="I24" s="3">
         <v>2200</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-463100</v>
+        <v>-466200</v>
       </c>
       <c r="E26" s="3">
-        <v>-36600</v>
+        <v>-36900</v>
       </c>
       <c r="F26" s="3">
-        <v>-625700</v>
+        <v>-629900</v>
       </c>
       <c r="G26" s="3">
-        <v>-200300</v>
+        <v>-201600</v>
       </c>
       <c r="H26" s="3">
-        <v>-84000</v>
+        <v>-84600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1330000</v>
+        <v>-1338900</v>
       </c>
       <c r="J26" s="3">
-        <v>-580400</v>
+        <v>-584300</v>
       </c>
       <c r="K26" s="3">
         <v>-234800</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-463100</v>
+        <v>-466200</v>
       </c>
       <c r="E27" s="3">
-        <v>-36600</v>
+        <v>-36900</v>
       </c>
       <c r="F27" s="3">
-        <v>-625700</v>
+        <v>-629900</v>
       </c>
       <c r="G27" s="3">
-        <v>-200300</v>
+        <v>-201600</v>
       </c>
       <c r="H27" s="3">
-        <v>-84000</v>
+        <v>-84600</v>
       </c>
       <c r="I27" s="3">
-        <v>-1330000</v>
+        <v>-1338900</v>
       </c>
       <c r="J27" s="3">
-        <v>-580400</v>
+        <v>-584300</v>
       </c>
       <c r="K27" s="3">
         <v>-234800</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-355400</v>
+        <v>-357800</v>
       </c>
       <c r="E32" s="3">
-        <v>-210000</v>
+        <v>-211400</v>
       </c>
       <c r="F32" s="3">
-        <v>403800</v>
+        <v>406500</v>
       </c>
       <c r="G32" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="H32" s="3">
-        <v>138900</v>
+        <v>139800</v>
       </c>
       <c r="I32" s="3">
-        <v>917500</v>
+        <v>923700</v>
       </c>
       <c r="J32" s="3">
-        <v>198100</v>
+        <v>199500</v>
       </c>
       <c r="K32" s="3">
         <v>-10200</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-463100</v>
+        <v>-466200</v>
       </c>
       <c r="E33" s="3">
-        <v>-36600</v>
+        <v>-36900</v>
       </c>
       <c r="F33" s="3">
-        <v>-625700</v>
+        <v>-629900</v>
       </c>
       <c r="G33" s="3">
-        <v>-200300</v>
+        <v>-201600</v>
       </c>
       <c r="H33" s="3">
-        <v>-84000</v>
+        <v>-84600</v>
       </c>
       <c r="I33" s="3">
-        <v>-1330000</v>
+        <v>-1338900</v>
       </c>
       <c r="J33" s="3">
-        <v>-580400</v>
+        <v>-584300</v>
       </c>
       <c r="K33" s="3">
         <v>-234800</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-463100</v>
+        <v>-466200</v>
       </c>
       <c r="E35" s="3">
-        <v>-36600</v>
+        <v>-36900</v>
       </c>
       <c r="F35" s="3">
-        <v>-625700</v>
+        <v>-629900</v>
       </c>
       <c r="G35" s="3">
-        <v>-200300</v>
+        <v>-201600</v>
       </c>
       <c r="H35" s="3">
-        <v>-84000</v>
+        <v>-84600</v>
       </c>
       <c r="I35" s="3">
-        <v>-1330000</v>
+        <v>-1338900</v>
       </c>
       <c r="J35" s="3">
-        <v>-580400</v>
+        <v>-584300</v>
       </c>
       <c r="K35" s="3">
         <v>-234800</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2673900</v>
+        <v>2691800</v>
       </c>
       <c r="E41" s="3">
-        <v>2955000</v>
+        <v>2974800</v>
       </c>
       <c r="F41" s="3">
-        <v>1239500</v>
+        <v>1247800</v>
       </c>
       <c r="G41" s="3">
-        <v>1146900</v>
+        <v>1154600</v>
       </c>
       <c r="H41" s="3">
-        <v>959500</v>
+        <v>965900</v>
       </c>
       <c r="I41" s="3">
-        <v>513700</v>
+        <v>517100</v>
       </c>
       <c r="J41" s="3">
-        <v>813100</v>
+        <v>818500</v>
       </c>
       <c r="K41" s="3">
         <v>609400</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>933700</v>
+        <v>939900</v>
       </c>
       <c r="E42" s="3">
-        <v>814100</v>
+        <v>819600</v>
       </c>
       <c r="F42" s="3">
-        <v>641800</v>
+        <v>646100</v>
       </c>
       <c r="G42" s="3">
-        <v>745200</v>
+        <v>750200</v>
       </c>
       <c r="H42" s="3">
-        <v>985400</v>
+        <v>992000</v>
       </c>
       <c r="I42" s="3">
-        <v>1111400</v>
+        <v>1118800</v>
       </c>
       <c r="J42" s="3">
-        <v>893800</v>
+        <v>899800</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>748400</v>
+        <v>753400</v>
       </c>
       <c r="E43" s="3">
-        <v>674100</v>
+        <v>678600</v>
       </c>
       <c r="F43" s="3">
-        <v>504000</v>
+        <v>507400</v>
       </c>
       <c r="G43" s="3">
-        <v>437200</v>
+        <v>440100</v>
       </c>
       <c r="H43" s="3">
-        <v>432900</v>
+        <v>435800</v>
       </c>
       <c r="I43" s="3">
-        <v>387700</v>
+        <v>390300</v>
       </c>
       <c r="J43" s="3">
-        <v>329500</v>
+        <v>331700</v>
       </c>
       <c r="K43" s="3">
         <v>252100</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>330600</v>
+        <v>332800</v>
       </c>
       <c r="E45" s="3">
-        <v>264900</v>
+        <v>266700</v>
       </c>
       <c r="F45" s="3">
-        <v>162600</v>
+        <v>163700</v>
       </c>
       <c r="G45" s="3">
-        <v>73200</v>
+        <v>73700</v>
       </c>
       <c r="H45" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="I45" s="3">
-        <v>31200</v>
+        <v>31400</v>
       </c>
       <c r="J45" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="K45" s="3">
         <v>27600</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4686700</v>
+        <v>4718000</v>
       </c>
       <c r="E46" s="3">
-        <v>4708200</v>
+        <v>4739700</v>
       </c>
       <c r="F46" s="3">
-        <v>2547900</v>
+        <v>2565000</v>
       </c>
       <c r="G46" s="3">
-        <v>2402600</v>
+        <v>2418600</v>
       </c>
       <c r="H46" s="3">
-        <v>2418700</v>
+        <v>2434900</v>
       </c>
       <c r="I46" s="3">
-        <v>2044000</v>
+        <v>2057600</v>
       </c>
       <c r="J46" s="3">
-        <v>2055800</v>
+        <v>2069500</v>
       </c>
       <c r="K46" s="3">
         <v>889100</v>
@@ -2163,22 +2163,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1225500</v>
+        <v>1233700</v>
       </c>
       <c r="E47" s="3">
-        <v>986400</v>
+        <v>993000</v>
       </c>
       <c r="F47" s="3">
-        <v>2452100</v>
+        <v>2468500</v>
       </c>
       <c r="G47" s="3">
-        <v>1612100</v>
+        <v>1622900</v>
       </c>
       <c r="H47" s="3">
-        <v>1772600</v>
+        <v>1784400</v>
       </c>
       <c r="I47" s="3">
-        <v>981100</v>
+        <v>987600</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>823800</v>
+        <v>829300</v>
       </c>
       <c r="E48" s="3">
-        <v>871200</v>
+        <v>877000</v>
       </c>
       <c r="F48" s="3">
-        <v>815200</v>
+        <v>820700</v>
       </c>
       <c r="G48" s="3">
-        <v>840000</v>
+        <v>845600</v>
       </c>
       <c r="H48" s="3">
-        <v>212100</v>
+        <v>213600</v>
       </c>
       <c r="I48" s="3">
-        <v>78600</v>
+        <v>79100</v>
       </c>
       <c r="J48" s="3">
-        <v>91500</v>
+        <v>92100</v>
       </c>
       <c r="K48" s="3">
         <v>82700</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1394600</v>
+        <v>1403900</v>
       </c>
       <c r="E49" s="3">
-        <v>1058600</v>
+        <v>1065700</v>
       </c>
       <c r="F49" s="3">
-        <v>897100</v>
+        <v>903100</v>
       </c>
       <c r="G49" s="3">
-        <v>577200</v>
+        <v>581100</v>
       </c>
       <c r="H49" s="3">
-        <v>187400</v>
+        <v>188600</v>
       </c>
       <c r="I49" s="3">
-        <v>174500</v>
+        <v>175600</v>
       </c>
       <c r="J49" s="3">
-        <v>86200</v>
+        <v>86700</v>
       </c>
       <c r="K49" s="3">
         <v>74500</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>92600</v>
+        <v>93200</v>
       </c>
       <c r="E52" s="3">
-        <v>96900</v>
+        <v>97600</v>
       </c>
       <c r="F52" s="3">
-        <v>100200</v>
+        <v>100800</v>
       </c>
       <c r="G52" s="3">
-        <v>84000</v>
+        <v>84600</v>
       </c>
       <c r="H52" s="3">
-        <v>78600</v>
+        <v>79100</v>
       </c>
       <c r="I52" s="3">
-        <v>67800</v>
+        <v>68300</v>
       </c>
       <c r="J52" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="K52" s="3">
         <v>25500</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8223200</v>
+        <v>8278200</v>
       </c>
       <c r="E54" s="3">
-        <v>7721400</v>
+        <v>7773000</v>
       </c>
       <c r="F54" s="3">
-        <v>6812500</v>
+        <v>6858000</v>
       </c>
       <c r="G54" s="3">
-        <v>5515900</v>
+        <v>5552800</v>
       </c>
       <c r="H54" s="3">
-        <v>4669400</v>
+        <v>4700700</v>
       </c>
       <c r="I54" s="3">
-        <v>3345900</v>
+        <v>3368300</v>
       </c>
       <c r="J54" s="3">
-        <v>2261500</v>
+        <v>2276600</v>
       </c>
       <c r="K54" s="3">
         <v>1072900</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>633200</v>
+        <v>637500</v>
       </c>
       <c r="E57" s="3">
-        <v>575100</v>
+        <v>578900</v>
       </c>
       <c r="F57" s="3">
-        <v>467400</v>
+        <v>470500</v>
       </c>
       <c r="G57" s="3">
-        <v>406000</v>
+        <v>408700</v>
       </c>
       <c r="H57" s="3">
-        <v>317700</v>
+        <v>319800</v>
       </c>
       <c r="I57" s="3">
-        <v>260600</v>
+        <v>262400</v>
       </c>
       <c r="J57" s="3">
-        <v>149700</v>
+        <v>150700</v>
       </c>
       <c r="K57" s="3">
         <v>77600</v>
@@ -2586,7 +2586,7 @@
         <v>3</v>
       </c>
       <c r="G58" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3153200</v>
+        <v>3174200</v>
       </c>
       <c r="E59" s="3">
-        <v>2899000</v>
+        <v>2918400</v>
       </c>
       <c r="F59" s="3">
-        <v>2655600</v>
+        <v>2673400</v>
       </c>
       <c r="G59" s="3">
-        <v>2213000</v>
+        <v>2227800</v>
       </c>
       <c r="H59" s="3">
-        <v>1994400</v>
+        <v>2007800</v>
       </c>
       <c r="I59" s="3">
-        <v>1741300</v>
+        <v>1753000</v>
       </c>
       <c r="J59" s="3">
-        <v>1158700</v>
+        <v>1166500</v>
       </c>
       <c r="K59" s="3">
         <v>730900</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3786400</v>
+        <v>3811700</v>
       </c>
       <c r="E60" s="3">
-        <v>3474100</v>
+        <v>3497300</v>
       </c>
       <c r="F60" s="3">
-        <v>3123000</v>
+        <v>3143900</v>
       </c>
       <c r="G60" s="3">
-        <v>2626600</v>
+        <v>2644100</v>
       </c>
       <c r="H60" s="3">
-        <v>2312100</v>
+        <v>2327600</v>
       </c>
       <c r="I60" s="3">
-        <v>2003000</v>
+        <v>2016400</v>
       </c>
       <c r="J60" s="3">
-        <v>1313800</v>
+        <v>1322600</v>
       </c>
       <c r="K60" s="3">
         <v>814600</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1812400</v>
+        <v>1824500</v>
       </c>
       <c r="E61" s="3">
-        <v>1918000</v>
+        <v>1930800</v>
       </c>
       <c r="F61" s="3">
-        <v>621400</v>
+        <v>625500</v>
       </c>
       <c r="G61" s="3">
-        <v>669800</v>
+        <v>674300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1016600</v>
+        <v>1023400</v>
       </c>
       <c r="J61" s="3">
-        <v>1192100</v>
+        <v>1200100</v>
       </c>
       <c r="K61" s="3">
         <v>5100</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38800</v>
+        <v>39000</v>
       </c>
       <c r="E62" s="3">
-        <v>47400</v>
+        <v>47700</v>
       </c>
       <c r="F62" s="3">
-        <v>47400</v>
+        <v>47700</v>
       </c>
       <c r="G62" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="H62" s="3">
-        <v>102300</v>
+        <v>103000</v>
       </c>
       <c r="I62" s="3">
-        <v>70000</v>
+        <v>70500</v>
       </c>
       <c r="J62" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="K62" s="3">
         <v>19400</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5637600</v>
+        <v>5675300</v>
       </c>
       <c r="E66" s="3">
-        <v>5439400</v>
+        <v>5475800</v>
       </c>
       <c r="F66" s="3">
-        <v>3791800</v>
+        <v>3817100</v>
       </c>
       <c r="G66" s="3">
-        <v>3322200</v>
+        <v>3344400</v>
       </c>
       <c r="H66" s="3">
-        <v>2414400</v>
+        <v>2430600</v>
       </c>
       <c r="I66" s="3">
-        <v>3089600</v>
+        <v>3110300</v>
       </c>
       <c r="J66" s="3">
-        <v>2519900</v>
+        <v>2536800</v>
       </c>
       <c r="K66" s="3">
         <v>839100</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3927500</v>
+        <v>-3953700</v>
       </c>
       <c r="E72" s="3">
-        <v>-3467600</v>
+        <v>-3490800</v>
       </c>
       <c r="F72" s="3">
-        <v>-3543000</v>
+        <v>-3566700</v>
       </c>
       <c r="G72" s="3">
-        <v>-2917300</v>
+        <v>-2936800</v>
       </c>
       <c r="H72" s="3">
-        <v>-2697600</v>
+        <v>-2715700</v>
       </c>
       <c r="I72" s="3">
-        <v>-2613600</v>
+        <v>-2631100</v>
       </c>
       <c r="J72" s="3">
-        <v>-1283700</v>
+        <v>-1292200</v>
       </c>
       <c r="K72" s="3">
         <v>-666600</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2585600</v>
+        <v>2602900</v>
       </c>
       <c r="E76" s="3">
-        <v>2282000</v>
+        <v>2297200</v>
       </c>
       <c r="F76" s="3">
-        <v>3020700</v>
+        <v>3040900</v>
       </c>
       <c r="G76" s="3">
-        <v>2193600</v>
+        <v>2208300</v>
       </c>
       <c r="H76" s="3">
-        <v>2255000</v>
+        <v>2270100</v>
       </c>
       <c r="I76" s="3">
-        <v>256300</v>
+        <v>258000</v>
       </c>
       <c r="J76" s="3">
-        <v>-258500</v>
+        <v>-260200</v>
       </c>
       <c r="K76" s="3">
         <v>233800</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-463100</v>
+        <v>-466200</v>
       </c>
       <c r="E81" s="3">
-        <v>-36600</v>
+        <v>-36900</v>
       </c>
       <c r="F81" s="3">
-        <v>-625700</v>
+        <v>-629900</v>
       </c>
       <c r="G81" s="3">
-        <v>-200300</v>
+        <v>-201600</v>
       </c>
       <c r="H81" s="3">
-        <v>-84000</v>
+        <v>-84600</v>
       </c>
       <c r="I81" s="3">
-        <v>-1330000</v>
+        <v>-1338900</v>
       </c>
       <c r="J81" s="3">
-        <v>-580400</v>
+        <v>-584300</v>
       </c>
       <c r="K81" s="3">
         <v>-234800</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>184100</v>
+        <v>185400</v>
       </c>
       <c r="E83" s="3">
-        <v>136800</v>
+        <v>137700</v>
       </c>
       <c r="F83" s="3">
-        <v>119500</v>
+        <v>120300</v>
       </c>
       <c r="G83" s="3">
-        <v>93700</v>
+        <v>94300</v>
       </c>
       <c r="H83" s="3">
-        <v>34500</v>
+        <v>34700</v>
       </c>
       <c r="I83" s="3">
-        <v>58200</v>
+        <v>58500</v>
       </c>
       <c r="J83" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="K83" s="3">
         <v>30600</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>49500</v>
+        <v>49900</v>
       </c>
       <c r="E89" s="3">
-        <v>388800</v>
+        <v>391400</v>
       </c>
       <c r="F89" s="3">
-        <v>278900</v>
+        <v>280800</v>
       </c>
       <c r="G89" s="3">
-        <v>617100</v>
+        <v>621200</v>
       </c>
       <c r="H89" s="3">
-        <v>370500</v>
+        <v>372900</v>
       </c>
       <c r="I89" s="3">
-        <v>192800</v>
+        <v>194100</v>
       </c>
       <c r="J89" s="3">
-        <v>108800</v>
+        <v>109500</v>
       </c>
       <c r="K89" s="3">
         <v>-38800</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="E91" s="3">
-        <v>-91500</v>
+        <v>-92100</v>
       </c>
       <c r="F91" s="3">
-        <v>-84000</v>
+        <v>-84600</v>
       </c>
       <c r="G91" s="3">
-        <v>-145400</v>
+        <v>-146400</v>
       </c>
       <c r="H91" s="3">
-        <v>-134600</v>
+        <v>-135500</v>
       </c>
       <c r="I91" s="3">
-        <v>-38800</v>
+        <v>-39000</v>
       </c>
       <c r="J91" s="3">
-        <v>-29100</v>
+        <v>-29300</v>
       </c>
       <c r="K91" s="3">
         <v>-44900</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-455500</v>
+        <v>-458600</v>
       </c>
       <c r="E94" s="3">
-        <v>-201400</v>
+        <v>-202700</v>
       </c>
       <c r="F94" s="3">
-        <v>-400600</v>
+        <v>-403300</v>
       </c>
       <c r="G94" s="3">
-        <v>-234800</v>
+        <v>-236300</v>
       </c>
       <c r="H94" s="3">
-        <v>-23700</v>
+        <v>-23900</v>
       </c>
       <c r="I94" s="3">
-        <v>-468500</v>
+        <v>-471600</v>
       </c>
       <c r="J94" s="3">
-        <v>-890600</v>
+        <v>-896600</v>
       </c>
       <c r="K94" s="3">
         <v>-68400</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-43100</v>
+        <v>-43400</v>
       </c>
       <c r="E100" s="3">
-        <v>1346100</v>
+        <v>1355100</v>
       </c>
       <c r="F100" s="3">
-        <v>306900</v>
+        <v>309000</v>
       </c>
       <c r="G100" s="3">
-        <v>-218600</v>
+        <v>-220100</v>
       </c>
       <c r="H100" s="3">
-        <v>99100</v>
+        <v>99700</v>
       </c>
       <c r="I100" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="J100" s="3">
-        <v>986400</v>
+        <v>993000</v>
       </c>
       <c r="K100" s="3">
         <v>485900</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>168000</v>
+        <v>169100</v>
       </c>
       <c r="E101" s="3">
-        <v>182000</v>
+        <v>183200</v>
       </c>
       <c r="F101" s="3">
-        <v>-92600</v>
+        <v>-93200</v>
       </c>
       <c r="G101" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-60300</v>
+        <v>-60700</v>
       </c>
       <c r="J101" s="3">
-        <v>-34500</v>
+        <v>-34700</v>
       </c>
       <c r="K101" s="3">
         <v>20400</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-281100</v>
+        <v>-283000</v>
       </c>
       <c r="E102" s="3">
-        <v>1715500</v>
+        <v>1727000</v>
       </c>
       <c r="F102" s="3">
-        <v>92600</v>
+        <v>93200</v>
       </c>
       <c r="G102" s="3">
-        <v>187400</v>
+        <v>188600</v>
       </c>
       <c r="H102" s="3">
-        <v>445800</v>
+        <v>448800</v>
       </c>
       <c r="I102" s="3">
-        <v>-299400</v>
+        <v>-301400</v>
       </c>
       <c r="J102" s="3">
-        <v>170200</v>
+        <v>171300</v>
       </c>
       <c r="K102" s="3">
         <v>399100</v>

--- a/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPOT_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>12713200</v>
+        <v>12723800</v>
       </c>
       <c r="E8" s="3">
-        <v>10481100</v>
+        <v>10489800</v>
       </c>
       <c r="F8" s="3">
-        <v>8542700</v>
+        <v>8549800</v>
       </c>
       <c r="G8" s="3">
-        <v>7332900</v>
+        <v>7338900</v>
       </c>
       <c r="H8" s="3">
-        <v>5701300</v>
+        <v>5706000</v>
       </c>
       <c r="I8" s="3">
-        <v>4434000</v>
+        <v>4437700</v>
       </c>
       <c r="J8" s="3">
-        <v>3200300</v>
+        <v>3202900</v>
       </c>
       <c r="K8" s="3">
         <v>1980400</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>9541200</v>
+        <v>9549100</v>
       </c>
       <c r="E9" s="3">
-        <v>7672200</v>
+        <v>7678500</v>
       </c>
       <c r="F9" s="3">
-        <v>6358200</v>
+        <v>6363500</v>
       </c>
       <c r="G9" s="3">
-        <v>5466000</v>
+        <v>5470600</v>
       </c>
       <c r="H9" s="3">
-        <v>4234500</v>
+        <v>4238000</v>
       </c>
       <c r="I9" s="3">
-        <v>3513600</v>
+        <v>3516500</v>
       </c>
       <c r="J9" s="3">
-        <v>2765500</v>
+        <v>2767800</v>
       </c>
       <c r="K9" s="3">
         <v>1749700</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3172100</v>
+        <v>3174700</v>
       </c>
       <c r="E10" s="3">
-        <v>2808900</v>
+        <v>2811200</v>
       </c>
       <c r="F10" s="3">
-        <v>2184500</v>
+        <v>2186300</v>
       </c>
       <c r="G10" s="3">
-        <v>1866800</v>
+        <v>1868400</v>
       </c>
       <c r="H10" s="3">
-        <v>1466800</v>
+        <v>1468000</v>
       </c>
       <c r="I10" s="3">
-        <v>920400</v>
+        <v>921200</v>
       </c>
       <c r="J10" s="3">
-        <v>434700</v>
+        <v>435100</v>
       </c>
       <c r="K10" s="3">
         <v>230700</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1460300</v>
+        <v>1461500</v>
       </c>
       <c r="E12" s="3">
-        <v>961600</v>
+        <v>962400</v>
       </c>
       <c r="F12" s="3">
-        <v>887900</v>
+        <v>888600</v>
       </c>
       <c r="G12" s="3">
-        <v>651500</v>
+        <v>652100</v>
       </c>
       <c r="H12" s="3">
-        <v>534500</v>
+        <v>534900</v>
       </c>
       <c r="I12" s="3">
-        <v>429300</v>
+        <v>429700</v>
       </c>
       <c r="J12" s="3">
-        <v>224400</v>
+        <v>224600</v>
       </c>
       <c r="K12" s="3">
         <v>138800</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13427700</v>
+        <v>13438800</v>
       </c>
       <c r="E17" s="3">
-        <v>10379200</v>
+        <v>10387800</v>
       </c>
       <c r="F17" s="3">
-        <v>8860300</v>
+        <v>8867700</v>
       </c>
       <c r="G17" s="3">
-        <v>7412000</v>
+        <v>7418100</v>
       </c>
       <c r="H17" s="3">
-        <v>5749000</v>
+        <v>5753800</v>
       </c>
       <c r="I17" s="3">
-        <v>4842700</v>
+        <v>4846700</v>
       </c>
       <c r="J17" s="3">
-        <v>3580800</v>
+        <v>3583800</v>
       </c>
       <c r="K17" s="3">
         <v>2220200</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-714400</v>
+        <v>-715000</v>
       </c>
       <c r="E18" s="3">
-        <v>101900</v>
+        <v>102000</v>
       </c>
       <c r="F18" s="3">
-        <v>-317600</v>
+        <v>-317900</v>
       </c>
       <c r="G18" s="3">
-        <v>-79100</v>
+        <v>-79200</v>
       </c>
       <c r="H18" s="3">
         <v>-47700</v>
       </c>
       <c r="I18" s="3">
-        <v>-408700</v>
+        <v>-409000</v>
       </c>
       <c r="J18" s="3">
-        <v>-380500</v>
+        <v>-380800</v>
       </c>
       <c r="K18" s="3">
         <v>-239900</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>357800</v>
+        <v>358000</v>
       </c>
       <c r="E20" s="3">
-        <v>211400</v>
+        <v>211600</v>
       </c>
       <c r="F20" s="3">
-        <v>-406500</v>
+        <v>-406900</v>
       </c>
       <c r="G20" s="3">
         <v>-21700</v>
       </c>
       <c r="H20" s="3">
-        <v>-139800</v>
+        <v>-140000</v>
       </c>
       <c r="I20" s="3">
-        <v>-923700</v>
+        <v>-924400</v>
       </c>
       <c r="J20" s="3">
-        <v>-199500</v>
+        <v>-199600</v>
       </c>
       <c r="K20" s="3">
         <v>10200</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-171300</v>
+        <v>-171500</v>
       </c>
       <c r="E21" s="3">
-        <v>451000</v>
+        <v>451300</v>
       </c>
       <c r="F21" s="3">
-        <v>-603800</v>
+        <v>-604400</v>
       </c>
       <c r="G21" s="3">
         <v>-6500</v>
       </c>
       <c r="H21" s="3">
-        <v>-152900</v>
+        <v>-153000</v>
       </c>
       <c r="I21" s="3">
-        <v>-1273800</v>
+        <v>-1274900</v>
       </c>
       <c r="J21" s="3">
-        <v>-538800</v>
+        <v>-539300</v>
       </c>
       <c r="K21" s="3">
         <v>-199600</v>
@@ -1240,13 +1240,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44400</v>
+        <v>44500</v>
       </c>
       <c r="E22" s="3">
         <v>43400</v>
       </c>
       <c r="F22" s="3">
-        <v>44400</v>
+        <v>44500</v>
       </c>
       <c r="G22" s="3">
         <v>41200</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-401100</v>
+        <v>-401500</v>
       </c>
       <c r="E23" s="3">
-        <v>269900</v>
+        <v>270200</v>
       </c>
       <c r="F23" s="3">
-        <v>-768600</v>
+        <v>-769300</v>
       </c>
       <c r="G23" s="3">
-        <v>-142000</v>
+        <v>-142100</v>
       </c>
       <c r="H23" s="3">
-        <v>-187500</v>
+        <v>-187700</v>
       </c>
       <c r="I23" s="3">
-        <v>-1336700</v>
+        <v>-1337800</v>
       </c>
       <c r="J23" s="3">
-        <v>-580000</v>
+        <v>-580500</v>
       </c>
       <c r="K23" s="3">
         <v>-229700</v>
@@ -1324,19 +1324,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65000</v>
+        <v>65100</v>
       </c>
       <c r="E24" s="3">
-        <v>306800</v>
+        <v>307100</v>
       </c>
       <c r="F24" s="3">
-        <v>-138800</v>
+        <v>-138900</v>
       </c>
       <c r="G24" s="3">
-        <v>59600</v>
+        <v>59700</v>
       </c>
       <c r="H24" s="3">
-        <v>-103000</v>
+        <v>-103100</v>
       </c>
       <c r="I24" s="3">
         <v>2200</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-466200</v>
+        <v>-466600</v>
       </c>
       <c r="E26" s="3">
         <v>-36900</v>
       </c>
       <c r="F26" s="3">
-        <v>-629900</v>
+        <v>-630400</v>
       </c>
       <c r="G26" s="3">
-        <v>-201600</v>
+        <v>-201800</v>
       </c>
       <c r="H26" s="3">
         <v>-84600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1338900</v>
+        <v>-1340000</v>
       </c>
       <c r="J26" s="3">
-        <v>-584300</v>
+        <v>-584800</v>
       </c>
       <c r="K26" s="3">
         <v>-234800</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-466200</v>
+        <v>-466600</v>
       </c>
       <c r="E27" s="3">
         <v>-36900</v>
       </c>
       <c r="F27" s="3">
-        <v>-629900</v>
+        <v>-630400</v>
       </c>
       <c r="G27" s="3">
-        <v>-201600</v>
+        <v>-201800</v>
       </c>
       <c r="H27" s="3">
         <v>-84600</v>
       </c>
       <c r="I27" s="3">
-        <v>-1338900</v>
+        <v>-1340000</v>
       </c>
       <c r="J27" s="3">
-        <v>-584300</v>
+        <v>-584800</v>
       </c>
       <c r="K27" s="3">
         <v>-234800</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-357800</v>
+        <v>-358000</v>
       </c>
       <c r="E32" s="3">
-        <v>-211400</v>
+        <v>-211600</v>
       </c>
       <c r="F32" s="3">
-        <v>406500</v>
+        <v>406900</v>
       </c>
       <c r="G32" s="3">
         <v>21700</v>
       </c>
       <c r="H32" s="3">
-        <v>139800</v>
+        <v>140000</v>
       </c>
       <c r="I32" s="3">
-        <v>923700</v>
+        <v>924400</v>
       </c>
       <c r="J32" s="3">
-        <v>199500</v>
+        <v>199600</v>
       </c>
       <c r="K32" s="3">
         <v>-10200</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-466200</v>
+        <v>-466600</v>
       </c>
       <c r="E33" s="3">
         <v>-36900</v>
       </c>
       <c r="F33" s="3">
-        <v>-629900</v>
+        <v>-630400</v>
       </c>
       <c r="G33" s="3">
-        <v>-201600</v>
+        <v>-201800</v>
       </c>
       <c r="H33" s="3">
         <v>-84600</v>
       </c>
       <c r="I33" s="3">
-        <v>-1338900</v>
+        <v>-1340000</v>
       </c>
       <c r="J33" s="3">
-        <v>-584300</v>
+        <v>-584800</v>
       </c>
       <c r="K33" s="3">
         <v>-234800</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-466200</v>
+        <v>-466600</v>
       </c>
       <c r="E35" s="3">
         <v>-36900</v>
       </c>
       <c r="F35" s="3">
-        <v>-629900</v>
+        <v>-630400</v>
       </c>
       <c r="G35" s="3">
-        <v>-201600</v>
+        <v>-201800</v>
       </c>
       <c r="H35" s="3">
         <v>-84600</v>
       </c>
       <c r="I35" s="3">
-        <v>-1338900</v>
+        <v>-1340000</v>
       </c>
       <c r="J35" s="3">
-        <v>-584300</v>
+        <v>-584800</v>
       </c>
       <c r="K35" s="3">
         <v>-234800</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2691800</v>
+        <v>2694100</v>
       </c>
       <c r="E41" s="3">
-        <v>2974800</v>
+        <v>2977200</v>
       </c>
       <c r="F41" s="3">
-        <v>1247800</v>
+        <v>1248800</v>
       </c>
       <c r="G41" s="3">
-        <v>1154600</v>
+        <v>1155500</v>
       </c>
       <c r="H41" s="3">
-        <v>965900</v>
+        <v>966700</v>
       </c>
       <c r="I41" s="3">
-        <v>517100</v>
+        <v>517500</v>
       </c>
       <c r="J41" s="3">
-        <v>818500</v>
+        <v>819200</v>
       </c>
       <c r="K41" s="3">
         <v>609400</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>939900</v>
+        <v>940700</v>
       </c>
       <c r="E42" s="3">
-        <v>819600</v>
+        <v>820300</v>
       </c>
       <c r="F42" s="3">
-        <v>646100</v>
+        <v>646700</v>
       </c>
       <c r="G42" s="3">
-        <v>750200</v>
+        <v>750800</v>
       </c>
       <c r="H42" s="3">
-        <v>992000</v>
+        <v>992800</v>
       </c>
       <c r="I42" s="3">
-        <v>1118800</v>
+        <v>1119700</v>
       </c>
       <c r="J42" s="3">
-        <v>899800</v>
+        <v>900500</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>753400</v>
+        <v>754100</v>
       </c>
       <c r="E43" s="3">
-        <v>678600</v>
+        <v>679200</v>
       </c>
       <c r="F43" s="3">
-        <v>507400</v>
+        <v>507800</v>
       </c>
       <c r="G43" s="3">
-        <v>440100</v>
+        <v>440500</v>
       </c>
       <c r="H43" s="3">
-        <v>435800</v>
+        <v>436200</v>
       </c>
       <c r="I43" s="3">
-        <v>390300</v>
+        <v>390600</v>
       </c>
       <c r="J43" s="3">
-        <v>331700</v>
+        <v>332000</v>
       </c>
       <c r="K43" s="3">
         <v>252100</v>
@@ -2079,22 +2079,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>332800</v>
+        <v>333100</v>
       </c>
       <c r="E45" s="3">
-        <v>266700</v>
+        <v>266900</v>
       </c>
       <c r="F45" s="3">
-        <v>163700</v>
+        <v>163800</v>
       </c>
       <c r="G45" s="3">
-        <v>73700</v>
+        <v>73800</v>
       </c>
       <c r="H45" s="3">
         <v>41200</v>
       </c>
       <c r="I45" s="3">
-        <v>31400</v>
+        <v>31500</v>
       </c>
       <c r="J45" s="3">
         <v>19500</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4718000</v>
+        <v>4721900</v>
       </c>
       <c r="E46" s="3">
-        <v>4739700</v>
+        <v>4743600</v>
       </c>
       <c r="F46" s="3">
-        <v>2565000</v>
+        <v>2567100</v>
       </c>
       <c r="G46" s="3">
-        <v>2418600</v>
+        <v>2420600</v>
       </c>
       <c r="H46" s="3">
-        <v>2434900</v>
+        <v>2436900</v>
       </c>
       <c r="I46" s="3">
-        <v>2057600</v>
+        <v>2059300</v>
       </c>
       <c r="J46" s="3">
-        <v>2069500</v>
+        <v>2071300</v>
       </c>
       <c r="K46" s="3">
         <v>889100</v>
@@ -2163,22 +2163,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1233700</v>
+        <v>1234700</v>
       </c>
       <c r="E47" s="3">
-        <v>993000</v>
+        <v>993900</v>
       </c>
       <c r="F47" s="3">
-        <v>2468500</v>
+        <v>2470500</v>
       </c>
       <c r="G47" s="3">
-        <v>1622900</v>
+        <v>1624200</v>
       </c>
       <c r="H47" s="3">
-        <v>1784400</v>
+        <v>1785900</v>
       </c>
       <c r="I47" s="3">
-        <v>987600</v>
+        <v>988400</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>829300</v>
+        <v>830000</v>
       </c>
       <c r="E48" s="3">
-        <v>877000</v>
+        <v>877800</v>
       </c>
       <c r="F48" s="3">
-        <v>820700</v>
+        <v>821300</v>
       </c>
       <c r="G48" s="3">
-        <v>845600</v>
+        <v>846300</v>
       </c>
       <c r="H48" s="3">
-        <v>213600</v>
+        <v>213700</v>
       </c>
       <c r="I48" s="3">
-        <v>79100</v>
+        <v>79200</v>
       </c>
       <c r="J48" s="3">
-        <v>92100</v>
+        <v>92200</v>
       </c>
       <c r="K48" s="3">
         <v>82700</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1403900</v>
+        <v>1405100</v>
       </c>
       <c r="E49" s="3">
-        <v>1065700</v>
+        <v>1066600</v>
       </c>
       <c r="F49" s="3">
-        <v>903100</v>
+        <v>903800</v>
       </c>
       <c r="G49" s="3">
-        <v>581100</v>
+        <v>581600</v>
       </c>
       <c r="H49" s="3">
-        <v>188600</v>
+        <v>188800</v>
       </c>
       <c r="I49" s="3">
-        <v>175600</v>
+        <v>175800</v>
       </c>
       <c r="J49" s="3">
-        <v>86700</v>
+        <v>86800</v>
       </c>
       <c r="K49" s="3">
         <v>74500</v>
@@ -2373,22 +2373,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93200</v>
+        <v>93300</v>
       </c>
       <c r="E52" s="3">
         <v>97600</v>
       </c>
       <c r="F52" s="3">
-        <v>100800</v>
+        <v>100900</v>
       </c>
       <c r="G52" s="3">
         <v>84600</v>
       </c>
       <c r="H52" s="3">
-        <v>79100</v>
+        <v>79200</v>
       </c>
       <c r="I52" s="3">
-        <v>68300</v>
+        <v>68400</v>
       </c>
       <c r="J52" s="3">
         <v>28200</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8278200</v>
+        <v>8285100</v>
       </c>
       <c r="E54" s="3">
-        <v>7773000</v>
+        <v>7779400</v>
       </c>
       <c r="F54" s="3">
-        <v>6858000</v>
+        <v>6863700</v>
       </c>
       <c r="G54" s="3">
-        <v>5552800</v>
+        <v>5557400</v>
       </c>
       <c r="H54" s="3">
-        <v>4700700</v>
+        <v>4704600</v>
       </c>
       <c r="I54" s="3">
-        <v>3368300</v>
+        <v>3371100</v>
       </c>
       <c r="J54" s="3">
-        <v>2276600</v>
+        <v>2278500</v>
       </c>
       <c r="K54" s="3">
         <v>1072900</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>637500</v>
+        <v>638000</v>
       </c>
       <c r="E57" s="3">
-        <v>578900</v>
+        <v>579400</v>
       </c>
       <c r="F57" s="3">
-        <v>470500</v>
+        <v>470900</v>
       </c>
       <c r="G57" s="3">
-        <v>408700</v>
+        <v>409000</v>
       </c>
       <c r="H57" s="3">
-        <v>319800</v>
+        <v>320100</v>
       </c>
       <c r="I57" s="3">
-        <v>262400</v>
+        <v>262600</v>
       </c>
       <c r="J57" s="3">
-        <v>150700</v>
+        <v>150800</v>
       </c>
       <c r="K57" s="3">
         <v>77600</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3174200</v>
+        <v>3176900</v>
       </c>
       <c r="E59" s="3">
-        <v>2918400</v>
+        <v>2920800</v>
       </c>
       <c r="F59" s="3">
-        <v>2673400</v>
+        <v>2675600</v>
       </c>
       <c r="G59" s="3">
-        <v>2227800</v>
+        <v>2229700</v>
       </c>
       <c r="H59" s="3">
-        <v>2007800</v>
+        <v>2009400</v>
       </c>
       <c r="I59" s="3">
-        <v>1753000</v>
+        <v>1754400</v>
       </c>
       <c r="J59" s="3">
-        <v>1166500</v>
+        <v>1167500</v>
       </c>
       <c r="K59" s="3">
         <v>730900</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3811700</v>
+        <v>3814900</v>
       </c>
       <c r="E60" s="3">
-        <v>3497300</v>
+        <v>3500200</v>
       </c>
       <c r="F60" s="3">
-        <v>3143900</v>
+        <v>3146500</v>
       </c>
       <c r="G60" s="3">
-        <v>2644100</v>
+        <v>2646300</v>
       </c>
       <c r="H60" s="3">
-        <v>2327600</v>
+        <v>2329500</v>
       </c>
       <c r="I60" s="3">
-        <v>2016400</v>
+        <v>2018100</v>
       </c>
       <c r="J60" s="3">
-        <v>1322600</v>
+        <v>1323700</v>
       </c>
       <c r="K60" s="3">
         <v>814600</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1824500</v>
+        <v>1826100</v>
       </c>
       <c r="E61" s="3">
-        <v>1930800</v>
+        <v>1932400</v>
       </c>
       <c r="F61" s="3">
-        <v>625500</v>
+        <v>626000</v>
       </c>
       <c r="G61" s="3">
-        <v>674300</v>
+        <v>674900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1023400</v>
+        <v>1024200</v>
       </c>
       <c r="J61" s="3">
-        <v>1200100</v>
+        <v>1201100</v>
       </c>
       <c r="K61" s="3">
         <v>5100</v>
@@ -2745,7 +2745,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>39000</v>
+        <v>39100</v>
       </c>
       <c r="E62" s="3">
         <v>47700</v>
@@ -2757,7 +2757,7 @@
         <v>26000</v>
       </c>
       <c r="H62" s="3">
-        <v>103000</v>
+        <v>103100</v>
       </c>
       <c r="I62" s="3">
         <v>70500</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5675300</v>
+        <v>5680000</v>
       </c>
       <c r="E66" s="3">
-        <v>5475800</v>
+        <v>5480300</v>
       </c>
       <c r="F66" s="3">
-        <v>3817100</v>
+        <v>3820300</v>
       </c>
       <c r="G66" s="3">
-        <v>3344400</v>
+        <v>3347200</v>
       </c>
       <c r="H66" s="3">
-        <v>2430600</v>
+        <v>2432600</v>
       </c>
       <c r="I66" s="3">
-        <v>3110300</v>
+        <v>3112900</v>
       </c>
       <c r="J66" s="3">
-        <v>2536800</v>
+        <v>2538900</v>
       </c>
       <c r="K66" s="3">
         <v>839100</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3953700</v>
+        <v>-3957000</v>
       </c>
       <c r="E72" s="3">
-        <v>-3490800</v>
+        <v>-3493700</v>
       </c>
       <c r="F72" s="3">
-        <v>-3566700</v>
+        <v>-3569700</v>
       </c>
       <c r="G72" s="3">
-        <v>-2936800</v>
+        <v>-2939300</v>
       </c>
       <c r="H72" s="3">
-        <v>-2715700</v>
+        <v>-2717900</v>
       </c>
       <c r="I72" s="3">
-        <v>-2631100</v>
+        <v>-2633300</v>
       </c>
       <c r="J72" s="3">
-        <v>-1292200</v>
+        <v>-1293300</v>
       </c>
       <c r="K72" s="3">
         <v>-666600</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2602900</v>
+        <v>2605100</v>
       </c>
       <c r="E76" s="3">
-        <v>2297200</v>
+        <v>2299100</v>
       </c>
       <c r="F76" s="3">
-        <v>3040900</v>
+        <v>3043400</v>
       </c>
       <c r="G76" s="3">
-        <v>2208300</v>
+        <v>2210100</v>
       </c>
       <c r="H76" s="3">
-        <v>2270100</v>
+        <v>2272000</v>
       </c>
       <c r="I76" s="3">
-        <v>258000</v>
+        <v>258200</v>
       </c>
       <c r="J76" s="3">
-        <v>-260200</v>
+        <v>-260400</v>
       </c>
       <c r="K76" s="3">
         <v>233800</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-466200</v>
+        <v>-466600</v>
       </c>
       <c r="E81" s="3">
         <v>-36900</v>
       </c>
       <c r="F81" s="3">
-        <v>-629900</v>
+        <v>-630400</v>
       </c>
       <c r="G81" s="3">
-        <v>-201600</v>
+        <v>-201800</v>
       </c>
       <c r="H81" s="3">
         <v>-84600</v>
       </c>
       <c r="I81" s="3">
-        <v>-1338900</v>
+        <v>-1340000</v>
       </c>
       <c r="J81" s="3">
-        <v>-584300</v>
+        <v>-584800</v>
       </c>
       <c r="K81" s="3">
         <v>-234800</v>
@@ -3500,22 +3500,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>185400</v>
+        <v>185500</v>
       </c>
       <c r="E83" s="3">
-        <v>137700</v>
+        <v>137800</v>
       </c>
       <c r="F83" s="3">
-        <v>120300</v>
+        <v>120400</v>
       </c>
       <c r="G83" s="3">
-        <v>94300</v>
+        <v>94400</v>
       </c>
       <c r="H83" s="3">
         <v>34700</v>
       </c>
       <c r="I83" s="3">
-        <v>58500</v>
+        <v>58600</v>
       </c>
       <c r="J83" s="3">
         <v>41200</v>
@@ -3755,22 +3755,22 @@
         <v>49900</v>
       </c>
       <c r="E89" s="3">
-        <v>391400</v>
+        <v>391700</v>
       </c>
       <c r="F89" s="3">
-        <v>280800</v>
+        <v>281000</v>
       </c>
       <c r="G89" s="3">
-        <v>621200</v>
+        <v>621700</v>
       </c>
       <c r="H89" s="3">
-        <v>372900</v>
+        <v>373200</v>
       </c>
       <c r="I89" s="3">
-        <v>194100</v>
+        <v>194200</v>
       </c>
       <c r="J89" s="3">
-        <v>109500</v>
+        <v>109600</v>
       </c>
       <c r="K89" s="3">
         <v>-38800</v>
@@ -3815,19 +3815,19 @@
         <v>-27100</v>
       </c>
       <c r="E91" s="3">
-        <v>-92100</v>
+        <v>-92200</v>
       </c>
       <c r="F91" s="3">
         <v>-84600</v>
       </c>
       <c r="G91" s="3">
-        <v>-146400</v>
+        <v>-146500</v>
       </c>
       <c r="H91" s="3">
-        <v>-135500</v>
+        <v>-135600</v>
       </c>
       <c r="I91" s="3">
-        <v>-39000</v>
+        <v>-39100</v>
       </c>
       <c r="J91" s="3">
         <v>-29300</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-458600</v>
+        <v>-459000</v>
       </c>
       <c r="E94" s="3">
-        <v>-202700</v>
+        <v>-202900</v>
       </c>
       <c r="F94" s="3">
-        <v>-403300</v>
+        <v>-403600</v>
       </c>
       <c r="G94" s="3">
-        <v>-236300</v>
+        <v>-236500</v>
       </c>
       <c r="H94" s="3">
         <v>-23900</v>
       </c>
       <c r="I94" s="3">
-        <v>-471600</v>
+        <v>-472000</v>
       </c>
       <c r="J94" s="3">
-        <v>-896600</v>
+        <v>-897300</v>
       </c>
       <c r="K94" s="3">
         <v>-68400</v>
@@ -4169,22 +4169,22 @@
         <v>-43400</v>
       </c>
       <c r="E100" s="3">
-        <v>1355100</v>
+        <v>1356300</v>
       </c>
       <c r="F100" s="3">
-        <v>309000</v>
+        <v>309200</v>
       </c>
       <c r="G100" s="3">
-        <v>-220100</v>
+        <v>-220300</v>
       </c>
       <c r="H100" s="3">
-        <v>99700</v>
+        <v>99800</v>
       </c>
       <c r="I100" s="3">
         <v>36900</v>
       </c>
       <c r="J100" s="3">
-        <v>993000</v>
+        <v>993900</v>
       </c>
       <c r="K100" s="3">
         <v>485900</v>
@@ -4208,13 +4208,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>169100</v>
+        <v>169300</v>
       </c>
       <c r="E101" s="3">
-        <v>183200</v>
+        <v>183400</v>
       </c>
       <c r="F101" s="3">
-        <v>-93200</v>
+        <v>-93300</v>
       </c>
       <c r="G101" s="3">
         <v>23900</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-60700</v>
+        <v>-60800</v>
       </c>
       <c r="J101" s="3">
         <v>-34700</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-283000</v>
+        <v>-283200</v>
       </c>
       <c r="E102" s="3">
-        <v>1727000</v>
+        <v>1728400</v>
       </c>
       <c r="F102" s="3">
-        <v>93200</v>
+        <v>93300</v>
       </c>
       <c r="G102" s="3">
-        <v>188600</v>
+        <v>188800</v>
       </c>
       <c r="H102" s="3">
-        <v>448800</v>
+        <v>449200</v>
       </c>
       <c r="I102" s="3">
-        <v>-301400</v>
+        <v>-301600</v>
       </c>
       <c r="J102" s="3">
-        <v>171300</v>
+        <v>171400</v>
       </c>
       <c r="K102" s="3">
         <v>399100</v>
